--- a/Template_CoMoCOVID-19App_v17.xlsx
+++ b/Template_CoMoCOVID-19App_v17.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivier/Documents/Projets/CoMo/como/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F1B9DF7-94F4-3F40-BE93-B58AD7AFC833}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38DA7166-B932-3649-BA4B-F047F09E23FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="500" windowWidth="18700" windowHeight="21100" tabRatio="648" activeTab="4" xr2:uid="{25C8D176-4C08-9D40-9B57-F7F8CA55C35B}"/>
+    <workbookView xWindow="10420" yWindow="640" windowWidth="18700" windowHeight="17500" tabRatio="648" activeTab="3" xr2:uid="{25C8D176-4C08-9D40-9B57-F7F8CA55C35B}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="477">
   <si>
     <t>5-10 y.o.</t>
   </si>
@@ -101,66 +101,6 @@
   </si>
   <si>
     <t>Label</t>
-  </si>
-  <si>
-    <t>0-4 y.o.</t>
-  </si>
-  <si>
-    <t>5-9 y.o.</t>
-  </si>
-  <si>
-    <t>10-14 y.o.</t>
-  </si>
-  <si>
-    <t>15-19 y.o.</t>
-  </si>
-  <si>
-    <t>20-24 y.o.</t>
-  </si>
-  <si>
-    <t>25-29 y.o.</t>
-  </si>
-  <si>
-    <t>30-34 y.o.</t>
-  </si>
-  <si>
-    <t>35-39 y.o.</t>
-  </si>
-  <si>
-    <t>40-44 y.o.</t>
-  </si>
-  <si>
-    <t>45-49 y.o.</t>
-  </si>
-  <si>
-    <t>50-54 y.o.</t>
-  </si>
-  <si>
-    <t>55-59 y.o.</t>
-  </si>
-  <si>
-    <t>60-64 y.o.</t>
-  </si>
-  <si>
-    <t>65-69 y.o.</t>
-  </si>
-  <si>
-    <t>70-74 y.o.</t>
-  </si>
-  <si>
-    <t>75-79 y.o.</t>
-  </si>
-  <si>
-    <t>80-84 y.o.</t>
-  </si>
-  <si>
-    <t>85-89 y.o.</t>
-  </si>
-  <si>
-    <t>90-94 y.o.</t>
-  </si>
-  <si>
-    <t>95-99 y.o.</t>
   </si>
   <si>
     <t>Type</t>
@@ -3006,6 +2946,9 @@
       </rPr>
       <t>. Removed min/max age for "Vaccination" and "Mass Testing" (see above for replacement).</t>
     </r>
+  </si>
+  <si>
+    <t>0-5 y.o.</t>
   </si>
 </sst>
 </file>
@@ -3257,7 +3200,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -3434,9 +3377,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3873,37 +3813,37 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="5" t="s">
-        <v>458</v>
+        <v>438</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="21">
       <c r="A2" s="3" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="58" t="s">
-        <v>459</v>
+        <v>439</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="89" customHeight="1">
       <c r="A8" s="38" t="s">
-        <v>489</v>
+        <v>469</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3911,238 +3851,238 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>484</v>
+        <v>464</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>485</v>
+        <v>465</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>490</v>
+        <v>470</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>486</v>
+        <v>466</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="88" t="s">
-        <v>463</v>
+      <c r="A15" s="87" t="s">
+        <v>443</v>
       </c>
       <c r="F15" s="40"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="88" t="s">
-        <v>464</v>
+      <c r="A16" s="87" t="s">
+        <v>444</v>
       </c>
       <c r="F16" s="40"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="88" t="s">
-        <v>465</v>
+      <c r="A17" s="87" t="s">
+        <v>445</v>
       </c>
       <c r="F17" s="40"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="88" t="s">
-        <v>466</v>
+      <c r="A18" s="87" t="s">
+        <v>446</v>
       </c>
       <c r="F18" s="40"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="88" t="s">
-        <v>467</v>
+      <c r="A19" s="87" t="s">
+        <v>447</v>
       </c>
       <c r="F19" s="40"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="88" t="s">
-        <v>468</v>
+      <c r="A20" s="87" t="s">
+        <v>448</v>
       </c>
       <c r="F20" s="40"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="88" t="s">
-        <v>469</v>
+      <c r="A21" s="87" t="s">
+        <v>449</v>
       </c>
       <c r="F21" s="40"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="88" t="s">
-        <v>470</v>
+      <c r="A22" s="87" t="s">
+        <v>450</v>
       </c>
       <c r="F22" s="40"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="88" t="s">
-        <v>471</v>
+      <c r="A23" s="87" t="s">
+        <v>451</v>
       </c>
       <c r="F23" s="40"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="88" t="s">
-        <v>472</v>
+      <c r="A24" s="87" t="s">
+        <v>452</v>
       </c>
       <c r="F24" s="40"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="88" t="s">
-        <v>473</v>
+      <c r="A25" s="87" t="s">
+        <v>453</v>
       </c>
       <c r="F25" s="40"/>
     </row>
     <row r="26" spans="1:6" s="39" customFormat="1">
-      <c r="A26" s="88" t="s">
-        <v>474</v>
+      <c r="A26" s="87" t="s">
+        <v>454</v>
       </c>
       <c r="B26"/>
       <c r="D26"/>
       <c r="F26" s="40"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="88" t="s">
+      <c r="A27" s="87" t="s">
+        <v>455</v>
+      </c>
+      <c r="F27" s="40"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="87" t="s">
+        <v>456</v>
+      </c>
+      <c r="F28" s="40"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="87" t="s">
+        <v>457</v>
+      </c>
+      <c r="F29" s="40"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="87" t="s">
+        <v>458</v>
+      </c>
+      <c r="F30" s="40"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="87" t="s">
+        <v>459</v>
+      </c>
+      <c r="F31" s="40"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="87" t="s">
+        <v>460</v>
+      </c>
+      <c r="F32" s="40"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="87" t="s">
+        <v>461</v>
+      </c>
+      <c r="F33" s="40"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="87" t="s">
+        <v>462</v>
+      </c>
+      <c r="F34" s="40"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="87" t="s">
+        <v>463</v>
+      </c>
+      <c r="F35" s="40"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="80" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="34">
+      <c r="A38" s="89" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="34">
+      <c r="A39" s="90" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="34">
+      <c r="A40" s="90" t="s">
         <v>475</v>
       </c>
-      <c r="F27" s="40"/>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="88" t="s">
-        <v>476</v>
-      </c>
-      <c r="F28" s="40"/>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="88" t="s">
-        <v>477</v>
-      </c>
-      <c r="F29" s="40"/>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="88" t="s">
-        <v>478</v>
-      </c>
-      <c r="F30" s="40"/>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="88" t="s">
-        <v>479</v>
-      </c>
-      <c r="F31" s="40"/>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="88" t="s">
-        <v>480</v>
-      </c>
-      <c r="F32" s="40"/>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="88" t="s">
-        <v>481</v>
-      </c>
-      <c r="F33" s="40"/>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="88" t="s">
-        <v>482</v>
-      </c>
-      <c r="F34" s="40"/>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="88" t="s">
-        <v>483</v>
-      </c>
-      <c r="F35" s="40"/>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="81" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="34">
-      <c r="A38" s="90" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="34">
-      <c r="A39" s="91" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="34">
-      <c r="A40" s="91" t="s">
-        <v>495</v>
-      </c>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="81"/>
+      <c r="A41" s="80"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="84" t="s">
-        <v>393</v>
+      <c r="A43" s="83" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="34">
       <c r="A44" s="38" t="s">
-        <v>451</v>
+        <v>431</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="17">
       <c r="A45" s="38" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="17">
       <c r="A46" s="38" t="s">
-        <v>448</v>
+        <v>428</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="17">
       <c r="A47" s="38" t="s">
-        <v>449</v>
+        <v>429</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="34">
       <c r="A48" s="38" t="s">
-        <v>455</v>
+        <v>435</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="78" t="s">
-        <v>362</v>
+        <v>342</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="40" t="s">
-        <v>363</v>
+        <v>343</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="79" t="s">
-        <v>452</v>
+        <v>432</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>327</v>
+        <v>307</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="34">
       <c r="A55" s="38" t="s">
-        <v>353</v>
+        <v>333</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="34">
       <c r="A56" s="38" t="s">
-        <v>354</v>
+        <v>334</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="68">
       <c r="A57" s="38" t="s">
-        <v>360</v>
+        <v>340</v>
       </c>
     </row>
     <row r="58" spans="1:1">
@@ -4150,22 +4090,22 @@
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="79" t="s">
-        <v>453</v>
+        <v>433</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>322</v>
+        <v>302</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -4198,30 +4138,30 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17">
       <c r="A1" s="2" t="s">
-        <v>289</v>
+        <v>269</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>291</v>
+        <v>271</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>292</v>
+        <v>272</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>462</v>
+        <v>442</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>355</v>
+        <v>335</v>
       </c>
       <c r="B2" s="7">
         <v>43876</v>
@@ -4236,14 +4176,14 @@
         <f>IF(A2="","",VLOOKUP(A2,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v>contacts</v>
       </c>
-      <c r="F2" s="86"/>
+      <c r="F2" s="85"/>
       <c r="G2" s="1" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="B3" s="7">
         <v>43876</v>
@@ -4258,14 +4198,14 @@
         <f>IF(A3="","",VLOOKUP(A3,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v>%</v>
       </c>
-      <c r="F3" s="87"/>
+      <c r="F3" s="86"/>
       <c r="G3" s="1" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>355</v>
+        <v>335</v>
       </c>
       <c r="B4" s="7">
         <v>43937</v>
@@ -4280,14 +4220,14 @@
         <f>IF(A4="","",VLOOKUP(A4,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v>contacts</v>
       </c>
-      <c r="F4" s="87"/>
+      <c r="F4" s="86"/>
       <c r="G4" s="1" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>356</v>
+        <v>336</v>
       </c>
       <c r="B5" s="7">
         <v>43876</v>
@@ -4302,14 +4242,14 @@
         <f>IF(A5="","",VLOOKUP(A5,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v>%</v>
       </c>
-      <c r="F5" s="87"/>
+      <c r="F5" s="86"/>
       <c r="G5" s="1" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="B6" s="7">
         <v>43876</v>
@@ -4324,14 +4264,14 @@
         <f>IF(A6="","",VLOOKUP(A6,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v>%</v>
       </c>
-      <c r="F6" s="87"/>
+      <c r="F6" s="86"/>
       <c r="G6" s="1" t="s">
-        <v>298</v>
+        <v>278</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>288</v>
+        <v>268</v>
       </c>
       <c r="B7" s="7">
         <v>43937</v>
@@ -4346,14 +4286,14 @@
         <f>IF(A7="","",VLOOKUP(A7,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v>%</v>
       </c>
-      <c r="F7" s="87"/>
+      <c r="F7" s="86"/>
       <c r="G7" s="1" t="s">
-        <v>298</v>
+        <v>278</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="B8" s="7">
         <v>43876</v>
@@ -4368,14 +4308,14 @@
         <f>IF(A8="","",VLOOKUP(A8,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v>%</v>
       </c>
-      <c r="F8" s="87"/>
+      <c r="F8" s="86"/>
       <c r="G8" s="1" t="s">
-        <v>298</v>
+        <v>278</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>355</v>
+        <v>335</v>
       </c>
       <c r="B9" s="7">
         <v>43876</v>
@@ -4390,14 +4330,14 @@
         <f>IF(A9="","",VLOOKUP(A9,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v>contacts</v>
       </c>
-      <c r="F9" s="87"/>
+      <c r="F9" s="86"/>
       <c r="G9" s="1" t="s">
-        <v>298</v>
+        <v>278</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>356</v>
+        <v>336</v>
       </c>
       <c r="B10" s="7">
         <v>43876</v>
@@ -4412,14 +4352,14 @@
         <f>IF(A10="","",VLOOKUP(A10,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v>%</v>
       </c>
-      <c r="F10" s="87"/>
+      <c r="F10" s="86"/>
       <c r="G10" s="1" t="s">
-        <v>298</v>
+        <v>278</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>296</v>
+        <v>276</v>
       </c>
       <c r="B11" s="7">
         <v>43876</v>
@@ -4434,14 +4374,14 @@
         <f>IF(A11="","",VLOOKUP(A11,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v>%</v>
       </c>
-      <c r="F11" s="87"/>
+      <c r="F11" s="86"/>
       <c r="G11" s="1" t="s">
-        <v>298</v>
+        <v>278</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="B12" s="7">
         <v>43866</v>
@@ -4456,14 +4396,14 @@
         <f>IF(A12="","",VLOOKUP(A12,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v>%</v>
       </c>
-      <c r="F12" s="87"/>
+      <c r="F12" s="86"/>
       <c r="G12" s="1" t="s">
-        <v>298</v>
+        <v>278</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>315</v>
+        <v>295</v>
       </c>
       <c r="B13" s="7">
         <v>43891</v>
@@ -4478,16 +4418,16 @@
         <f>IF(A13="","",VLOOKUP(A13,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v>thousand tests</v>
       </c>
-      <c r="F13" s="87" t="s">
-        <v>488</v>
+      <c r="F13" s="86" t="s">
+        <v>468</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>298</v>
+        <v>278</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="B14" s="7">
         <v>43891</v>
@@ -4502,16 +4442,16 @@
         <f>IF(A14="","",VLOOKUP(A14,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v>%</v>
       </c>
-      <c r="F14" s="87" t="s">
-        <v>461</v>
+      <c r="F14" s="86" t="s">
+        <v>441</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>298</v>
+        <v>278</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="B15" s="7">
         <v>43941</v>
@@ -4526,14 +4466,14 @@
         <f>IF(A15="","",VLOOKUP(A15,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v>%</v>
       </c>
-      <c r="F15" s="87"/>
+      <c r="F15" s="86"/>
       <c r="G15" s="1" t="s">
-        <v>298</v>
+        <v>278</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="B16" s="7">
         <v>43983</v>
@@ -4548,11 +4488,11 @@
         <f>IF(A16="","",VLOOKUP(A16,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v>%</v>
       </c>
-      <c r="F16" s="87" t="s">
-        <v>460</v>
+      <c r="F16" s="86" t="s">
+        <v>440</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>298</v>
+        <v>278</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -4564,7 +4504,7 @@
         <f>IF(A17="","",VLOOKUP(A17,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F17" s="86"/>
+      <c r="F17" s="85"/>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7">
@@ -4576,7 +4516,7 @@
         <f>IF(A18="","",VLOOKUP(A18,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F18" s="86"/>
+      <c r="F18" s="85"/>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7">
@@ -4588,7 +4528,7 @@
         <f>IF(A19="","",VLOOKUP(A19,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F19" s="86"/>
+      <c r="F19" s="85"/>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7">
@@ -4600,7 +4540,7 @@
         <f>IF(A20="","",VLOOKUP(A20,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F20" s="86"/>
+      <c r="F20" s="85"/>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7">
@@ -4612,7 +4552,7 @@
         <f>IF(A21="","",VLOOKUP(A21,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F21" s="86"/>
+      <c r="F21" s="85"/>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7">
@@ -4624,7 +4564,7 @@
         <f>IF(A22="","",VLOOKUP(A22,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F22" s="86"/>
+      <c r="F22" s="85"/>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7">
@@ -4636,7 +4576,7 @@
         <f>IF(A23="","",VLOOKUP(A23,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F23" s="86"/>
+      <c r="F23" s="85"/>
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7">
@@ -4648,7 +4588,7 @@
         <f>IF(A24="","",VLOOKUP(A24,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F24" s="86"/>
+      <c r="F24" s="85"/>
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7">
@@ -4660,7 +4600,7 @@
         <f>IF(A25="","",VLOOKUP(A25,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F25" s="86"/>
+      <c r="F25" s="85"/>
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7">
@@ -4672,7 +4612,7 @@
         <f>IF(A26="","",VLOOKUP(A26,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F26" s="86"/>
+      <c r="F26" s="85"/>
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7">
@@ -4684,7 +4624,7 @@
         <f>IF(A27="","",VLOOKUP(A27,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F27" s="86"/>
+      <c r="F27" s="85"/>
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7">
@@ -4696,7 +4636,7 @@
         <f>IF(A28="","",VLOOKUP(A28,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F28" s="86"/>
+      <c r="F28" s="85"/>
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7">
@@ -4708,7 +4648,7 @@
         <f>IF(A29="","",VLOOKUP(A29,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F29" s="86"/>
+      <c r="F29" s="85"/>
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7">
@@ -4720,7 +4660,7 @@
         <f>IF(A30="","",VLOOKUP(A30,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F30" s="86"/>
+      <c r="F30" s="85"/>
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7">
@@ -4732,7 +4672,7 @@
         <f>IF(A31="","",VLOOKUP(A31,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F31" s="86"/>
+      <c r="F31" s="85"/>
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7">
@@ -4744,7 +4684,7 @@
         <f>IF(A32="","",VLOOKUP(A32,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F32" s="86"/>
+      <c r="F32" s="85"/>
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7">
@@ -4756,7 +4696,7 @@
         <f>IF(A33="","",VLOOKUP(A33,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F33" s="86"/>
+      <c r="F33" s="85"/>
       <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:7">
@@ -4768,7 +4708,7 @@
         <f>IF(A34="","",VLOOKUP(A34,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F34" s="86"/>
+      <c r="F34" s="85"/>
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="1:7">
@@ -4780,7 +4720,7 @@
         <f>IF(A35="","",VLOOKUP(A35,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F35" s="86"/>
+      <c r="F35" s="85"/>
       <c r="G35" s="1"/>
     </row>
     <row r="36" spans="1:7">
@@ -4792,7 +4732,7 @@
         <f>IF(A36="","",VLOOKUP(A36,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F36" s="86"/>
+      <c r="F36" s="85"/>
       <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:7">
@@ -4804,7 +4744,7 @@
         <f>IF(A37="","",VLOOKUP(A37,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F37" s="86"/>
+      <c r="F37" s="85"/>
       <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:7">
@@ -4816,7 +4756,7 @@
         <f>IF(A38="","",VLOOKUP(A38,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F38" s="86"/>
+      <c r="F38" s="85"/>
       <c r="G38" s="1"/>
     </row>
     <row r="39" spans="1:7">
@@ -4828,7 +4768,7 @@
         <f>IF(A39="","",VLOOKUP(A39,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F39" s="86"/>
+      <c r="F39" s="85"/>
       <c r="G39" s="1"/>
     </row>
     <row r="40" spans="1:7">
@@ -4840,7 +4780,7 @@
         <f>IF(A40="","",VLOOKUP(A40,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F40" s="86"/>
+      <c r="F40" s="85"/>
       <c r="G40" s="1"/>
     </row>
     <row r="41" spans="1:7">
@@ -4852,7 +4792,7 @@
         <f>IF(A41="","",VLOOKUP(A41,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F41" s="86"/>
+      <c r="F41" s="85"/>
       <c r="G41" s="1"/>
     </row>
     <row r="42" spans="1:7">
@@ -4864,7 +4804,7 @@
         <f>IF(A42="","",VLOOKUP(A42,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F42" s="86"/>
+      <c r="F42" s="85"/>
       <c r="G42" s="1"/>
     </row>
     <row r="43" spans="1:7">
@@ -4876,7 +4816,7 @@
         <f>IF(A43="","",VLOOKUP(A43,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F43" s="86"/>
+      <c r="F43" s="85"/>
       <c r="G43" s="1"/>
     </row>
     <row r="44" spans="1:7">
@@ -4888,7 +4828,7 @@
         <f>IF(A44="","",VLOOKUP(A44,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F44" s="86"/>
+      <c r="F44" s="85"/>
       <c r="G44" s="1"/>
     </row>
     <row r="45" spans="1:7">
@@ -4900,7 +4840,7 @@
         <f>IF(A45="","",VLOOKUP(A45,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F45" s="86"/>
+      <c r="F45" s="85"/>
       <c r="G45" s="1"/>
     </row>
     <row r="46" spans="1:7">
@@ -4912,7 +4852,7 @@
         <f>IF(A46="","",VLOOKUP(A46,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F46" s="86"/>
+      <c r="F46" s="85"/>
       <c r="G46" s="1"/>
     </row>
     <row r="47" spans="1:7">
@@ -4924,7 +4864,7 @@
         <f>IF(A47="","",VLOOKUP(A47,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F47" s="86"/>
+      <c r="F47" s="85"/>
       <c r="G47" s="1"/>
     </row>
     <row r="48" spans="1:7">
@@ -4936,7 +4876,7 @@
         <f>IF(A48="","",VLOOKUP(A48,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F48" s="86"/>
+      <c r="F48" s="85"/>
       <c r="G48" s="1"/>
     </row>
     <row r="49" spans="1:7">
@@ -4948,7 +4888,7 @@
         <f>IF(A49="","",VLOOKUP(A49,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F49" s="86"/>
+      <c r="F49" s="85"/>
       <c r="G49" s="1"/>
     </row>
     <row r="50" spans="1:7">
@@ -4960,7 +4900,7 @@
         <f>IF(A50="","",VLOOKUP(A50,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F50" s="86"/>
+      <c r="F50" s="85"/>
       <c r="G50" s="1"/>
     </row>
     <row r="51" spans="1:7">
@@ -4972,7 +4912,7 @@
         <f>IF(A51="","",VLOOKUP(A51,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F51" s="86"/>
+      <c r="F51" s="85"/>
       <c r="G51" s="1"/>
     </row>
     <row r="52" spans="1:7">
@@ -4984,7 +4924,7 @@
         <f>IF(A52="","",VLOOKUP(A52,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F52" s="86"/>
+      <c r="F52" s="85"/>
       <c r="G52" s="1"/>
     </row>
     <row r="53" spans="1:7">
@@ -4996,7 +4936,7 @@
         <f>IF(A53="","",VLOOKUP(A53,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F53" s="86"/>
+      <c r="F53" s="85"/>
       <c r="G53" s="1"/>
     </row>
     <row r="54" spans="1:7">
@@ -5008,7 +4948,7 @@
         <f>IF(A54="","",VLOOKUP(A54,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F54" s="86"/>
+      <c r="F54" s="85"/>
       <c r="G54" s="1"/>
     </row>
     <row r="55" spans="1:7">
@@ -5020,7 +4960,7 @@
         <f>IF(A55="","",VLOOKUP(A55,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F55" s="86"/>
+      <c r="F55" s="85"/>
       <c r="G55" s="1"/>
     </row>
     <row r="56" spans="1:7">
@@ -5032,7 +4972,7 @@
         <f>IF(A56="","",VLOOKUP(A56,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F56" s="86"/>
+      <c r="F56" s="85"/>
       <c r="G56" s="1"/>
     </row>
     <row r="57" spans="1:7">
@@ -5044,7 +4984,7 @@
         <f>IF(A57="","",VLOOKUP(A57,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F57" s="86"/>
+      <c r="F57" s="85"/>
       <c r="G57" s="1"/>
     </row>
     <row r="58" spans="1:7">
@@ -5056,7 +4996,7 @@
         <f>IF(A58="","",VLOOKUP(A58,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F58" s="86"/>
+      <c r="F58" s="85"/>
       <c r="G58" s="1"/>
     </row>
     <row r="59" spans="1:7">
@@ -5068,7 +5008,7 @@
         <f>IF(A59="","",VLOOKUP(A59,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F59" s="86"/>
+      <c r="F59" s="85"/>
       <c r="G59" s="1"/>
     </row>
     <row r="60" spans="1:7">
@@ -5080,7 +5020,7 @@
         <f>IF(A60="","",VLOOKUP(A60,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F60" s="86"/>
+      <c r="F60" s="85"/>
       <c r="G60" s="1"/>
     </row>
     <row r="61" spans="1:7">
@@ -5092,7 +5032,7 @@
         <f>IF(A61="","",VLOOKUP(A61,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F61" s="86"/>
+      <c r="F61" s="85"/>
       <c r="G61" s="1"/>
     </row>
     <row r="62" spans="1:7">
@@ -5104,7 +5044,7 @@
         <f>IF(A62="","",VLOOKUP(A62,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F62" s="86"/>
+      <c r="F62" s="85"/>
       <c r="G62" s="1"/>
     </row>
     <row r="63" spans="1:7">
@@ -5116,7 +5056,7 @@
         <f>IF(A63="","",VLOOKUP(A63,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F63" s="86"/>
+      <c r="F63" s="85"/>
       <c r="G63" s="1"/>
     </row>
     <row r="64" spans="1:7">
@@ -5128,7 +5068,7 @@
         <f>IF(A64="","",VLOOKUP(A64,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F64" s="86"/>
+      <c r="F64" s="85"/>
       <c r="G64" s="1"/>
     </row>
     <row r="65" spans="1:7">
@@ -5140,7 +5080,7 @@
         <f>IF(A65="","",VLOOKUP(A65,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F65" s="86"/>
+      <c r="F65" s="85"/>
       <c r="G65" s="1"/>
     </row>
     <row r="66" spans="1:7">
@@ -5152,7 +5092,7 @@
         <f>IF(A66="","",VLOOKUP(A66,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F66" s="86"/>
+      <c r="F66" s="85"/>
       <c r="G66" s="1"/>
     </row>
     <row r="67" spans="1:7">
@@ -5164,7 +5104,7 @@
         <f>IF(A67="","",VLOOKUP(A67,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F67" s="86"/>
+      <c r="F67" s="85"/>
       <c r="G67" s="1"/>
     </row>
     <row r="68" spans="1:7">
@@ -5176,7 +5116,7 @@
         <f>IF(A68="","",VLOOKUP(A68,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F68" s="86"/>
+      <c r="F68" s="85"/>
       <c r="G68" s="1"/>
     </row>
     <row r="69" spans="1:7">
@@ -5188,7 +5128,7 @@
         <f>IF(A69="","",VLOOKUP(A69,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F69" s="86"/>
+      <c r="F69" s="85"/>
       <c r="G69" s="1"/>
     </row>
     <row r="70" spans="1:7">
@@ -5200,7 +5140,7 @@
         <f>IF(A70="","",VLOOKUP(A70,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F70" s="86"/>
+      <c r="F70" s="85"/>
       <c r="G70" s="1"/>
     </row>
     <row r="71" spans="1:7">
@@ -5212,7 +5152,7 @@
         <f>IF(A71="","",VLOOKUP(A71,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F71" s="86"/>
+      <c r="F71" s="85"/>
       <c r="G71" s="1"/>
     </row>
     <row r="72" spans="1:7">
@@ -5224,7 +5164,7 @@
         <f>IF(A72="","",VLOOKUP(A72,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F72" s="86"/>
+      <c r="F72" s="85"/>
       <c r="G72" s="1"/>
     </row>
     <row r="73" spans="1:7">
@@ -5236,7 +5176,7 @@
         <f>IF(A73="","",VLOOKUP(A73,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F73" s="86"/>
+      <c r="F73" s="85"/>
       <c r="G73" s="1"/>
     </row>
     <row r="74" spans="1:7">
@@ -5248,7 +5188,7 @@
         <f>IF(A74="","",VLOOKUP(A74,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F74" s="86"/>
+      <c r="F74" s="85"/>
       <c r="G74" s="1"/>
     </row>
     <row r="75" spans="1:7">
@@ -5260,7 +5200,7 @@
         <f>IF(A75="","",VLOOKUP(A75,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F75" s="86"/>
+      <c r="F75" s="85"/>
       <c r="G75" s="1"/>
     </row>
     <row r="76" spans="1:7">
@@ -5272,7 +5212,7 @@
         <f>IF(A76="","",VLOOKUP(A76,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F76" s="86"/>
+      <c r="F76" s="85"/>
       <c r="G76" s="1"/>
     </row>
     <row r="77" spans="1:7">
@@ -5284,7 +5224,7 @@
         <f>IF(A77="","",VLOOKUP(A77,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F77" s="86"/>
+      <c r="F77" s="85"/>
       <c r="G77" s="1"/>
     </row>
     <row r="78" spans="1:7">
@@ -5296,7 +5236,7 @@
         <f>IF(A78="","",VLOOKUP(A78,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F78" s="86"/>
+      <c r="F78" s="85"/>
       <c r="G78" s="1"/>
     </row>
     <row r="79" spans="1:7">
@@ -5308,7 +5248,7 @@
         <f>IF(A79="","",VLOOKUP(A79,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F79" s="86"/>
+      <c r="F79" s="85"/>
       <c r="G79" s="1"/>
     </row>
     <row r="80" spans="1:7">
@@ -5320,7 +5260,7 @@
         <f>IF(A80="","",VLOOKUP(A80,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F80" s="86"/>
+      <c r="F80" s="85"/>
       <c r="G80" s="1"/>
     </row>
     <row r="81" spans="1:7">
@@ -5332,7 +5272,7 @@
         <f>IF(A81="","",VLOOKUP(A81,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F81" s="86"/>
+      <c r="F81" s="85"/>
       <c r="G81" s="1"/>
     </row>
     <row r="82" spans="1:7">
@@ -5344,7 +5284,7 @@
         <f>IF(A82="","",VLOOKUP(A82,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F82" s="86"/>
+      <c r="F82" s="85"/>
       <c r="G82" s="1"/>
     </row>
     <row r="83" spans="1:7">
@@ -5356,7 +5296,7 @@
         <f>IF(A83="","",VLOOKUP(A83,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F83" s="86"/>
+      <c r="F83" s="85"/>
       <c r="G83" s="1"/>
     </row>
     <row r="84" spans="1:7">
@@ -5368,7 +5308,7 @@
         <f>IF(A84="","",VLOOKUP(A84,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F84" s="86"/>
+      <c r="F84" s="85"/>
       <c r="G84" s="1"/>
     </row>
     <row r="85" spans="1:7">
@@ -5380,7 +5320,7 @@
         <f>IF(A85="","",VLOOKUP(A85,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F85" s="86"/>
+      <c r="F85" s="85"/>
       <c r="G85" s="1"/>
     </row>
     <row r="86" spans="1:7">
@@ -5392,7 +5332,7 @@
         <f>IF(A86="","",VLOOKUP(A86,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F86" s="86"/>
+      <c r="F86" s="85"/>
       <c r="G86" s="1"/>
     </row>
     <row r="87" spans="1:7">
@@ -5404,7 +5344,7 @@
         <f>IF(A87="","",VLOOKUP(A87,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F87" s="86"/>
+      <c r="F87" s="85"/>
       <c r="G87" s="1"/>
     </row>
     <row r="88" spans="1:7">
@@ -5416,7 +5356,7 @@
         <f>IF(A88="","",VLOOKUP(A88,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F88" s="86"/>
+      <c r="F88" s="85"/>
       <c r="G88" s="1"/>
     </row>
     <row r="89" spans="1:7">
@@ -5428,7 +5368,7 @@
         <f>IF(A89="","",VLOOKUP(A89,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F89" s="86"/>
+      <c r="F89" s="85"/>
       <c r="G89" s="1"/>
     </row>
     <row r="90" spans="1:7">
@@ -5440,7 +5380,7 @@
         <f>IF(A90="","",VLOOKUP(A90,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F90" s="86"/>
+      <c r="F90" s="85"/>
       <c r="G90" s="1"/>
     </row>
     <row r="91" spans="1:7">
@@ -5452,7 +5392,7 @@
         <f>IF(A91="","",VLOOKUP(A91,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F91" s="86"/>
+      <c r="F91" s="85"/>
       <c r="G91" s="1"/>
     </row>
     <row r="92" spans="1:7">
@@ -5464,7 +5404,7 @@
         <f>IF(A92="","",VLOOKUP(A92,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F92" s="86"/>
+      <c r="F92" s="85"/>
       <c r="G92" s="1"/>
     </row>
     <row r="93" spans="1:7">
@@ -5476,7 +5416,7 @@
         <f>IF(A93="","",VLOOKUP(A93,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F93" s="86"/>
+      <c r="F93" s="85"/>
       <c r="G93" s="1"/>
     </row>
     <row r="94" spans="1:7">
@@ -5488,7 +5428,7 @@
         <f>IF(A94="","",VLOOKUP(A94,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F94" s="86"/>
+      <c r="F94" s="85"/>
       <c r="G94" s="1"/>
     </row>
     <row r="95" spans="1:7">
@@ -5500,7 +5440,7 @@
         <f>IF(A95="","",VLOOKUP(A95,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F95" s="86"/>
+      <c r="F95" s="85"/>
       <c r="G95" s="1"/>
     </row>
     <row r="96" spans="1:7">
@@ -5512,7 +5452,7 @@
         <f>IF(A96="","",VLOOKUP(A96,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F96" s="86"/>
+      <c r="F96" s="85"/>
       <c r="G96" s="1"/>
     </row>
     <row r="97" spans="1:7">
@@ -5524,7 +5464,7 @@
         <f>IF(A97="","",VLOOKUP(A97,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F97" s="86"/>
+      <c r="F97" s="85"/>
       <c r="G97" s="1"/>
     </row>
     <row r="98" spans="1:7">
@@ -5536,7 +5476,7 @@
         <f>IF(A98="","",VLOOKUP(A98,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F98" s="86"/>
+      <c r="F98" s="85"/>
       <c r="G98" s="1"/>
     </row>
     <row r="99" spans="1:7">
@@ -5548,7 +5488,7 @@
         <f>IF(A99="","",VLOOKUP(A99,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F99" s="86"/>
+      <c r="F99" s="85"/>
       <c r="G99" s="1"/>
     </row>
     <row r="100" spans="1:7">
@@ -5560,7 +5500,7 @@
         <f>IF(A100="","",VLOOKUP(A100,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F100" s="86"/>
+      <c r="F100" s="85"/>
       <c r="G100" s="1"/>
     </row>
   </sheetData>
@@ -5615,19 +5555,19 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E1" s="85" t="s">
-        <v>289</v>
-      </c>
-      <c r="F1" s="85" t="s">
-        <v>358</v>
+      <c r="E1" s="84" t="s">
+        <v>269</v>
+      </c>
+      <c r="F1" s="84" t="s">
+        <v>338</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -5635,16 +5575,16 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -5652,835 +5592,835 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>298</v>
+        <v>278</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="C4" s="2" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>296</v>
+        <v>276</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="C5" s="2" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="C6" s="2" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>315</v>
+        <v>295</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>454</v>
+        <v>434</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="C7" s="2" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="C8" s="2" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="C9" s="2" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>356</v>
+        <v>336</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="C10" s="2" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>355</v>
+        <v>335</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>357</v>
+        <v>337</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="C11" s="2" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>288</v>
+        <v>268</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="C12" s="2" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="C13" s="2" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="C14" s="2" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="C15" s="2" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>359</v>
+        <v>339</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="C16" s="2" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="3:3">
       <c r="C17" s="2" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="3:3">
       <c r="C18" s="2" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" s="2" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" s="2" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" s="2" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="3:3">
       <c r="C22" s="2" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="3:3">
       <c r="C23" s="2" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" s="2" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" s="2" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
     </row>
     <row r="26" spans="3:3">
       <c r="C26" s="2" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" s="2" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
     </row>
     <row r="28" spans="3:3">
       <c r="C28" s="2" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
     </row>
     <row r="29" spans="3:3">
       <c r="C29" s="2" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
     </row>
     <row r="30" spans="3:3">
       <c r="C30" s="2" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" s="2" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" s="2" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" s="2" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" s="2" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" s="2" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" s="2" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" s="2" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" s="2" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" s="2" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" s="2" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" s="2" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" s="2" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" s="2" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" s="2" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
     </row>
     <row r="45" spans="3:3">
       <c r="C45" s="2" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" s="2" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" s="2" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" s="2" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" s="2" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" s="2" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
     </row>
     <row r="51" spans="3:3">
       <c r="C51" s="2" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" s="2" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" s="2" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" s="2" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" s="2" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" s="2" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" s="2" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" s="2" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
     </row>
     <row r="59" spans="3:3">
       <c r="C59" s="2" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
     </row>
     <row r="60" spans="3:3">
       <c r="C60" s="2" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" s="2" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" s="2" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" s="2" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" s="2" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
     </row>
     <row r="65" spans="3:3">
       <c r="C65" s="2" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
     </row>
     <row r="66" spans="3:3">
       <c r="C66" s="2" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
     </row>
     <row r="67" spans="3:3">
       <c r="C67" s="2" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
     </row>
     <row r="68" spans="3:3">
       <c r="C68" s="2" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
     </row>
     <row r="69" spans="3:3">
       <c r="C69" s="2" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
     </row>
     <row r="70" spans="3:3">
       <c r="C70" s="2" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
     </row>
     <row r="71" spans="3:3">
       <c r="C71" s="2" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
     </row>
     <row r="72" spans="3:3">
       <c r="C72" s="2" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
     </row>
     <row r="73" spans="3:3">
       <c r="C73" s="2" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
     </row>
     <row r="74" spans="3:3">
       <c r="C74" s="2" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
     </row>
     <row r="75" spans="3:3">
       <c r="C75" s="2" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
     </row>
     <row r="76" spans="3:3">
       <c r="C76" s="2" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
     </row>
     <row r="77" spans="3:3">
       <c r="C77" s="2" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
     </row>
     <row r="78" spans="3:3">
       <c r="C78" s="2" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
     </row>
     <row r="79" spans="3:3">
       <c r="C79" s="2" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
     </row>
     <row r="80" spans="3:3">
       <c r="C80" s="2" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" s="2" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" s="2" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
     </row>
     <row r="83" spans="3:3">
       <c r="C83" s="2" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" s="2" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
     </row>
     <row r="85" spans="3:3">
       <c r="C85" s="2" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" s="2" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
     </row>
     <row r="87" spans="3:3">
       <c r="C87" s="2" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
     </row>
     <row r="88" spans="3:3">
       <c r="C88" s="2" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
     </row>
     <row r="89" spans="3:3">
       <c r="C89" s="2" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
     </row>
     <row r="90" spans="3:3">
       <c r="C90" s="2" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
     </row>
     <row r="91" spans="3:3">
       <c r="C91" s="2" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
     </row>
     <row r="92" spans="3:3">
       <c r="C92" s="2" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
     </row>
     <row r="93" spans="3:3">
       <c r="C93" s="2" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
     </row>
     <row r="94" spans="3:3">
       <c r="C94" s="2" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
     </row>
     <row r="95" spans="3:3">
       <c r="C95" s="2" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
     </row>
     <row r="96" spans="3:3">
       <c r="C96" s="2" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
     </row>
     <row r="97" spans="3:3">
       <c r="C97" s="2" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
     </row>
     <row r="98" spans="3:3">
       <c r="C98" s="2" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
     </row>
     <row r="99" spans="3:3">
       <c r="C99" s="2" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
     </row>
     <row r="100" spans="3:3">
       <c r="C100" s="2" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
     </row>
     <row r="101" spans="3:3">
       <c r="C101" s="2" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
     </row>
     <row r="102" spans="3:3">
       <c r="C102" s="2" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
     </row>
     <row r="103" spans="3:3">
       <c r="C103" s="2" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
     </row>
     <row r="104" spans="3:3">
       <c r="C104" s="2" t="s">
-        <v>235</v>
+        <v>215</v>
       </c>
     </row>
     <row r="105" spans="3:3">
       <c r="C105" s="2" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
     </row>
     <row r="106" spans="3:3">
       <c r="C106" s="2" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
     </row>
     <row r="107" spans="3:3">
       <c r="C107" s="2" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
     </row>
     <row r="108" spans="3:3">
       <c r="C108" s="2" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
     </row>
     <row r="109" spans="3:3">
       <c r="C109" s="2" t="s">
-        <v>240</v>
+        <v>220</v>
       </c>
     </row>
     <row r="110" spans="3:3">
       <c r="C110" s="2" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
     </row>
     <row r="111" spans="3:3">
       <c r="C111" s="2" t="s">
-        <v>242</v>
+        <v>222</v>
       </c>
     </row>
     <row r="112" spans="3:3">
       <c r="C112" s="2" t="s">
-        <v>243</v>
+        <v>223</v>
       </c>
     </row>
     <row r="113" spans="3:3">
       <c r="C113" s="2" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
     </row>
     <row r="114" spans="3:3">
       <c r="C114" s="2" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
     </row>
     <row r="115" spans="3:3">
       <c r="C115" s="2" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
     </row>
     <row r="116" spans="3:3">
       <c r="C116" s="2" t="s">
-        <v>247</v>
+        <v>227</v>
       </c>
     </row>
     <row r="117" spans="3:3">
       <c r="C117" s="2" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
     </row>
     <row r="118" spans="3:3">
       <c r="C118" s="2" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
     </row>
     <row r="119" spans="3:3">
       <c r="C119" s="2" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
     </row>
     <row r="120" spans="3:3">
       <c r="C120" s="2" t="s">
-        <v>251</v>
+        <v>231</v>
       </c>
     </row>
     <row r="121" spans="3:3">
       <c r="C121" s="2" t="s">
-        <v>252</v>
+        <v>232</v>
       </c>
     </row>
     <row r="122" spans="3:3">
       <c r="C122" s="2" t="s">
-        <v>253</v>
+        <v>233</v>
       </c>
     </row>
     <row r="123" spans="3:3">
       <c r="C123" s="2" t="s">
-        <v>254</v>
+        <v>234</v>
       </c>
     </row>
     <row r="124" spans="3:3">
       <c r="C124" s="2" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
     </row>
     <row r="125" spans="3:3">
       <c r="C125" s="2" t="s">
-        <v>256</v>
+        <v>236</v>
       </c>
     </row>
     <row r="126" spans="3:3">
       <c r="C126" s="2" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
     </row>
     <row r="127" spans="3:3">
       <c r="C127" s="2" t="s">
-        <v>258</v>
+        <v>238</v>
       </c>
     </row>
     <row r="128" spans="3:3">
       <c r="C128" s="2" t="s">
-        <v>259</v>
+        <v>239</v>
       </c>
     </row>
     <row r="129" spans="3:3">
       <c r="C129" s="2" t="s">
-        <v>260</v>
+        <v>240</v>
       </c>
     </row>
     <row r="130" spans="3:3">
       <c r="C130" s="2" t="s">
-        <v>261</v>
+        <v>241</v>
       </c>
     </row>
     <row r="131" spans="3:3">
       <c r="C131" s="2" t="s">
-        <v>262</v>
+        <v>242</v>
       </c>
     </row>
     <row r="132" spans="3:3">
       <c r="C132" s="2" t="s">
-        <v>263</v>
+        <v>243</v>
       </c>
     </row>
     <row r="133" spans="3:3">
       <c r="C133" s="2" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
     </row>
     <row r="134" spans="3:3">
       <c r="C134" s="2" t="s">
-        <v>265</v>
+        <v>245</v>
       </c>
     </row>
     <row r="135" spans="3:3">
       <c r="C135" s="2" t="s">
-        <v>266</v>
+        <v>246</v>
       </c>
     </row>
     <row r="136" spans="3:3">
       <c r="C136" s="2" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
     </row>
     <row r="137" spans="3:3">
       <c r="C137" s="2" t="s">
-        <v>268</v>
+        <v>248</v>
       </c>
     </row>
     <row r="138" spans="3:3">
       <c r="C138" s="2" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
     </row>
     <row r="139" spans="3:3">
       <c r="C139" s="2" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
     </row>
     <row r="140" spans="3:3">
       <c r="C140" s="2" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
     </row>
     <row r="141" spans="3:3">
       <c r="C141" s="2" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
     </row>
     <row r="142" spans="3:3">
       <c r="C142" s="2" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
     </row>
     <row r="143" spans="3:3">
       <c r="C143" s="2" t="s">
-        <v>274</v>
+        <v>254</v>
       </c>
     </row>
     <row r="144" spans="3:3">
       <c r="C144" s="2" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
     </row>
     <row r="145" spans="3:3">
       <c r="C145" s="2" t="s">
-        <v>276</v>
+        <v>256</v>
       </c>
     </row>
     <row r="146" spans="3:3">
       <c r="C146" s="2" t="s">
-        <v>277</v>
+        <v>257</v>
       </c>
     </row>
     <row r="147" spans="3:3">
       <c r="C147" s="2" t="s">
-        <v>278</v>
+        <v>258</v>
       </c>
     </row>
     <row r="148" spans="3:3">
       <c r="C148" s="2" t="s">
-        <v>279</v>
+        <v>259</v>
       </c>
     </row>
     <row r="149" spans="3:3">
       <c r="C149" s="2" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
     </row>
     <row r="150" spans="3:3">
       <c r="C150" s="2" t="s">
-        <v>281</v>
+        <v>261</v>
       </c>
     </row>
     <row r="151" spans="3:3">
       <c r="C151" s="2" t="s">
-        <v>282</v>
+        <v>262</v>
       </c>
     </row>
     <row r="152" spans="3:3">
       <c r="C152" s="2" t="s">
-        <v>283</v>
+        <v>263</v>
       </c>
     </row>
     <row r="153" spans="3:3">
       <c r="C153" s="2" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -6508,13 +6448,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="68">
       <c r="A1" s="9" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -7638,7 +7578,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2:A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -7651,23 +7591,23 @@
   <sheetData>
     <row r="1" spans="1:3" ht="170">
       <c r="A1" s="75" t="s">
-        <v>299</v>
+        <v>279</v>
       </c>
       <c r="B1" s="74" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="C1" s="74" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="81">
+        <v>476</v>
+      </c>
+      <c r="B2" s="80">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="C2" s="81">
+      <c r="C2" s="80">
         <v>0</v>
       </c>
     </row>
@@ -7675,10 +7615,10 @@
       <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="81">
+      <c r="B3" s="80">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="C3" s="81">
+      <c r="C3" s="80">
         <v>0</v>
       </c>
     </row>
@@ -7686,10 +7626,10 @@
       <c r="A4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="81">
+      <c r="B4" s="80">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="C4" s="81">
+      <c r="C4" s="80">
         <v>0.04</v>
       </c>
     </row>
@@ -7697,10 +7637,10 @@
       <c r="A5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="81">
+      <c r="B5" s="80">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="C5" s="81">
+      <c r="C5" s="80">
         <v>0.04</v>
       </c>
     </row>
@@ -7708,10 +7648,10 @@
       <c r="A6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="81">
+      <c r="B6" s="80">
         <v>3.1E-2</v>
       </c>
-      <c r="C6" s="81">
+      <c r="C6" s="80">
         <v>1.1000000000000001</v>
       </c>
     </row>
@@ -7719,10 +7659,10 @@
       <c r="A7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="81">
+      <c r="B7" s="80">
         <v>3.1E-2</v>
       </c>
-      <c r="C7" s="81">
+      <c r="C7" s="80">
         <v>1.1000000000000001</v>
       </c>
     </row>
@@ -7730,10 +7670,10 @@
       <c r="A8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="81">
+      <c r="B8" s="80">
         <v>0.26</v>
       </c>
-      <c r="C8" s="81">
+      <c r="C8" s="80">
         <v>3.43</v>
       </c>
     </row>
@@ -7741,10 +7681,10 @@
       <c r="A9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="81">
+      <c r="B9" s="80">
         <v>0.26</v>
       </c>
-      <c r="C9" s="81">
+      <c r="C9" s="80">
         <v>3.43</v>
       </c>
     </row>
@@ -7752,10 +7692,10 @@
       <c r="A10" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="81">
+      <c r="B10" s="80">
         <v>0.48</v>
       </c>
-      <c r="C10" s="81">
+      <c r="C10" s="80">
         <v>4.25</v>
       </c>
     </row>
@@ -7763,10 +7703,10 @@
       <c r="A11" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="81">
+      <c r="B11" s="80">
         <v>0.48</v>
       </c>
-      <c r="C11" s="81">
+      <c r="C11" s="80">
         <v>4.25</v>
       </c>
     </row>
@@ -7774,10 +7714,10 @@
       <c r="A12" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="81">
+      <c r="B12" s="80">
         <v>0.6</v>
       </c>
-      <c r="C12" s="81">
+      <c r="C12" s="80">
         <v>8.1999999999999993</v>
       </c>
     </row>
@@ -7785,10 +7725,10 @@
       <c r="A13" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="81">
+      <c r="B13" s="80">
         <v>0.6</v>
       </c>
-      <c r="C13" s="81">
+      <c r="C13" s="80">
         <v>8.1999999999999993</v>
       </c>
     </row>
@@ -7796,10 +7736,10 @@
       <c r="A14" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="81">
+      <c r="B14" s="80">
         <v>1.9</v>
       </c>
-      <c r="C14" s="81">
+      <c r="C14" s="80">
         <v>11.8</v>
       </c>
     </row>
@@ -7807,10 +7747,10 @@
       <c r="A15" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="81">
+      <c r="B15" s="80">
         <v>1.9</v>
       </c>
-      <c r="C15" s="81">
+      <c r="C15" s="80">
         <v>11.8</v>
       </c>
     </row>
@@ -7818,10 +7758,10 @@
       <c r="A16" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="81">
+      <c r="B16" s="80">
         <v>4.3</v>
       </c>
-      <c r="C16" s="81">
+      <c r="C16" s="80">
         <v>16.600000000000001</v>
       </c>
     </row>
@@ -7829,10 +7769,10 @@
       <c r="A17" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="81">
+      <c r="B17" s="80">
         <v>4.3</v>
       </c>
-      <c r="C17" s="81">
+      <c r="C17" s="80">
         <v>16.600000000000001</v>
       </c>
     </row>
@@ -7840,10 +7780,10 @@
       <c r="A18" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="81">
+      <c r="B18" s="80">
         <v>7.8</v>
       </c>
-      <c r="C18" s="81">
+      <c r="C18" s="80">
         <v>18.399999999999999</v>
       </c>
     </row>
@@ -7851,10 +7791,10 @@
       <c r="A19" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="81">
+      <c r="B19" s="80">
         <v>7.8</v>
       </c>
-      <c r="C19" s="81">
+      <c r="C19" s="80">
         <v>18.399999999999999</v>
       </c>
     </row>
@@ -7862,10 +7802,10 @@
       <c r="A20" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="81">
+      <c r="B20" s="80">
         <v>7.8</v>
       </c>
-      <c r="C20" s="81">
+      <c r="C20" s="80">
         <v>18.399999999999999</v>
       </c>
     </row>
@@ -7873,10 +7813,10 @@
       <c r="A21" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="81">
+      <c r="B21" s="80">
         <v>7.8</v>
       </c>
-      <c r="C21" s="81">
+      <c r="C21" s="80">
         <v>18.399999999999999</v>
       </c>
     </row>
@@ -7884,10 +7824,10 @@
       <c r="A22" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="81">
+      <c r="B22" s="80">
         <v>7.8</v>
       </c>
-      <c r="C22" s="81">
+      <c r="C22" s="80">
         <v>18.399999999999999</v>
       </c>
     </row>
@@ -7909,7 +7849,9 @@
   </sheetPr>
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
@@ -7923,309 +7865,309 @@
   <sheetData>
     <row r="1" spans="1:4" ht="68">
       <c r="A1" s="9" t="s">
-        <v>299</v>
+        <v>279</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="82">
+      <c r="A2" s="8" t="s">
+        <v>476</v>
+      </c>
+      <c r="B2" s="81">
         <v>3924000</v>
       </c>
-      <c r="C2" s="83">
-        <v>0</v>
-      </c>
-      <c r="D2" s="83">
+      <c r="C2" s="82">
+        <v>0</v>
+      </c>
+      <c r="D2" s="82">
         <v>2.3722458400227202E-6</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="80" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="82">
+      <c r="A3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="81">
         <v>4120000</v>
       </c>
-      <c r="C3" s="83">
-        <v>0</v>
-      </c>
-      <c r="D3" s="83">
+      <c r="C3" s="82">
+        <v>0</v>
+      </c>
+      <c r="D3" s="82">
         <v>1.32905378016121E-7</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="80" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="82">
+      <c r="A4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="81">
         <v>3956000</v>
       </c>
-      <c r="C4" s="83">
-        <v>0</v>
-      </c>
-      <c r="D4" s="83">
+      <c r="C4" s="82">
+        <v>0</v>
+      </c>
+      <c r="D4" s="82">
         <v>2.7683021103459102E-7</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="80" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="82">
+      <c r="A5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="81">
         <v>3686000</v>
       </c>
-      <c r="C5" s="83">
+      <c r="C5" s="82">
         <v>1.82721457849836E-5</v>
       </c>
-      <c r="D5" s="83">
+      <c r="D5" s="82">
         <v>5.9421612308889897E-7</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="80" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="82">
+      <c r="A6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="81">
         <v>4075000</v>
       </c>
-      <c r="C6" s="83">
+      <c r="C6" s="82">
         <v>7.3367682442901998E-5</v>
       </c>
-      <c r="D6" s="83">
+      <c r="D6" s="82">
         <v>9.4061131337053795E-7</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="80" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="82">
+      <c r="A7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="81">
         <v>4484000</v>
       </c>
-      <c r="C7" s="83">
+      <c r="C7" s="82">
         <v>1.2968766886415199E-4</v>
       </c>
-      <c r="D7" s="83">
+      <c r="D7" s="82">
         <v>1.22116449024625E-6</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="80" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="82">
+      <c r="A8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="81">
         <v>4707000</v>
       </c>
-      <c r="C8" s="83">
+      <c r="C8" s="82">
         <v>1.4518112523224401E-4</v>
       </c>
-      <c r="D8" s="83">
+      <c r="D8" s="82">
         <v>1.74496544750293E-6</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="80" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="82">
+      <c r="A9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="81">
         <v>4588000</v>
       </c>
-      <c r="C9" s="83">
+      <c r="C9" s="82">
         <v>8.5692103973881797E-5</v>
       </c>
-      <c r="D9" s="83">
+      <c r="D9" s="82">
         <v>2.3869666845092401E-6</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="80" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="82">
+      <c r="A10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="81">
         <v>4308000</v>
       </c>
-      <c r="C10" s="83">
+      <c r="C10" s="82">
         <v>1.9320024124609101E-5</v>
       </c>
-      <c r="D10" s="83">
+      <c r="D10" s="82">
         <v>3.9402680780452703E-6</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="80" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="82">
+      <c r="A11" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="81">
         <v>4296000</v>
       </c>
-      <c r="C11" s="83">
+      <c r="C11" s="82">
         <v>1.2746046495028399E-6</v>
       </c>
-      <c r="D11" s="83">
+      <c r="D11" s="82">
         <v>5.9906418526633501E-6</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="80" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="82">
+      <c r="A12" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="81">
         <v>4635000</v>
       </c>
-      <c r="C12" s="83">
-        <v>0</v>
-      </c>
-      <c r="D12" s="83">
+      <c r="C12" s="82">
+        <v>0</v>
+      </c>
+      <c r="D12" s="82">
         <v>8.5059441930317695E-6</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="80" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="82">
+      <c r="A13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="81">
         <v>4539000</v>
       </c>
-      <c r="C13" s="83">
-        <v>0</v>
-      </c>
-      <c r="D13" s="83">
+      <c r="C13" s="82">
+        <v>0</v>
+      </c>
+      <c r="D13" s="82">
         <v>1.26668575743058E-5</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="80" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="82">
+      <c r="A14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="81">
         <v>3905000</v>
       </c>
-      <c r="C14" s="83">
-        <v>0</v>
-      </c>
-      <c r="D14" s="83">
+      <c r="C14" s="82">
+        <v>0</v>
+      </c>
+      <c r="D14" s="82">
         <v>2.0472533414662599E-5</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="80" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="82">
+      <c r="A15" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="81">
         <v>3382000</v>
       </c>
-      <c r="C15" s="83">
-        <v>0</v>
-      </c>
-      <c r="D15" s="83">
+      <c r="C15" s="82">
+        <v>0</v>
+      </c>
+      <c r="D15" s="82">
         <v>3.4000512436294603E-5</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="80" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="82">
+      <c r="A16" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="81">
         <v>3388000</v>
       </c>
-      <c r="C16" s="83">
-        <v>0</v>
-      </c>
-      <c r="D16" s="83">
+      <c r="C16" s="82">
+        <v>0</v>
+      </c>
+      <c r="D16" s="82">
         <v>4.9617484749088298E-5</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="80" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" s="82">
+      <c r="A17" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="81">
         <v>2442000</v>
       </c>
-      <c r="C17" s="83">
-        <v>0</v>
-      </c>
-      <c r="D17" s="83">
+      <c r="C17" s="82">
+        <v>0</v>
+      </c>
+      <c r="D17" s="82">
         <v>8.7449779441565906E-5</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="80" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="82">
+      <c r="A18" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="81">
         <v>1737000</v>
       </c>
-      <c r="C18" s="83">
-        <v>0</v>
-      </c>
-      <c r="D18" s="83">
+      <c r="C18" s="82">
+        <v>0</v>
+      </c>
+      <c r="D18" s="82">
         <v>1.6171761126065301E-4</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="80" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="82">
+      <c r="A19" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="81">
         <v>1078000</v>
       </c>
-      <c r="C19" s="83">
-        <v>0</v>
-      </c>
-      <c r="D19" s="83">
+      <c r="C19" s="82">
+        <v>0</v>
+      </c>
+      <c r="D19" s="82">
         <v>2.9461103089733202E-4</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="80" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" s="82">
+      <c r="A20" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="81">
         <v>491000</v>
       </c>
-      <c r="C20" s="83">
-        <v>0</v>
-      </c>
-      <c r="D20" s="83">
+      <c r="C20" s="82">
+        <v>0</v>
+      </c>
+      <c r="D20" s="82">
         <v>4.9738551978041395E-4</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="80" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="82">
+      <c r="A21" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="81">
         <v>130000</v>
       </c>
-      <c r="C21" s="83">
-        <v>0</v>
-      </c>
-      <c r="D21" s="83">
+      <c r="C21" s="82">
+        <v>0</v>
+      </c>
+      <c r="D21" s="82">
         <v>8.9717264255251901E-4</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="80" t="s">
+      <c r="A22" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="82">
+      <c r="B22" s="81">
         <v>16000</v>
       </c>
-      <c r="C22" s="83">
-        <v>0</v>
-      </c>
-      <c r="D22" s="83">
+      <c r="C22" s="82">
+        <v>0</v>
+      </c>
+      <c r="D22" s="82">
         <v>7.2895277207392197E-3</v>
       </c>
     </row>
@@ -8249,7 +8191,7 @@
   </sheetPr>
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
@@ -8269,24 +8211,24 @@
         <v>20</v>
       </c>
       <c r="B1" s="59" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="C1" s="59" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="D1" s="59" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="E1" s="59" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="F1" s="59" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17">
       <c r="A2" s="63" t="s">
-        <v>432</v>
+        <v>412</v>
       </c>
       <c r="B2" s="61">
         <v>43862</v>
@@ -8294,15 +8236,15 @@
       <c r="C2" s="60"/>
       <c r="D2" s="60"/>
       <c r="E2" s="59" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="F2" s="59" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="17">
       <c r="A3" s="63" t="s">
-        <v>433</v>
+        <v>413</v>
       </c>
       <c r="B3" s="61">
         <v>44377</v>
@@ -8310,49 +8252,49 @@
       <c r="C3" s="60"/>
       <c r="D3" s="60"/>
       <c r="E3" s="59" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="F3" s="59" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="17">
       <c r="A4" s="63" t="s">
-        <v>494</v>
+        <v>474</v>
       </c>
       <c r="B4" s="68"/>
-      <c r="C4" s="89">
+      <c r="C4" s="88">
         <v>10</v>
       </c>
       <c r="D4" s="60"/>
       <c r="E4" s="59" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="F4" s="66" t="s">
-        <v>364</v>
+        <v>344</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="71" customFormat="1" ht="17">
       <c r="A5" s="63" t="s">
-        <v>394</v>
+        <v>374</v>
       </c>
       <c r="B5" s="68"/>
       <c r="C5" s="69">
         <v>0</v>
       </c>
       <c r="D5" s="60" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="E5" s="59" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="F5" s="66" t="s">
-        <v>365</v>
+        <v>345</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17">
       <c r="A6" s="63" t="s">
-        <v>431</v>
+        <v>411</v>
       </c>
       <c r="B6" s="60"/>
       <c r="C6" s="62">
@@ -8360,267 +8302,267 @@
       </c>
       <c r="D6" s="60"/>
       <c r="E6" s="59" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="F6" s="59" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="17">
       <c r="A7" s="63" t="s">
-        <v>430</v>
+        <v>410</v>
       </c>
       <c r="B7" s="60"/>
       <c r="C7" s="62">
         <v>2.5</v>
       </c>
       <c r="D7" s="60" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="E7" s="59" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="F7" s="59" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="17">
       <c r="A8" s="63" t="s">
-        <v>429</v>
+        <v>409</v>
       </c>
       <c r="B8" s="60"/>
       <c r="C8" s="62">
         <v>10</v>
       </c>
       <c r="D8" s="60" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="E8" s="59" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="F8" s="59" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="17">
       <c r="A9" s="63" t="s">
-        <v>428</v>
+        <v>408</v>
       </c>
       <c r="B9" s="60"/>
       <c r="C9" s="62">
         <v>90</v>
       </c>
       <c r="D9" s="60" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="E9" s="59" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="F9" s="66" t="s">
-        <v>457</v>
+        <v>437</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="17">
       <c r="A10" s="63" t="s">
-        <v>493</v>
+        <v>473</v>
       </c>
       <c r="B10" s="60"/>
       <c r="C10" s="62">
         <v>90</v>
       </c>
       <c r="D10" s="60" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="E10" s="59" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="F10" s="66" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="17">
       <c r="A11" s="63" t="s">
-        <v>427</v>
+        <v>407</v>
       </c>
       <c r="B11" s="60"/>
       <c r="C11" s="62">
         <v>90</v>
       </c>
       <c r="D11" s="60" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="E11" s="59" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="F11" s="66" t="s">
-        <v>366</v>
+        <v>346</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="34">
       <c r="A12" s="63" t="s">
-        <v>426</v>
+        <v>406</v>
       </c>
       <c r="B12" s="60"/>
       <c r="C12" s="62">
         <v>0</v>
       </c>
       <c r="D12" s="60" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="E12" s="59" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="F12" s="66" t="s">
-        <v>367</v>
+        <v>347</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="34">
       <c r="A13" s="63" t="s">
-        <v>425</v>
+        <v>405</v>
       </c>
       <c r="B13" s="60"/>
       <c r="C13" s="62">
         <v>0</v>
       </c>
       <c r="D13" s="60" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="E13" s="59" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="F13" s="66" t="s">
-        <v>368</v>
+        <v>348</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="34">
       <c r="A14" s="63" t="s">
-        <v>424</v>
+        <v>404</v>
       </c>
       <c r="B14" s="60"/>
       <c r="C14" s="62">
         <v>0</v>
       </c>
       <c r="D14" s="60" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="E14" s="59" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="F14" s="66" t="s">
-        <v>369</v>
+        <v>349</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="34">
       <c r="A15" s="63" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="B15" s="60"/>
       <c r="C15" s="62">
         <v>0</v>
       </c>
       <c r="D15" s="60" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="E15" s="59" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="F15" s="66" t="s">
-        <v>370</v>
+        <v>350</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="34">
       <c r="A16" s="63" t="s">
-        <v>422</v>
+        <v>402</v>
       </c>
       <c r="B16" s="60"/>
       <c r="C16" s="62">
         <v>0</v>
       </c>
       <c r="D16" s="60" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="E16" s="59" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="F16" s="66" t="s">
-        <v>371</v>
+        <v>351</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="34">
       <c r="A17" s="63" t="s">
-        <v>421</v>
+        <v>401</v>
       </c>
       <c r="B17" s="60"/>
       <c r="C17" s="62">
         <v>0</v>
       </c>
       <c r="D17" s="60" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="E17" s="59" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="F17" s="66" t="s">
-        <v>372</v>
+        <v>352</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="34">
       <c r="A18" s="63" t="s">
-        <v>395</v>
+        <v>375</v>
       </c>
       <c r="B18" s="60"/>
       <c r="C18" s="62">
         <v>0</v>
       </c>
       <c r="D18" s="60" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="E18" s="59" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="F18" s="66" t="s">
-        <v>373</v>
+        <v>353</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="34">
       <c r="A19" s="63" t="s">
-        <v>396</v>
+        <v>376</v>
       </c>
       <c r="B19" s="60"/>
       <c r="C19" s="62">
         <v>10</v>
       </c>
       <c r="D19" s="60" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="E19" s="59" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="F19" s="66" t="s">
-        <v>374</v>
+        <v>354</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="34">
       <c r="A20" s="63" t="s">
-        <v>397</v>
+        <v>377</v>
       </c>
       <c r="B20" s="60"/>
       <c r="C20" s="62">
         <v>10</v>
       </c>
       <c r="D20" s="60" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="E20" s="59" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="F20" s="66" t="s">
-        <v>375</v>
+        <v>355</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="17">
       <c r="A21" s="70" t="s">
-        <v>361</v>
+        <v>341</v>
       </c>
       <c r="B21" s="64"/>
       <c r="C21" s="65">
@@ -8628,15 +8570,15 @@
       </c>
       <c r="D21" s="64"/>
       <c r="E21" s="66" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="F21" s="66" t="s">
-        <v>312</v>
+        <v>292</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="17">
       <c r="A22" s="70" t="s">
-        <v>323</v>
+        <v>303</v>
       </c>
       <c r="B22" s="64"/>
       <c r="C22" s="67">
@@ -8644,28 +8586,28 @@
       </c>
       <c r="D22" s="64"/>
       <c r="E22" s="66" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="F22" s="66" t="s">
-        <v>313</v>
+        <v>293</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="17">
       <c r="A23" s="70" t="s">
-        <v>324</v>
+        <v>304</v>
       </c>
       <c r="B23" s="64"/>
       <c r="C23" s="67">
         <v>5</v>
       </c>
       <c r="D23" s="64" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="E23" s="66" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="F23" s="66" t="s">
-        <v>314</v>
+        <v>294</v>
       </c>
     </row>
   </sheetData>
@@ -8734,69 +8676,69 @@
         <v>20</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>285</v>
+        <v>265</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="13" t="s">
-        <v>434</v>
+        <v>414</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>274</v>
+        <v>254</v>
       </c>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
       <c r="E2" s="12" t="s">
-        <v>286</v>
+        <v>266</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="8" t="s">
-        <v>435</v>
+        <v>415</v>
       </c>
       <c r="C3" s="1">
         <v>2.8</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="8" t="s">
-        <v>436</v>
+        <v>416</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -8833,7 +8775,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -8852,422 +8794,422 @@
         <v>20</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="17">
       <c r="A2" s="73" t="s">
-        <v>412</v>
-      </c>
-      <c r="B2" s="92">
+        <v>392</v>
+      </c>
+      <c r="B2" s="91">
         <v>50</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="17">
       <c r="A3" s="73" t="s">
-        <v>413</v>
-      </c>
-      <c r="B3" s="92">
+        <v>393</v>
+      </c>
+      <c r="B3" s="91">
         <v>3.5</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="17">
       <c r="A4" s="73" t="s">
-        <v>414</v>
-      </c>
-      <c r="B4" s="92">
+        <v>394</v>
+      </c>
+      <c r="B4" s="91">
         <v>4.5</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="17">
       <c r="A5" s="73" t="s">
-        <v>415</v>
-      </c>
-      <c r="B5" s="92">
+        <v>395</v>
+      </c>
+      <c r="B5" s="91">
         <v>1</v>
       </c>
       <c r="C5" s="14"/>
       <c r="D5" s="12" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="17">
       <c r="A6" s="73" t="s">
-        <v>416</v>
-      </c>
-      <c r="B6" s="92">
+        <v>396</v>
+      </c>
+      <c r="B6" s="91">
         <v>0</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="17">
       <c r="A7" s="73" t="s">
-        <v>417</v>
-      </c>
-      <c r="B7" s="92">
+        <v>397</v>
+      </c>
+      <c r="B7" s="91">
         <v>150</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="17">
       <c r="A8" s="73" t="s">
-        <v>418</v>
-      </c>
-      <c r="B8" s="92">
+        <v>398</v>
+      </c>
+      <c r="B8" s="91">
         <v>15</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="17">
       <c r="A9" s="73" t="s">
-        <v>419</v>
-      </c>
-      <c r="B9" s="92">
+        <v>399</v>
+      </c>
+      <c r="B9" s="91">
         <v>25</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="17">
       <c r="A10" s="73" t="s">
-        <v>420</v>
-      </c>
-      <c r="B10" s="92">
+        <v>400</v>
+      </c>
+      <c r="B10" s="91">
         <v>40</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="17">
       <c r="A11" s="73" t="s">
-        <v>325</v>
-      </c>
-      <c r="B11" s="93">
+        <v>305</v>
+      </c>
+      <c r="B11" s="92">
         <v>50</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="34">
       <c r="A12" s="73" t="s">
-        <v>398</v>
-      </c>
-      <c r="B12" s="94">
+        <v>378</v>
+      </c>
+      <c r="B12" s="93">
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>376</v>
+        <v>356</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="34">
       <c r="A13" s="73" t="s">
-        <v>399</v>
-      </c>
-      <c r="B13" s="94">
+        <v>379</v>
+      </c>
+      <c r="B13" s="93">
         <v>0</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>377</v>
+        <v>357</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="34">
       <c r="A14" s="73" t="s">
-        <v>400</v>
-      </c>
-      <c r="B14" s="94">
+        <v>380</v>
+      </c>
+      <c r="B14" s="93">
         <v>0</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>378</v>
+        <v>358</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="34">
       <c r="A15" s="73" t="s">
-        <v>401</v>
-      </c>
-      <c r="B15" s="94">
+        <v>381</v>
+      </c>
+      <c r="B15" s="93">
         <v>20</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>379</v>
+        <v>359</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="34">
       <c r="A16" s="73" t="s">
-        <v>402</v>
-      </c>
-      <c r="B16" s="94">
+        <v>382</v>
+      </c>
+      <c r="B16" s="93">
         <v>0</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>380</v>
+        <v>360</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="34">
       <c r="A17" s="73" t="s">
-        <v>403</v>
-      </c>
-      <c r="B17" s="94">
+        <v>383</v>
+      </c>
+      <c r="B17" s="93">
         <v>0</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>381</v>
+        <v>361</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="34">
       <c r="A18" s="73" t="s">
-        <v>404</v>
-      </c>
-      <c r="B18" s="94">
+        <v>384</v>
+      </c>
+      <c r="B18" s="93">
         <v>20</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>382</v>
+        <v>362</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="34">
       <c r="A19" s="73" t="s">
-        <v>405</v>
-      </c>
-      <c r="B19" s="94">
+        <v>385</v>
+      </c>
+      <c r="B19" s="93">
         <v>0</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>383</v>
+        <v>363</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="72" customFormat="1" ht="34">
       <c r="A20" s="73" t="s">
-        <v>406</v>
-      </c>
-      <c r="B20" s="95">
+        <v>386</v>
+      </c>
+      <c r="B20" s="94">
         <v>0</v>
       </c>
       <c r="C20" s="72" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="D20" s="76" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="E20" s="76" t="s">
-        <v>384</v>
+        <v>364</v>
       </c>
     </row>
     <row r="21" spans="1:5" s="72" customFormat="1" ht="30" customHeight="1">
       <c r="A21" s="74" t="s">
-        <v>407</v>
-      </c>
-      <c r="B21" s="95">
+        <v>387</v>
+      </c>
+      <c r="B21" s="94">
         <v>0</v>
       </c>
       <c r="C21" s="72" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="D21" s="76" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="E21" s="76" t="s">
-        <v>385</v>
+        <v>365</v>
       </c>
     </row>
     <row r="22" spans="1:5" s="72" customFormat="1" ht="32.25" customHeight="1">
       <c r="A22" s="73" t="s">
-        <v>408</v>
-      </c>
-      <c r="B22" s="95">
+        <v>388</v>
+      </c>
+      <c r="B22" s="94">
         <v>20</v>
       </c>
       <c r="C22" s="72" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="D22" s="76" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="E22" s="76" t="s">
-        <v>386</v>
+        <v>366</v>
       </c>
     </row>
     <row r="23" spans="1:5" s="72" customFormat="1" ht="17" customHeight="1">
       <c r="A23" s="73" t="s">
-        <v>409</v>
-      </c>
-      <c r="B23" s="95">
+        <v>389</v>
+      </c>
+      <c r="B23" s="94">
         <v>0</v>
       </c>
       <c r="C23" s="72" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="D23" s="76" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="E23" s="76" t="s">
-        <v>387</v>
+        <v>367</v>
       </c>
     </row>
     <row r="24" spans="1:5" s="72" customFormat="1" ht="34">
       <c r="A24" s="73" t="s">
-        <v>410</v>
-      </c>
-      <c r="B24" s="95">
+        <v>390</v>
+      </c>
+      <c r="B24" s="94">
         <v>0</v>
       </c>
       <c r="C24" s="72" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="D24" s="76" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="E24" s="76" t="s">
-        <v>388</v>
+        <v>368</v>
       </c>
     </row>
     <row r="25" spans="1:5" s="72" customFormat="1" ht="17">
       <c r="A25" s="73" t="s">
-        <v>411</v>
-      </c>
-      <c r="B25" s="95">
+        <v>391</v>
+      </c>
+      <c r="B25" s="94">
         <v>100</v>
       </c>
       <c r="C25" s="72" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="D25" s="76" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="E25" s="76" t="s">
-        <v>389</v>
+        <v>369</v>
       </c>
     </row>
   </sheetData>
@@ -9339,370 +9281,370 @@
         <v>20</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="8" t="s">
-        <v>293</v>
+        <v>273</v>
       </c>
       <c r="B2" s="37">
         <v>160000</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="8" t="s">
-        <v>294</v>
+        <v>274</v>
       </c>
       <c r="B3" s="37">
         <v>8000</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="8" t="s">
-        <v>295</v>
+        <v>275</v>
       </c>
       <c r="B4" s="37">
         <v>8000</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="8" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="B5" s="1">
         <v>5</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="D5" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="12" t="s">
         <v>46</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="8" t="s">
-        <v>311</v>
+        <v>291</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="13" t="s">
-        <v>328</v>
+        <v>308</v>
       </c>
       <c r="B7" s="6">
         <v>15</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="13" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
       <c r="B8" s="6">
         <v>20</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>330</v>
+        <v>310</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="13" t="s">
-        <v>331</v>
+        <v>311</v>
       </c>
       <c r="B9" s="6">
         <v>50</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="13" t="s">
-        <v>332</v>
+        <v>312</v>
       </c>
       <c r="B10" s="6">
         <v>50</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>333</v>
+        <v>313</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="13" t="s">
-        <v>334</v>
+        <v>314</v>
       </c>
       <c r="B11" s="6">
         <v>30</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="13" t="s">
-        <v>335</v>
+        <v>315</v>
       </c>
       <c r="B12" s="6">
         <v>40</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>336</v>
+        <v>316</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="13" t="s">
-        <v>337</v>
+        <v>317</v>
       </c>
       <c r="B13" s="6">
         <v>75</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="13" t="s">
-        <v>338</v>
+        <v>318</v>
       </c>
       <c r="B14" s="6">
         <v>75</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>339</v>
+        <v>319</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="8" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="B15" s="1">
         <v>70</v>
       </c>
       <c r="C15" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="12" t="s">
         <v>51</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="8" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="B16" s="1">
         <v>90</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="8" t="s">
-        <v>445</v>
+        <v>425</v>
       </c>
       <c r="B17" s="1">
         <v>90</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>390</v>
+        <v>370</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="8" t="s">
-        <v>446</v>
+        <v>426</v>
       </c>
       <c r="B18" s="1">
         <v>90</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>391</v>
+        <v>371</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="8" t="s">
-        <v>447</v>
+        <v>427</v>
       </c>
       <c r="B19" s="1">
         <v>90</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>392</v>
+        <v>372</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="8" t="s">
-        <v>305</v>
+        <v>285</v>
       </c>
       <c r="B20" s="1">
         <v>5</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="8" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
       <c r="B21" s="1">
         <v>7</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="8" t="s">
-        <v>307</v>
+        <v>287</v>
       </c>
       <c r="B22" s="1">
         <v>7</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -9754,27 +9696,27 @@
   <sheetData>
     <row r="1" spans="1:6" ht="17" thickBot="1">
       <c r="A1" s="12" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="22" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="B2" s="23"/>
       <c r="C2" s="24"/>
@@ -9785,24 +9727,24 @@
     <row r="3" spans="1:6" ht="18" thickBot="1">
       <c r="A3" s="15"/>
       <c r="B3" s="33" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="C3" s="11">
         <v>50</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="22" t="s">
-        <v>355</v>
+        <v>335</v>
       </c>
       <c r="B4" s="34"/>
       <c r="C4" s="27"/>
@@ -9813,40 +9755,40 @@
     <row r="5" spans="1:6" ht="17">
       <c r="A5" s="18"/>
       <c r="B5" s="35" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
       <c r="C5" s="28">
         <v>4</v>
       </c>
       <c r="D5" s="30"/>
       <c r="E5" s="16" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="18" thickBot="1">
       <c r="A6" s="18"/>
       <c r="B6" s="35" t="s">
-        <v>301</v>
+        <v>281</v>
       </c>
       <c r="C6" s="28">
         <v>80</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="22" t="s">
-        <v>356</v>
+        <v>336</v>
       </c>
       <c r="B7" s="34"/>
       <c r="C7" s="27"/>
@@ -9857,78 +9799,78 @@
     <row r="8" spans="1:6" ht="17">
       <c r="A8" s="15"/>
       <c r="B8" s="33" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="C8" s="11">
         <v>14</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="34">
       <c r="A9" s="15"/>
       <c r="B9" s="35" t="s">
-        <v>309</v>
+        <v>289</v>
       </c>
       <c r="C9" s="28">
         <v>2</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="34">
       <c r="A10" s="15"/>
       <c r="B10" s="33" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="C10" s="11">
         <v>20</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="35" thickBot="1">
       <c r="A11" s="21"/>
       <c r="B11" s="36" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="C11" s="29">
         <v>100</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="42" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="B12" s="43"/>
       <c r="C12" s="44"/>
@@ -9939,24 +9881,24 @@
     <row r="13" spans="1:6" ht="18" thickBot="1">
       <c r="A13" s="46"/>
       <c r="B13" s="47" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="C13" s="48">
         <v>100</v>
       </c>
       <c r="D13" s="49" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="42" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="B14" s="43"/>
       <c r="C14" s="44"/>
@@ -9967,24 +9909,24 @@
     <row r="15" spans="1:6" ht="18" thickBot="1">
       <c r="A15" s="46"/>
       <c r="B15" s="50" t="s">
-        <v>304</v>
+        <v>284</v>
       </c>
       <c r="C15" s="48">
         <v>20</v>
       </c>
       <c r="D15" s="49" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>303</v>
+        <v>283</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="42" t="s">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="B16" s="43"/>
       <c r="C16" s="44"/>
@@ -9995,24 +9937,24 @@
     <row r="17" spans="1:6" ht="18" thickBot="1">
       <c r="A17" s="46"/>
       <c r="B17" s="51" t="s">
-        <v>351</v>
+        <v>331</v>
       </c>
       <c r="C17" s="52">
         <v>15</v>
       </c>
       <c r="D17" s="49" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>352</v>
+        <v>332</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="42" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="B18" s="43"/>
       <c r="C18" s="44"/>
@@ -10023,42 +9965,42 @@
     <row r="19" spans="1:6" ht="17">
       <c r="A19" s="53"/>
       <c r="B19" s="50" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="C19" s="41">
         <v>85</v>
       </c>
       <c r="D19" s="54" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="35" thickBot="1">
       <c r="A20" s="46"/>
       <c r="B20" s="47" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="C20" s="48">
         <v>10</v>
       </c>
       <c r="D20" s="49" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="F20" s="20" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="42" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="B21" s="43"/>
       <c r="C21" s="44"/>
@@ -10069,24 +10011,24 @@
     <row r="22" spans="1:6" ht="18" thickBot="1">
       <c r="A22" s="46"/>
       <c r="B22" s="47" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="C22" s="48">
         <v>20</v>
       </c>
       <c r="D22" s="49" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="42" t="s">
-        <v>288</v>
+        <v>268</v>
       </c>
       <c r="B23" s="43"/>
       <c r="C23" s="44"/>
@@ -10097,42 +10039,42 @@
     <row r="24" spans="1:6" ht="17">
       <c r="A24" s="53"/>
       <c r="B24" s="50" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="C24" s="41">
         <v>95</v>
       </c>
       <c r="D24" s="54" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="18" thickBot="1">
       <c r="A25" s="46"/>
       <c r="B25" s="47" t="s">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="C25" s="48">
         <v>70</v>
       </c>
       <c r="D25" s="49" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="E25" s="19" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="F25" s="20" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="42" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="B26" s="43"/>
       <c r="C26" s="44"/>
@@ -10143,96 +10085,96 @@
     <row r="27" spans="1:6" ht="17">
       <c r="A27" s="53"/>
       <c r="B27" s="50" t="s">
-        <v>437</v>
+        <v>417</v>
       </c>
       <c r="C27" s="41">
         <v>4</v>
       </c>
       <c r="D27" s="54" t="s">
+        <v>70</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" s="17" t="s">
         <v>90</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="F27" s="17" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="17">
       <c r="A28" s="53"/>
       <c r="B28" s="33" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="C28" s="11">
         <v>100</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="F28" s="17" t="s">
-        <v>438</v>
+        <v>418</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="34">
       <c r="A29" s="53"/>
       <c r="B29" s="33" t="s">
-        <v>441</v>
+        <v>421</v>
       </c>
       <c r="C29" s="11">
         <v>100</v>
       </c>
       <c r="D29" s="30" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="F29" s="17" t="s">
-        <v>439</v>
+        <v>419</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="17">
       <c r="A30" s="53"/>
       <c r="B30" s="33" t="s">
-        <v>443</v>
+        <v>423</v>
       </c>
       <c r="C30" s="77">
         <v>100</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="F30" s="17" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="18" thickBot="1">
       <c r="A31" s="46"/>
       <c r="B31" s="36" t="s">
-        <v>444</v>
+        <v>424</v>
       </c>
       <c r="C31" s="29">
         <v>100</v>
       </c>
       <c r="D31" s="32" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="E31" s="19" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="F31" s="20" t="s">
-        <v>440</v>
+        <v>420</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="42" t="s">
-        <v>315</v>
+        <v>295</v>
       </c>
       <c r="B32" s="43"/>
       <c r="C32" s="44"/>
@@ -10243,42 +10185,42 @@
     <row r="33" spans="1:6" ht="17">
       <c r="A33" s="53"/>
       <c r="B33" s="50" t="s">
-        <v>319</v>
+        <v>299</v>
       </c>
       <c r="C33" s="41">
         <v>80</v>
       </c>
       <c r="D33" s="54" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="F33" s="17" t="s">
-        <v>316</v>
+        <v>296</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="18" thickBot="1">
       <c r="A34" s="53"/>
       <c r="B34" s="50" t="s">
-        <v>318</v>
+        <v>298</v>
       </c>
       <c r="C34" s="41">
         <v>14</v>
       </c>
       <c r="D34" s="54" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="F34" s="17" t="s">
-        <v>317</v>
+        <v>297</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="42" t="s">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="B35" s="43"/>
       <c r="C35" s="44"/>
@@ -10289,91 +10231,91 @@
     <row r="36" spans="1:6" ht="34">
       <c r="A36" s="53"/>
       <c r="B36" s="51" t="s">
-        <v>341</v>
+        <v>321</v>
       </c>
       <c r="C36" s="55">
         <v>82</v>
       </c>
       <c r="D36" s="56" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="F36" s="17" t="s">
-        <v>342</v>
+        <v>322</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="34">
       <c r="A37" s="13"/>
       <c r="B37" s="51" t="s">
-        <v>343</v>
+        <v>323</v>
       </c>
       <c r="C37" s="55">
         <v>64</v>
       </c>
       <c r="D37" s="56" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="F37" s="17" t="s">
-        <v>344</v>
+        <v>324</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="34">
       <c r="A38" s="53"/>
       <c r="B38" s="51" t="s">
-        <v>456</v>
+        <v>436</v>
       </c>
       <c r="C38" s="55">
         <v>82</v>
       </c>
       <c r="D38" s="56" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="F38" s="17" t="s">
-        <v>345</v>
+        <v>325</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="34">
       <c r="A39" s="53"/>
       <c r="B39" s="50" t="s">
-        <v>346</v>
+        <v>326</v>
       </c>
       <c r="C39" s="57">
         <v>64</v>
       </c>
       <c r="D39" s="54" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="F39" s="17" t="s">
-        <v>347</v>
+        <v>327</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="18" thickBot="1">
       <c r="A40" s="46"/>
       <c r="B40" s="47" t="s">
-        <v>348</v>
+        <v>328</v>
       </c>
       <c r="C40" s="52">
         <v>87</v>
       </c>
       <c r="D40" s="49" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="E40" s="19" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="F40" s="20" t="s">
-        <v>349</v>
+        <v>329</v>
       </c>
     </row>
   </sheetData>

--- a/Template_CoMoCOVID-19App_v17.xlsx
+++ b/Template_CoMoCOVID-19App_v17.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivier/Documents/Projets/CoMo/como/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38DA7166-B932-3649-BA4B-F047F09E23FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4586DC0E-938C-5646-A662-051D69EEED90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10420" yWindow="640" windowWidth="18700" windowHeight="17500" tabRatio="648" activeTab="3" xr2:uid="{25C8D176-4C08-9D40-9B57-F7F8CA55C35B}"/>
+    <workbookView xWindow="10420" yWindow="640" windowWidth="18700" windowHeight="17500" tabRatio="648" xr2:uid="{25C8D176-4C08-9D40-9B57-F7F8CA55C35B}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -3802,7 +3802,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0E13D8F-D093-7849-84D5-273B640F7707}">
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
@@ -7577,9 +7577,7 @@
   </sheetPr>
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A22"/>
-    </sheetView>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
@@ -7849,7 +7847,7 @@
   </sheetPr>
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A22"/>
     </sheetView>
   </sheetViews>

--- a/Template_CoMoCOVID-19App_v17.xlsx
+++ b/Template_CoMoCOVID-19App_v17.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivier/Documents/Projets/CoMo/como/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4586DC0E-938C-5646-A662-051D69EEED90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38E1390D-B536-FB4C-9807-1C83F1F0C3F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10420" yWindow="640" windowWidth="18700" windowHeight="17500" tabRatio="648" xr2:uid="{25C8D176-4C08-9D40-9B57-F7F8CA55C35B}"/>
+    <workbookView xWindow="10420" yWindow="640" windowWidth="24880" windowHeight="20680" tabRatio="648" xr2:uid="{25C8D176-4C08-9D40-9B57-F7F8CA55C35B}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -3802,9 +3802,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0E13D8F-D093-7849-84D5-273B640F7707}">
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
@@ -4120,7 +4118,7 @@
   </sheetPr>
   <dimension ref="A1:G100"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -8655,7 +8653,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F4"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>

--- a/Template_CoMoCOVID-19App_v17.xlsx
+++ b/Template_CoMoCOVID-19App_v17.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivier/Documents/Projets/CoMo/como/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38E1390D-B536-FB4C-9807-1C83F1F0C3F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABF0776F-07E2-5049-95A5-4AAB3995960A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10420" yWindow="640" windowWidth="24880" windowHeight="20680" tabRatio="648" xr2:uid="{25C8D176-4C08-9D40-9B57-F7F8CA55C35B}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="482">
   <si>
     <t>5-10 y.o.</t>
   </si>
@@ -2949,17 +2949,70 @@
   </si>
   <si>
     <t>0-5 y.o.</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>sample_size</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Parameters sheet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Added sample_size.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>(v17)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Sample Size</t>
+    </r>
+  </si>
+  <si>
+    <t>(a)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3050,6 +3103,18 @@
       <color theme="1"/>
       <name val="Calibri (Body)_x0000_"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -3090,12 +3155,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3103,6 +3162,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3200,7 +3265,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -3338,19 +3403,13 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3386,16 +3445,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3416,12 +3472,32 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="5">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -3466,16 +3542,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -3490,14 +3556,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DB0B0E91-77B9-BF40-854E-551FE7298B58}" name="Table2" displayName="Table2" ref="E1:F15" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DB0B0E91-77B9-BF40-854E-551FE7298B58}" name="Table2" displayName="Table2" ref="E1:F15" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
   <autoFilter ref="E1:F15" xr:uid="{2E89BE7F-E667-6946-928D-DC5AB4119A65}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E2:F8">
     <sortCondition ref="E1:E8"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{1DFAD25E-CC0B-354F-8701-442A29A91782}" name="Intervention" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{D399EFFD-3A23-4943-B9C5-CF90FE06EA91}" name="Unit Intervention" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{1DFAD25E-CC0B-354F-8701-442A29A91782}" name="Intervention" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{D399EFFD-3A23-4943-B9C5-CF90FE06EA91}" name="Unit Intervention" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3800,9 +3866,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0E13D8F-D093-7849-84D5-273B640F7707}">
-  <dimension ref="A1:F62"/>
+  <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
@@ -3813,6 +3881,9 @@
       <c r="A1" s="5" t="s">
         <v>438</v>
       </c>
+      <c r="B1" s="95" t="s">
+        <v>481</v>
+      </c>
     </row>
     <row r="2" spans="1:6" ht="21">
       <c r="A2" s="3" t="s">
@@ -3868,73 +3939,73 @@
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="87" t="s">
+      <c r="A15" s="94" t="s">
         <v>443</v>
       </c>
       <c r="F15" s="40"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="87" t="s">
+      <c r="A16" s="94" t="s">
         <v>444</v>
       </c>
       <c r="F16" s="40"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="87" t="s">
+      <c r="A17" s="94" t="s">
         <v>445</v>
       </c>
       <c r="F17" s="40"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="87" t="s">
+      <c r="A18" s="94" t="s">
         <v>446</v>
       </c>
       <c r="F18" s="40"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="87" t="s">
+      <c r="A19" s="94" t="s">
         <v>447</v>
       </c>
       <c r="F19" s="40"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="87" t="s">
+      <c r="A20" s="94" t="s">
         <v>448</v>
       </c>
       <c r="F20" s="40"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="87" t="s">
+      <c r="A21" s="94" t="s">
         <v>449</v>
       </c>
       <c r="F21" s="40"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="87" t="s">
+      <c r="A22" s="94" t="s">
         <v>450</v>
       </c>
       <c r="F22" s="40"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="87" t="s">
+      <c r="A23" s="94" t="s">
         <v>451</v>
       </c>
       <c r="F23" s="40"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="87" t="s">
+      <c r="A24" s="94" t="s">
         <v>452</v>
       </c>
       <c r="F24" s="40"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="87" t="s">
+      <c r="A25" s="94" t="s">
         <v>453</v>
       </c>
       <c r="F25" s="40"/>
     </row>
     <row r="26" spans="1:6" s="39" customFormat="1">
-      <c r="A26" s="87" t="s">
+      <c r="A26" s="94" t="s">
         <v>454</v>
       </c>
       <c r="B26"/>
@@ -3942,167 +4013,172 @@
       <c r="F26" s="40"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="87" t="s">
+      <c r="A27" s="94" t="s">
         <v>455</v>
       </c>
       <c r="F27" s="40"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="87" t="s">
+      <c r="A28" s="94" t="s">
         <v>456</v>
       </c>
       <c r="F28" s="40"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="87" t="s">
+      <c r="A29" s="94" t="s">
         <v>457</v>
       </c>
       <c r="F29" s="40"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="87" t="s">
+      <c r="A30" s="94" t="s">
         <v>458</v>
       </c>
       <c r="F30" s="40"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="87" t="s">
+      <c r="A31" s="94" t="s">
         <v>459</v>
       </c>
       <c r="F31" s="40"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="87" t="s">
+      <c r="A32" s="94" t="s">
         <v>460</v>
       </c>
       <c r="F32" s="40"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="87" t="s">
+      <c r="A33" s="94" t="s">
         <v>461</v>
       </c>
       <c r="F33" s="40"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="87" t="s">
+      <c r="A34" s="94" t="s">
         <v>462</v>
       </c>
       <c r="F34" s="40"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="87" t="s">
+      <c r="A35" s="94" t="s">
         <v>463</v>
       </c>
       <c r="F35" s="40"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="80" t="s">
+      <c r="A37" s="78" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="34">
-      <c r="A38" s="89" t="s">
+      <c r="A38" s="86" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="34">
-      <c r="A39" s="90" t="s">
+      <c r="A39" s="87" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="34">
-      <c r="A40" s="90" t="s">
+      <c r="A40" s="87" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="80"/>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="83" t="s">
+    <row r="41" spans="1:6" ht="17">
+      <c r="A41" s="87" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="78"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="81" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="34">
-      <c r="A44" s="38" t="s">
+    <row r="45" spans="1:6" ht="34">
+      <c r="A45" s="38" t="s">
         <v>431</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="17">
-      <c r="A45" s="38" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="17">
       <c r="A46" s="38" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="17">
       <c r="A47" s="38" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="17">
+      <c r="A48" s="38" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="34">
-      <c r="A48" s="38" t="s">
+    <row r="49" spans="1:1" ht="34">
+      <c r="A49" s="38" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
-      <c r="A50" s="78" t="s">
+    <row r="51" spans="1:1">
+      <c r="A51" s="76" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
-      <c r="A51" s="40" t="s">
+    <row r="52" spans="1:1">
+      <c r="A52" s="40" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
-      <c r="A53" s="79" t="s">
+    <row r="54" spans="1:1">
+      <c r="A54" s="77" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
-      <c r="A54" t="s">
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
         <v>307</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" ht="34">
-      <c r="A55" s="38" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="34">
       <c r="A56" s="38" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" ht="34">
+      <c r="A57" s="38" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="57" spans="1:1" ht="68">
-      <c r="A57" s="38" t="s">
+    <row r="58" spans="1:1" ht="68">
+      <c r="A58" s="38" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
-      <c r="A58" s="38"/>
-    </row>
     <row r="59" spans="1:1">
-      <c r="A59" s="79" t="s">
+      <c r="A59" s="38"/>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="77" t="s">
         <v>433</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1">
-      <c r="A60" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
         <v>300</v>
       </c>
     </row>
@@ -4174,7 +4250,7 @@
         <f>IF(A2="","",VLOOKUP(A2,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v>contacts</v>
       </c>
-      <c r="F2" s="85"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="1" t="s">
         <v>277</v>
       </c>
@@ -4196,7 +4272,7 @@
         <f>IF(A3="","",VLOOKUP(A3,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v>%</v>
       </c>
-      <c r="F3" s="86"/>
+      <c r="F3" s="84"/>
       <c r="G3" s="1" t="s">
         <v>277</v>
       </c>
@@ -4218,7 +4294,7 @@
         <f>IF(A4="","",VLOOKUP(A4,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v>contacts</v>
       </c>
-      <c r="F4" s="86"/>
+      <c r="F4" s="84"/>
       <c r="G4" s="1" t="s">
         <v>277</v>
       </c>
@@ -4240,7 +4316,7 @@
         <f>IF(A5="","",VLOOKUP(A5,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v>%</v>
       </c>
-      <c r="F5" s="86"/>
+      <c r="F5" s="84"/>
       <c r="G5" s="1" t="s">
         <v>277</v>
       </c>
@@ -4262,7 +4338,7 @@
         <f>IF(A6="","",VLOOKUP(A6,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v>%</v>
       </c>
-      <c r="F6" s="86"/>
+      <c r="F6" s="84"/>
       <c r="G6" s="1" t="s">
         <v>278</v>
       </c>
@@ -4284,7 +4360,7 @@
         <f>IF(A7="","",VLOOKUP(A7,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v>%</v>
       </c>
-      <c r="F7" s="86"/>
+      <c r="F7" s="84"/>
       <c r="G7" s="1" t="s">
         <v>278</v>
       </c>
@@ -4306,7 +4382,7 @@
         <f>IF(A8="","",VLOOKUP(A8,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v>%</v>
       </c>
-      <c r="F8" s="86"/>
+      <c r="F8" s="84"/>
       <c r="G8" s="1" t="s">
         <v>278</v>
       </c>
@@ -4328,7 +4404,7 @@
         <f>IF(A9="","",VLOOKUP(A9,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v>contacts</v>
       </c>
-      <c r="F9" s="86"/>
+      <c r="F9" s="84"/>
       <c r="G9" s="1" t="s">
         <v>278</v>
       </c>
@@ -4350,7 +4426,7 @@
         <f>IF(A10="","",VLOOKUP(A10,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v>%</v>
       </c>
-      <c r="F10" s="86"/>
+      <c r="F10" s="84"/>
       <c r="G10" s="1" t="s">
         <v>278</v>
       </c>
@@ -4372,7 +4448,7 @@
         <f>IF(A11="","",VLOOKUP(A11,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v>%</v>
       </c>
-      <c r="F11" s="86"/>
+      <c r="F11" s="84"/>
       <c r="G11" s="1" t="s">
         <v>278</v>
       </c>
@@ -4394,7 +4470,7 @@
         <f>IF(A12="","",VLOOKUP(A12,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v>%</v>
       </c>
-      <c r="F12" s="86"/>
+      <c r="F12" s="84"/>
       <c r="G12" s="1" t="s">
         <v>278</v>
       </c>
@@ -4416,7 +4492,7 @@
         <f>IF(A13="","",VLOOKUP(A13,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v>thousand tests</v>
       </c>
-      <c r="F13" s="86" t="s">
+      <c r="F13" s="84" t="s">
         <v>468</v>
       </c>
       <c r="G13" s="1" t="s">
@@ -4440,7 +4516,7 @@
         <f>IF(A14="","",VLOOKUP(A14,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v>%</v>
       </c>
-      <c r="F14" s="86" t="s">
+      <c r="F14" s="84" t="s">
         <v>441</v>
       </c>
       <c r="G14" s="1" t="s">
@@ -4464,7 +4540,7 @@
         <f>IF(A15="","",VLOOKUP(A15,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v>%</v>
       </c>
-      <c r="F15" s="86"/>
+      <c r="F15" s="84"/>
       <c r="G15" s="1" t="s">
         <v>278</v>
       </c>
@@ -4486,7 +4562,7 @@
         <f>IF(A16="","",VLOOKUP(A16,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v>%</v>
       </c>
-      <c r="F16" s="86" t="s">
+      <c r="F16" s="84" t="s">
         <v>440</v>
       </c>
       <c r="G16" s="1" t="s">
@@ -4502,7 +4578,7 @@
         <f>IF(A17="","",VLOOKUP(A17,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F17" s="85"/>
+      <c r="F17" s="83"/>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7">
@@ -4514,7 +4590,7 @@
         <f>IF(A18="","",VLOOKUP(A18,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F18" s="85"/>
+      <c r="F18" s="83"/>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7">
@@ -4526,7 +4602,7 @@
         <f>IF(A19="","",VLOOKUP(A19,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F19" s="85"/>
+      <c r="F19" s="83"/>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7">
@@ -4538,7 +4614,7 @@
         <f>IF(A20="","",VLOOKUP(A20,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F20" s="85"/>
+      <c r="F20" s="83"/>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7">
@@ -4550,7 +4626,7 @@
         <f>IF(A21="","",VLOOKUP(A21,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F21" s="85"/>
+      <c r="F21" s="83"/>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7">
@@ -4562,7 +4638,7 @@
         <f>IF(A22="","",VLOOKUP(A22,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F22" s="85"/>
+      <c r="F22" s="83"/>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7">
@@ -4574,7 +4650,7 @@
         <f>IF(A23="","",VLOOKUP(A23,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F23" s="85"/>
+      <c r="F23" s="83"/>
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7">
@@ -4586,7 +4662,7 @@
         <f>IF(A24="","",VLOOKUP(A24,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F24" s="85"/>
+      <c r="F24" s="83"/>
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7">
@@ -4598,7 +4674,7 @@
         <f>IF(A25="","",VLOOKUP(A25,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F25" s="85"/>
+      <c r="F25" s="83"/>
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7">
@@ -4610,7 +4686,7 @@
         <f>IF(A26="","",VLOOKUP(A26,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F26" s="85"/>
+      <c r="F26" s="83"/>
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7">
@@ -4622,7 +4698,7 @@
         <f>IF(A27="","",VLOOKUP(A27,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F27" s="85"/>
+      <c r="F27" s="83"/>
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7">
@@ -4634,7 +4710,7 @@
         <f>IF(A28="","",VLOOKUP(A28,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F28" s="85"/>
+      <c r="F28" s="83"/>
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7">
@@ -4646,7 +4722,7 @@
         <f>IF(A29="","",VLOOKUP(A29,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F29" s="85"/>
+      <c r="F29" s="83"/>
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7">
@@ -4658,7 +4734,7 @@
         <f>IF(A30="","",VLOOKUP(A30,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F30" s="85"/>
+      <c r="F30" s="83"/>
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7">
@@ -4670,7 +4746,7 @@
         <f>IF(A31="","",VLOOKUP(A31,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F31" s="85"/>
+      <c r="F31" s="83"/>
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7">
@@ -4682,7 +4758,7 @@
         <f>IF(A32="","",VLOOKUP(A32,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F32" s="85"/>
+      <c r="F32" s="83"/>
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7">
@@ -4694,7 +4770,7 @@
         <f>IF(A33="","",VLOOKUP(A33,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F33" s="85"/>
+      <c r="F33" s="83"/>
       <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:7">
@@ -4706,7 +4782,7 @@
         <f>IF(A34="","",VLOOKUP(A34,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F34" s="85"/>
+      <c r="F34" s="83"/>
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="1:7">
@@ -4718,7 +4794,7 @@
         <f>IF(A35="","",VLOOKUP(A35,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F35" s="85"/>
+      <c r="F35" s="83"/>
       <c r="G35" s="1"/>
     </row>
     <row r="36" spans="1:7">
@@ -4730,7 +4806,7 @@
         <f>IF(A36="","",VLOOKUP(A36,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F36" s="85"/>
+      <c r="F36" s="83"/>
       <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:7">
@@ -4742,7 +4818,7 @@
         <f>IF(A37="","",VLOOKUP(A37,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F37" s="85"/>
+      <c r="F37" s="83"/>
       <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:7">
@@ -4754,7 +4830,7 @@
         <f>IF(A38="","",VLOOKUP(A38,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F38" s="85"/>
+      <c r="F38" s="83"/>
       <c r="G38" s="1"/>
     </row>
     <row r="39" spans="1:7">
@@ -4766,7 +4842,7 @@
         <f>IF(A39="","",VLOOKUP(A39,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F39" s="85"/>
+      <c r="F39" s="83"/>
       <c r="G39" s="1"/>
     </row>
     <row r="40" spans="1:7">
@@ -4778,7 +4854,7 @@
         <f>IF(A40="","",VLOOKUP(A40,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F40" s="85"/>
+      <c r="F40" s="83"/>
       <c r="G40" s="1"/>
     </row>
     <row r="41" spans="1:7">
@@ -4790,7 +4866,7 @@
         <f>IF(A41="","",VLOOKUP(A41,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F41" s="85"/>
+      <c r="F41" s="83"/>
       <c r="G41" s="1"/>
     </row>
     <row r="42" spans="1:7">
@@ -4802,7 +4878,7 @@
         <f>IF(A42="","",VLOOKUP(A42,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F42" s="85"/>
+      <c r="F42" s="83"/>
       <c r="G42" s="1"/>
     </row>
     <row r="43" spans="1:7">
@@ -4814,7 +4890,7 @@
         <f>IF(A43="","",VLOOKUP(A43,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F43" s="85"/>
+      <c r="F43" s="83"/>
       <c r="G43" s="1"/>
     </row>
     <row r="44" spans="1:7">
@@ -4826,7 +4902,7 @@
         <f>IF(A44="","",VLOOKUP(A44,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F44" s="85"/>
+      <c r="F44" s="83"/>
       <c r="G44" s="1"/>
     </row>
     <row r="45" spans="1:7">
@@ -4838,7 +4914,7 @@
         <f>IF(A45="","",VLOOKUP(A45,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F45" s="85"/>
+      <c r="F45" s="83"/>
       <c r="G45" s="1"/>
     </row>
     <row r="46" spans="1:7">
@@ -4850,7 +4926,7 @@
         <f>IF(A46="","",VLOOKUP(A46,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F46" s="85"/>
+      <c r="F46" s="83"/>
       <c r="G46" s="1"/>
     </row>
     <row r="47" spans="1:7">
@@ -4862,7 +4938,7 @@
         <f>IF(A47="","",VLOOKUP(A47,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F47" s="85"/>
+      <c r="F47" s="83"/>
       <c r="G47" s="1"/>
     </row>
     <row r="48" spans="1:7">
@@ -4874,7 +4950,7 @@
         <f>IF(A48="","",VLOOKUP(A48,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F48" s="85"/>
+      <c r="F48" s="83"/>
       <c r="G48" s="1"/>
     </row>
     <row r="49" spans="1:7">
@@ -4886,7 +4962,7 @@
         <f>IF(A49="","",VLOOKUP(A49,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F49" s="85"/>
+      <c r="F49" s="83"/>
       <c r="G49" s="1"/>
     </row>
     <row r="50" spans="1:7">
@@ -4898,7 +4974,7 @@
         <f>IF(A50="","",VLOOKUP(A50,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F50" s="85"/>
+      <c r="F50" s="83"/>
       <c r="G50" s="1"/>
     </row>
     <row r="51" spans="1:7">
@@ -4910,7 +4986,7 @@
         <f>IF(A51="","",VLOOKUP(A51,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F51" s="85"/>
+      <c r="F51" s="83"/>
       <c r="G51" s="1"/>
     </row>
     <row r="52" spans="1:7">
@@ -4922,7 +4998,7 @@
         <f>IF(A52="","",VLOOKUP(A52,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F52" s="85"/>
+      <c r="F52" s="83"/>
       <c r="G52" s="1"/>
     </row>
     <row r="53" spans="1:7">
@@ -4934,7 +5010,7 @@
         <f>IF(A53="","",VLOOKUP(A53,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F53" s="85"/>
+      <c r="F53" s="83"/>
       <c r="G53" s="1"/>
     </row>
     <row r="54" spans="1:7">
@@ -4946,7 +5022,7 @@
         <f>IF(A54="","",VLOOKUP(A54,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F54" s="85"/>
+      <c r="F54" s="83"/>
       <c r="G54" s="1"/>
     </row>
     <row r="55" spans="1:7">
@@ -4958,7 +5034,7 @@
         <f>IF(A55="","",VLOOKUP(A55,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F55" s="85"/>
+      <c r="F55" s="83"/>
       <c r="G55" s="1"/>
     </row>
     <row r="56" spans="1:7">
@@ -4970,7 +5046,7 @@
         <f>IF(A56="","",VLOOKUP(A56,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F56" s="85"/>
+      <c r="F56" s="83"/>
       <c r="G56" s="1"/>
     </row>
     <row r="57" spans="1:7">
@@ -4982,7 +5058,7 @@
         <f>IF(A57="","",VLOOKUP(A57,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F57" s="85"/>
+      <c r="F57" s="83"/>
       <c r="G57" s="1"/>
     </row>
     <row r="58" spans="1:7">
@@ -4994,7 +5070,7 @@
         <f>IF(A58="","",VLOOKUP(A58,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F58" s="85"/>
+      <c r="F58" s="83"/>
       <c r="G58" s="1"/>
     </row>
     <row r="59" spans="1:7">
@@ -5006,7 +5082,7 @@
         <f>IF(A59="","",VLOOKUP(A59,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F59" s="85"/>
+      <c r="F59" s="83"/>
       <c r="G59" s="1"/>
     </row>
     <row r="60" spans="1:7">
@@ -5018,7 +5094,7 @@
         <f>IF(A60="","",VLOOKUP(A60,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F60" s="85"/>
+      <c r="F60" s="83"/>
       <c r="G60" s="1"/>
     </row>
     <row r="61" spans="1:7">
@@ -5030,7 +5106,7 @@
         <f>IF(A61="","",VLOOKUP(A61,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F61" s="85"/>
+      <c r="F61" s="83"/>
       <c r="G61" s="1"/>
     </row>
     <row r="62" spans="1:7">
@@ -5042,7 +5118,7 @@
         <f>IF(A62="","",VLOOKUP(A62,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F62" s="85"/>
+      <c r="F62" s="83"/>
       <c r="G62" s="1"/>
     </row>
     <row r="63" spans="1:7">
@@ -5054,7 +5130,7 @@
         <f>IF(A63="","",VLOOKUP(A63,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F63" s="85"/>
+      <c r="F63" s="83"/>
       <c r="G63" s="1"/>
     </row>
     <row r="64" spans="1:7">
@@ -5066,7 +5142,7 @@
         <f>IF(A64="","",VLOOKUP(A64,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F64" s="85"/>
+      <c r="F64" s="83"/>
       <c r="G64" s="1"/>
     </row>
     <row r="65" spans="1:7">
@@ -5078,7 +5154,7 @@
         <f>IF(A65="","",VLOOKUP(A65,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F65" s="85"/>
+      <c r="F65" s="83"/>
       <c r="G65" s="1"/>
     </row>
     <row r="66" spans="1:7">
@@ -5090,7 +5166,7 @@
         <f>IF(A66="","",VLOOKUP(A66,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F66" s="85"/>
+      <c r="F66" s="83"/>
       <c r="G66" s="1"/>
     </row>
     <row r="67" spans="1:7">
@@ -5102,7 +5178,7 @@
         <f>IF(A67="","",VLOOKUP(A67,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F67" s="85"/>
+      <c r="F67" s="83"/>
       <c r="G67" s="1"/>
     </row>
     <row r="68" spans="1:7">
@@ -5114,7 +5190,7 @@
         <f>IF(A68="","",VLOOKUP(A68,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F68" s="85"/>
+      <c r="F68" s="83"/>
       <c r="G68" s="1"/>
     </row>
     <row r="69" spans="1:7">
@@ -5126,7 +5202,7 @@
         <f>IF(A69="","",VLOOKUP(A69,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F69" s="85"/>
+      <c r="F69" s="83"/>
       <c r="G69" s="1"/>
     </row>
     <row r="70" spans="1:7">
@@ -5138,7 +5214,7 @@
         <f>IF(A70="","",VLOOKUP(A70,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F70" s="85"/>
+      <c r="F70" s="83"/>
       <c r="G70" s="1"/>
     </row>
     <row r="71" spans="1:7">
@@ -5150,7 +5226,7 @@
         <f>IF(A71="","",VLOOKUP(A71,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F71" s="85"/>
+      <c r="F71" s="83"/>
       <c r="G71" s="1"/>
     </row>
     <row r="72" spans="1:7">
@@ -5162,7 +5238,7 @@
         <f>IF(A72="","",VLOOKUP(A72,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F72" s="85"/>
+      <c r="F72" s="83"/>
       <c r="G72" s="1"/>
     </row>
     <row r="73" spans="1:7">
@@ -5174,7 +5250,7 @@
         <f>IF(A73="","",VLOOKUP(A73,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F73" s="85"/>
+      <c r="F73" s="83"/>
       <c r="G73" s="1"/>
     </row>
     <row r="74" spans="1:7">
@@ -5186,7 +5262,7 @@
         <f>IF(A74="","",VLOOKUP(A74,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F74" s="85"/>
+      <c r="F74" s="83"/>
       <c r="G74" s="1"/>
     </row>
     <row r="75" spans="1:7">
@@ -5198,7 +5274,7 @@
         <f>IF(A75="","",VLOOKUP(A75,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F75" s="85"/>
+      <c r="F75" s="83"/>
       <c r="G75" s="1"/>
     </row>
     <row r="76" spans="1:7">
@@ -5210,7 +5286,7 @@
         <f>IF(A76="","",VLOOKUP(A76,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F76" s="85"/>
+      <c r="F76" s="83"/>
       <c r="G76" s="1"/>
     </row>
     <row r="77" spans="1:7">
@@ -5222,7 +5298,7 @@
         <f>IF(A77="","",VLOOKUP(A77,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F77" s="85"/>
+      <c r="F77" s="83"/>
       <c r="G77" s="1"/>
     </row>
     <row r="78" spans="1:7">
@@ -5234,7 +5310,7 @@
         <f>IF(A78="","",VLOOKUP(A78,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F78" s="85"/>
+      <c r="F78" s="83"/>
       <c r="G78" s="1"/>
     </row>
     <row r="79" spans="1:7">
@@ -5246,7 +5322,7 @@
         <f>IF(A79="","",VLOOKUP(A79,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F79" s="85"/>
+      <c r="F79" s="83"/>
       <c r="G79" s="1"/>
     </row>
     <row r="80" spans="1:7">
@@ -5258,7 +5334,7 @@
         <f>IF(A80="","",VLOOKUP(A80,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F80" s="85"/>
+      <c r="F80" s="83"/>
       <c r="G80" s="1"/>
     </row>
     <row r="81" spans="1:7">
@@ -5270,7 +5346,7 @@
         <f>IF(A81="","",VLOOKUP(A81,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F81" s="85"/>
+      <c r="F81" s="83"/>
       <c r="G81" s="1"/>
     </row>
     <row r="82" spans="1:7">
@@ -5282,7 +5358,7 @@
         <f>IF(A82="","",VLOOKUP(A82,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F82" s="85"/>
+      <c r="F82" s="83"/>
       <c r="G82" s="1"/>
     </row>
     <row r="83" spans="1:7">
@@ -5294,7 +5370,7 @@
         <f>IF(A83="","",VLOOKUP(A83,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F83" s="85"/>
+      <c r="F83" s="83"/>
       <c r="G83" s="1"/>
     </row>
     <row r="84" spans="1:7">
@@ -5306,7 +5382,7 @@
         <f>IF(A84="","",VLOOKUP(A84,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F84" s="85"/>
+      <c r="F84" s="83"/>
       <c r="G84" s="1"/>
     </row>
     <row r="85" spans="1:7">
@@ -5318,7 +5394,7 @@
         <f>IF(A85="","",VLOOKUP(A85,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F85" s="85"/>
+      <c r="F85" s="83"/>
       <c r="G85" s="1"/>
     </row>
     <row r="86" spans="1:7">
@@ -5330,7 +5406,7 @@
         <f>IF(A86="","",VLOOKUP(A86,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F86" s="85"/>
+      <c r="F86" s="83"/>
       <c r="G86" s="1"/>
     </row>
     <row r="87" spans="1:7">
@@ -5342,7 +5418,7 @@
         <f>IF(A87="","",VLOOKUP(A87,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F87" s="85"/>
+      <c r="F87" s="83"/>
       <c r="G87" s="1"/>
     </row>
     <row r="88" spans="1:7">
@@ -5354,7 +5430,7 @@
         <f>IF(A88="","",VLOOKUP(A88,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F88" s="85"/>
+      <c r="F88" s="83"/>
       <c r="G88" s="1"/>
     </row>
     <row r="89" spans="1:7">
@@ -5366,7 +5442,7 @@
         <f>IF(A89="","",VLOOKUP(A89,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F89" s="85"/>
+      <c r="F89" s="83"/>
       <c r="G89" s="1"/>
     </row>
     <row r="90" spans="1:7">
@@ -5378,7 +5454,7 @@
         <f>IF(A90="","",VLOOKUP(A90,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F90" s="85"/>
+      <c r="F90" s="83"/>
       <c r="G90" s="1"/>
     </row>
     <row r="91" spans="1:7">
@@ -5390,7 +5466,7 @@
         <f>IF(A91="","",VLOOKUP(A91,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F91" s="85"/>
+      <c r="F91" s="83"/>
       <c r="G91" s="1"/>
     </row>
     <row r="92" spans="1:7">
@@ -5402,7 +5478,7 @@
         <f>IF(A92="","",VLOOKUP(A92,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F92" s="85"/>
+      <c r="F92" s="83"/>
       <c r="G92" s="1"/>
     </row>
     <row r="93" spans="1:7">
@@ -5414,7 +5490,7 @@
         <f>IF(A93="","",VLOOKUP(A93,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F93" s="85"/>
+      <c r="F93" s="83"/>
       <c r="G93" s="1"/>
     </row>
     <row r="94" spans="1:7">
@@ -5426,7 +5502,7 @@
         <f>IF(A94="","",VLOOKUP(A94,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F94" s="85"/>
+      <c r="F94" s="83"/>
       <c r="G94" s="1"/>
     </row>
     <row r="95" spans="1:7">
@@ -5438,7 +5514,7 @@
         <f>IF(A95="","",VLOOKUP(A95,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F95" s="85"/>
+      <c r="F95" s="83"/>
       <c r="G95" s="1"/>
     </row>
     <row r="96" spans="1:7">
@@ -5450,7 +5526,7 @@
         <f>IF(A96="","",VLOOKUP(A96,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F96" s="85"/>
+      <c r="F96" s="83"/>
       <c r="G96" s="1"/>
     </row>
     <row r="97" spans="1:7">
@@ -5462,7 +5538,7 @@
         <f>IF(A97="","",VLOOKUP(A97,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F97" s="85"/>
+      <c r="F97" s="83"/>
       <c r="G97" s="1"/>
     </row>
     <row r="98" spans="1:7">
@@ -5474,7 +5550,7 @@
         <f>IF(A98="","",VLOOKUP(A98,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F98" s="85"/>
+      <c r="F98" s="83"/>
       <c r="G98" s="1"/>
     </row>
     <row r="99" spans="1:7">
@@ -5486,7 +5562,7 @@
         <f>IF(A99="","",VLOOKUP(A99,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F99" s="85"/>
+      <c r="F99" s="83"/>
       <c r="G99" s="1"/>
     </row>
     <row r="100" spans="1:7">
@@ -5498,12 +5574,12 @@
         <f>IF(A100="","",VLOOKUP(A100,HIDDEN!$E$2:$F$15,2,FALSE))</f>
         <v/>
       </c>
-      <c r="F100" s="85"/>
+      <c r="F100" s="83"/>
       <c r="G100" s="1"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F2:F100">
-    <cfRule type="expression" dxfId="4" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>NOT(OR($A2 = "Vaccination", $A2 = "School Closures",  $A2 = "Mass Testing"))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5558,10 +5634,10 @@
       <c r="C1" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E1" s="84" t="s">
+      <c r="E1" s="82" t="s">
         <v>269</v>
       </c>
-      <c r="F1" s="84" t="s">
+      <c r="F1" s="82" t="s">
         <v>338</v>
       </c>
       <c r="I1" s="2" t="s">
@@ -7586,13 +7662,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="170">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="73" t="s">
         <v>279</v>
       </c>
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="72" t="s">
         <v>100</v>
       </c>
-      <c r="C1" s="74" t="s">
+      <c r="C1" s="72" t="s">
         <v>101</v>
       </c>
     </row>
@@ -7600,10 +7676,10 @@
       <c r="A2" s="8" t="s">
         <v>476</v>
       </c>
-      <c r="B2" s="80">
+      <c r="B2" s="78">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="C2" s="80">
+      <c r="C2" s="78">
         <v>0</v>
       </c>
     </row>
@@ -7611,10 +7687,10 @@
       <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="80">
+      <c r="B3" s="78">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="C3" s="80">
+      <c r="C3" s="78">
         <v>0</v>
       </c>
     </row>
@@ -7622,10 +7698,10 @@
       <c r="A4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="80">
+      <c r="B4" s="78">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="C4" s="80">
+      <c r="C4" s="78">
         <v>0.04</v>
       </c>
     </row>
@@ -7633,10 +7709,10 @@
       <c r="A5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="80">
+      <c r="B5" s="78">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="C5" s="80">
+      <c r="C5" s="78">
         <v>0.04</v>
       </c>
     </row>
@@ -7644,10 +7720,10 @@
       <c r="A6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="80">
+      <c r="B6" s="78">
         <v>3.1E-2</v>
       </c>
-      <c r="C6" s="80">
+      <c r="C6" s="78">
         <v>1.1000000000000001</v>
       </c>
     </row>
@@ -7655,10 +7731,10 @@
       <c r="A7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="80">
+      <c r="B7" s="78">
         <v>3.1E-2</v>
       </c>
-      <c r="C7" s="80">
+      <c r="C7" s="78">
         <v>1.1000000000000001</v>
       </c>
     </row>
@@ -7666,10 +7742,10 @@
       <c r="A8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="80">
+      <c r="B8" s="78">
         <v>0.26</v>
       </c>
-      <c r="C8" s="80">
+      <c r="C8" s="78">
         <v>3.43</v>
       </c>
     </row>
@@ -7677,10 +7753,10 @@
       <c r="A9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="80">
+      <c r="B9" s="78">
         <v>0.26</v>
       </c>
-      <c r="C9" s="80">
+      <c r="C9" s="78">
         <v>3.43</v>
       </c>
     </row>
@@ -7688,10 +7764,10 @@
       <c r="A10" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="80">
+      <c r="B10" s="78">
         <v>0.48</v>
       </c>
-      <c r="C10" s="80">
+      <c r="C10" s="78">
         <v>4.25</v>
       </c>
     </row>
@@ -7699,10 +7775,10 @@
       <c r="A11" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="80">
+      <c r="B11" s="78">
         <v>0.48</v>
       </c>
-      <c r="C11" s="80">
+      <c r="C11" s="78">
         <v>4.25</v>
       </c>
     </row>
@@ -7710,10 +7786,10 @@
       <c r="A12" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="80">
+      <c r="B12" s="78">
         <v>0.6</v>
       </c>
-      <c r="C12" s="80">
+      <c r="C12" s="78">
         <v>8.1999999999999993</v>
       </c>
     </row>
@@ -7721,10 +7797,10 @@
       <c r="A13" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="80">
+      <c r="B13" s="78">
         <v>0.6</v>
       </c>
-      <c r="C13" s="80">
+      <c r="C13" s="78">
         <v>8.1999999999999993</v>
       </c>
     </row>
@@ -7732,10 +7808,10 @@
       <c r="A14" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="80">
+      <c r="B14" s="78">
         <v>1.9</v>
       </c>
-      <c r="C14" s="80">
+      <c r="C14" s="78">
         <v>11.8</v>
       </c>
     </row>
@@ -7743,10 +7819,10 @@
       <c r="A15" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="80">
+      <c r="B15" s="78">
         <v>1.9</v>
       </c>
-      <c r="C15" s="80">
+      <c r="C15" s="78">
         <v>11.8</v>
       </c>
     </row>
@@ -7754,10 +7830,10 @@
       <c r="A16" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="80">
+      <c r="B16" s="78">
         <v>4.3</v>
       </c>
-      <c r="C16" s="80">
+      <c r="C16" s="78">
         <v>16.600000000000001</v>
       </c>
     </row>
@@ -7765,10 +7841,10 @@
       <c r="A17" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="80">
+      <c r="B17" s="78">
         <v>4.3</v>
       </c>
-      <c r="C17" s="80">
+      <c r="C17" s="78">
         <v>16.600000000000001</v>
       </c>
     </row>
@@ -7776,10 +7852,10 @@
       <c r="A18" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="80">
+      <c r="B18" s="78">
         <v>7.8</v>
       </c>
-      <c r="C18" s="80">
+      <c r="C18" s="78">
         <v>18.399999999999999</v>
       </c>
     </row>
@@ -7787,10 +7863,10 @@
       <c r="A19" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="80">
+      <c r="B19" s="78">
         <v>7.8</v>
       </c>
-      <c r="C19" s="80">
+      <c r="C19" s="78">
         <v>18.399999999999999</v>
       </c>
     </row>
@@ -7798,10 +7874,10 @@
       <c r="A20" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="80">
+      <c r="B20" s="78">
         <v>7.8</v>
       </c>
-      <c r="C20" s="80">
+      <c r="C20" s="78">
         <v>18.399999999999999</v>
       </c>
     </row>
@@ -7809,10 +7885,10 @@
       <c r="A21" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="80">
+      <c r="B21" s="78">
         <v>7.8</v>
       </c>
-      <c r="C21" s="80">
+      <c r="C21" s="78">
         <v>18.399999999999999</v>
       </c>
     </row>
@@ -7820,10 +7896,10 @@
       <c r="A22" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="80">
+      <c r="B22" s="78">
         <v>7.8</v>
       </c>
-      <c r="C22" s="80">
+      <c r="C22" s="78">
         <v>18.399999999999999</v>
       </c>
     </row>
@@ -7877,13 +7953,13 @@
       <c r="A2" s="8" t="s">
         <v>476</v>
       </c>
-      <c r="B2" s="81">
+      <c r="B2" s="79">
         <v>3924000</v>
       </c>
-      <c r="C2" s="82">
-        <v>0</v>
-      </c>
-      <c r="D2" s="82">
+      <c r="C2" s="80">
+        <v>0</v>
+      </c>
+      <c r="D2" s="80">
         <v>2.3722458400227202E-6</v>
       </c>
     </row>
@@ -7891,13 +7967,13 @@
       <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="81">
+      <c r="B3" s="79">
         <v>4120000</v>
       </c>
-      <c r="C3" s="82">
-        <v>0</v>
-      </c>
-      <c r="D3" s="82">
+      <c r="C3" s="80">
+        <v>0</v>
+      </c>
+      <c r="D3" s="80">
         <v>1.32905378016121E-7</v>
       </c>
     </row>
@@ -7905,13 +7981,13 @@
       <c r="A4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="81">
+      <c r="B4" s="79">
         <v>3956000</v>
       </c>
-      <c r="C4" s="82">
-        <v>0</v>
-      </c>
-      <c r="D4" s="82">
+      <c r="C4" s="80">
+        <v>0</v>
+      </c>
+      <c r="D4" s="80">
         <v>2.7683021103459102E-7</v>
       </c>
     </row>
@@ -7919,13 +7995,13 @@
       <c r="A5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="81">
+      <c r="B5" s="79">
         <v>3686000</v>
       </c>
-      <c r="C5" s="82">
+      <c r="C5" s="80">
         <v>1.82721457849836E-5</v>
       </c>
-      <c r="D5" s="82">
+      <c r="D5" s="80">
         <v>5.9421612308889897E-7</v>
       </c>
     </row>
@@ -7933,13 +8009,13 @@
       <c r="A6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="81">
+      <c r="B6" s="79">
         <v>4075000</v>
       </c>
-      <c r="C6" s="82">
+      <c r="C6" s="80">
         <v>7.3367682442901998E-5</v>
       </c>
-      <c r="D6" s="82">
+      <c r="D6" s="80">
         <v>9.4061131337053795E-7</v>
       </c>
     </row>
@@ -7947,13 +8023,13 @@
       <c r="A7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="81">
+      <c r="B7" s="79">
         <v>4484000</v>
       </c>
-      <c r="C7" s="82">
+      <c r="C7" s="80">
         <v>1.2968766886415199E-4</v>
       </c>
-      <c r="D7" s="82">
+      <c r="D7" s="80">
         <v>1.22116449024625E-6</v>
       </c>
     </row>
@@ -7961,13 +8037,13 @@
       <c r="A8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="81">
+      <c r="B8" s="79">
         <v>4707000</v>
       </c>
-      <c r="C8" s="82">
+      <c r="C8" s="80">
         <v>1.4518112523224401E-4</v>
       </c>
-      <c r="D8" s="82">
+      <c r="D8" s="80">
         <v>1.74496544750293E-6</v>
       </c>
     </row>
@@ -7975,13 +8051,13 @@
       <c r="A9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="81">
+      <c r="B9" s="79">
         <v>4588000</v>
       </c>
-      <c r="C9" s="82">
+      <c r="C9" s="80">
         <v>8.5692103973881797E-5</v>
       </c>
-      <c r="D9" s="82">
+      <c r="D9" s="80">
         <v>2.3869666845092401E-6</v>
       </c>
     </row>
@@ -7989,13 +8065,13 @@
       <c r="A10" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="81">
+      <c r="B10" s="79">
         <v>4308000</v>
       </c>
-      <c r="C10" s="82">
+      <c r="C10" s="80">
         <v>1.9320024124609101E-5</v>
       </c>
-      <c r="D10" s="82">
+      <c r="D10" s="80">
         <v>3.9402680780452703E-6</v>
       </c>
     </row>
@@ -8003,13 +8079,13 @@
       <c r="A11" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="81">
+      <c r="B11" s="79">
         <v>4296000</v>
       </c>
-      <c r="C11" s="82">
+      <c r="C11" s="80">
         <v>1.2746046495028399E-6</v>
       </c>
-      <c r="D11" s="82">
+      <c r="D11" s="80">
         <v>5.9906418526633501E-6</v>
       </c>
     </row>
@@ -8017,13 +8093,13 @@
       <c r="A12" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="81">
+      <c r="B12" s="79">
         <v>4635000</v>
       </c>
-      <c r="C12" s="82">
-        <v>0</v>
-      </c>
-      <c r="D12" s="82">
+      <c r="C12" s="80">
+        <v>0</v>
+      </c>
+      <c r="D12" s="80">
         <v>8.5059441930317695E-6</v>
       </c>
     </row>
@@ -8031,13 +8107,13 @@
       <c r="A13" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="81">
+      <c r="B13" s="79">
         <v>4539000</v>
       </c>
-      <c r="C13" s="82">
-        <v>0</v>
-      </c>
-      <c r="D13" s="82">
+      <c r="C13" s="80">
+        <v>0</v>
+      </c>
+      <c r="D13" s="80">
         <v>1.26668575743058E-5</v>
       </c>
     </row>
@@ -8045,13 +8121,13 @@
       <c r="A14" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="81">
+      <c r="B14" s="79">
         <v>3905000</v>
       </c>
-      <c r="C14" s="82">
-        <v>0</v>
-      </c>
-      <c r="D14" s="82">
+      <c r="C14" s="80">
+        <v>0</v>
+      </c>
+      <c r="D14" s="80">
         <v>2.0472533414662599E-5</v>
       </c>
     </row>
@@ -8059,13 +8135,13 @@
       <c r="A15" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="81">
+      <c r="B15" s="79">
         <v>3382000</v>
       </c>
-      <c r="C15" s="82">
-        <v>0</v>
-      </c>
-      <c r="D15" s="82">
+      <c r="C15" s="80">
+        <v>0</v>
+      </c>
+      <c r="D15" s="80">
         <v>3.4000512436294603E-5</v>
       </c>
     </row>
@@ -8073,13 +8149,13 @@
       <c r="A16" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="81">
+      <c r="B16" s="79">
         <v>3388000</v>
       </c>
-      <c r="C16" s="82">
-        <v>0</v>
-      </c>
-      <c r="D16" s="82">
+      <c r="C16" s="80">
+        <v>0</v>
+      </c>
+      <c r="D16" s="80">
         <v>4.9617484749088298E-5</v>
       </c>
     </row>
@@ -8087,13 +8163,13 @@
       <c r="A17" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="81">
+      <c r="B17" s="79">
         <v>2442000</v>
       </c>
-      <c r="C17" s="82">
-        <v>0</v>
-      </c>
-      <c r="D17" s="82">
+      <c r="C17" s="80">
+        <v>0</v>
+      </c>
+      <c r="D17" s="80">
         <v>8.7449779441565906E-5</v>
       </c>
     </row>
@@ -8101,13 +8177,13 @@
       <c r="A18" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="81">
+      <c r="B18" s="79">
         <v>1737000</v>
       </c>
-      <c r="C18" s="82">
-        <v>0</v>
-      </c>
-      <c r="D18" s="82">
+      <c r="C18" s="80">
+        <v>0</v>
+      </c>
+      <c r="D18" s="80">
         <v>1.6171761126065301E-4</v>
       </c>
     </row>
@@ -8115,13 +8191,13 @@
       <c r="A19" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="81">
+      <c r="B19" s="79">
         <v>1078000</v>
       </c>
-      <c r="C19" s="82">
-        <v>0</v>
-      </c>
-      <c r="D19" s="82">
+      <c r="C19" s="80">
+        <v>0</v>
+      </c>
+      <c r="D19" s="80">
         <v>2.9461103089733202E-4</v>
       </c>
     </row>
@@ -8129,13 +8205,13 @@
       <c r="A20" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="81">
+      <c r="B20" s="79">
         <v>491000</v>
       </c>
-      <c r="C20" s="82">
-        <v>0</v>
-      </c>
-      <c r="D20" s="82">
+      <c r="C20" s="80">
+        <v>0</v>
+      </c>
+      <c r="D20" s="80">
         <v>4.9738551978041395E-4</v>
       </c>
     </row>
@@ -8143,13 +8219,13 @@
       <c r="A21" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="81">
+      <c r="B21" s="79">
         <v>130000</v>
       </c>
-      <c r="C21" s="82">
-        <v>0</v>
-      </c>
-      <c r="D21" s="82">
+      <c r="C21" s="80">
+        <v>0</v>
+      </c>
+      <c r="D21" s="80">
         <v>8.9717264255251901E-4</v>
       </c>
     </row>
@@ -8157,13 +8233,13 @@
       <c r="A22" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="81">
+      <c r="B22" s="79">
         <v>16000</v>
       </c>
-      <c r="C22" s="82">
-        <v>0</v>
-      </c>
-      <c r="D22" s="82">
+      <c r="C22" s="80">
+        <v>0</v>
+      </c>
+      <c r="D22" s="80">
         <v>7.2895277207392197E-3</v>
       </c>
     </row>
@@ -8185,17 +8261,17 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="70.6640625" style="8" customWidth="1"/>
     <col min="2" max="2" width="10.83203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.83203125" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21" style="8" bestFit="1" customWidth="1"/>
@@ -8258,24 +8334,26 @@
       <c r="A4" s="63" t="s">
         <v>474</v>
       </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="88">
+      <c r="B4" s="66"/>
+      <c r="C4" s="85">
         <v>10</v>
       </c>
-      <c r="D4" s="60"/>
+      <c r="D4" s="60" t="s">
+        <v>477</v>
+      </c>
       <c r="E4" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="66" t="s">
+      <c r="F4" s="65" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="71" customFormat="1" ht="17">
+    <row r="5" spans="1:6" s="69" customFormat="1" ht="17">
       <c r="A5" s="63" t="s">
         <v>374</v>
       </c>
-      <c r="B5" s="68"/>
-      <c r="C5" s="69">
+      <c r="B5" s="66"/>
+      <c r="C5" s="67">
         <v>0</v>
       </c>
       <c r="D5" s="60" t="s">
@@ -8284,7 +8362,7 @@
       <c r="E5" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="66" t="s">
+      <c r="F5" s="65" t="s">
         <v>345</v>
       </c>
     </row>
@@ -8354,7 +8432,7 @@
       <c r="E9" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="66" t="s">
+      <c r="F9" s="65" t="s">
         <v>437</v>
       </c>
     </row>
@@ -8372,7 +8450,7 @@
       <c r="E10" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="66" t="s">
+      <c r="F10" s="65" t="s">
         <v>110</v>
       </c>
     </row>
@@ -8390,7 +8468,7 @@
       <c r="E11" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="66" t="s">
+      <c r="F11" s="65" t="s">
         <v>346</v>
       </c>
     </row>
@@ -8408,7 +8486,7 @@
       <c r="E12" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="66" t="s">
+      <c r="F12" s="65" t="s">
         <v>347</v>
       </c>
     </row>
@@ -8426,7 +8504,7 @@
       <c r="E13" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="66" t="s">
+      <c r="F13" s="65" t="s">
         <v>348</v>
       </c>
     </row>
@@ -8444,7 +8522,7 @@
       <c r="E14" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="66" t="s">
+      <c r="F14" s="65" t="s">
         <v>349</v>
       </c>
     </row>
@@ -8462,7 +8540,7 @@
       <c r="E15" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="66" t="s">
+      <c r="F15" s="65" t="s">
         <v>350</v>
       </c>
     </row>
@@ -8480,7 +8558,7 @@
       <c r="E16" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="F16" s="66" t="s">
+      <c r="F16" s="65" t="s">
         <v>351</v>
       </c>
     </row>
@@ -8498,7 +8576,7 @@
       <c r="E17" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="66" t="s">
+      <c r="F17" s="65" t="s">
         <v>352</v>
       </c>
     </row>
@@ -8516,7 +8594,7 @@
       <c r="E18" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="F18" s="66" t="s">
+      <c r="F18" s="65" t="s">
         <v>353</v>
       </c>
     </row>
@@ -8534,7 +8612,7 @@
       <c r="E19" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="F19" s="66" t="s">
+      <c r="F19" s="65" t="s">
         <v>354</v>
       </c>
     </row>
@@ -8552,58 +8630,72 @@
       <c r="E20" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="F20" s="66" t="s">
+      <c r="F20" s="65" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="17">
-      <c r="A21" s="70" t="s">
+      <c r="A21" s="68" t="s">
         <v>341</v>
       </c>
       <c r="B21" s="64"/>
-      <c r="C21" s="65">
+      <c r="C21" s="92">
         <v>1</v>
       </c>
       <c r="D21" s="64"/>
-      <c r="E21" s="66" t="s">
+      <c r="E21" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" s="65" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="17">
+      <c r="A22" s="68" t="s">
+        <v>303</v>
+      </c>
+      <c r="B22" s="64"/>
+      <c r="C22" s="62">
+        <v>0.1</v>
+      </c>
+      <c r="D22" s="64"/>
+      <c r="E22" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="F21" s="66" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="17">
-      <c r="A22" s="70" t="s">
-        <v>303</v>
-      </c>
-      <c r="B22" s="64"/>
-      <c r="C22" s="67">
-        <v>0.1</v>
-      </c>
-      <c r="D22" s="64"/>
-      <c r="E22" s="66" t="s">
-        <v>26</v>
-      </c>
-      <c r="F22" s="66" t="s">
+      <c r="F22" s="65" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="17">
-      <c r="A23" s="70" t="s">
+      <c r="A23" s="68" t="s">
         <v>304</v>
       </c>
       <c r="B23" s="64"/>
-      <c r="C23" s="67">
+      <c r="C23" s="93">
         <v>5</v>
       </c>
       <c r="D23" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="E23" s="66" t="s">
+      <c r="E23" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="F23" s="66" t="s">
+      <c r="F23" s="65" t="s">
         <v>294</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="8" t="s">
+        <v>480</v>
+      </c>
+      <c r="C24" s="92">
+        <v>5000</v>
+      </c>
+      <c r="E24" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" s="65" t="s">
+        <v>478</v>
       </c>
     </row>
   </sheetData>
@@ -8803,10 +8895,10 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="17">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="71" t="s">
         <v>392</v>
       </c>
-      <c r="B2" s="91">
+      <c r="B2" s="88">
         <v>50</v>
       </c>
       <c r="C2" s="14" t="s">
@@ -8820,10 +8912,10 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="17">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="71" t="s">
         <v>393</v>
       </c>
-      <c r="B3" s="91">
+      <c r="B3" s="88">
         <v>3.5</v>
       </c>
       <c r="C3" s="14" t="s">
@@ -8837,10 +8929,10 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="17">
-      <c r="A4" s="73" t="s">
+      <c r="A4" s="71" t="s">
         <v>394</v>
       </c>
-      <c r="B4" s="91">
+      <c r="B4" s="88">
         <v>4.5</v>
       </c>
       <c r="C4" s="14" t="s">
@@ -8854,10 +8946,10 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="17">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="71" t="s">
         <v>395</v>
       </c>
-      <c r="B5" s="91">
+      <c r="B5" s="88">
         <v>1</v>
       </c>
       <c r="C5" s="14"/>
@@ -8869,10 +8961,10 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="17">
-      <c r="A6" s="73" t="s">
+      <c r="A6" s="71" t="s">
         <v>396</v>
       </c>
-      <c r="B6" s="91">
+      <c r="B6" s="88">
         <v>0</v>
       </c>
       <c r="C6" s="14" t="s">
@@ -8886,10 +8978,10 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="17">
-      <c r="A7" s="73" t="s">
+      <c r="A7" s="71" t="s">
         <v>397</v>
       </c>
-      <c r="B7" s="91">
+      <c r="B7" s="88">
         <v>150</v>
       </c>
       <c r="C7" s="14" t="s">
@@ -8903,10 +8995,10 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="17">
-      <c r="A8" s="73" t="s">
+      <c r="A8" s="71" t="s">
         <v>398</v>
       </c>
-      <c r="B8" s="91">
+      <c r="B8" s="88">
         <v>15</v>
       </c>
       <c r="C8" s="14" t="s">
@@ -8920,10 +9012,10 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="17">
-      <c r="A9" s="73" t="s">
+      <c r="A9" s="71" t="s">
         <v>399</v>
       </c>
-      <c r="B9" s="91">
+      <c r="B9" s="88">
         <v>25</v>
       </c>
       <c r="C9" s="14" t="s">
@@ -8937,10 +9029,10 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="17">
-      <c r="A10" s="73" t="s">
+      <c r="A10" s="71" t="s">
         <v>400</v>
       </c>
-      <c r="B10" s="91">
+      <c r="B10" s="88">
         <v>40</v>
       </c>
       <c r="C10" s="14" t="s">
@@ -8954,10 +9046,10 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="17">
-      <c r="A11" s="73" t="s">
+      <c r="A11" s="71" t="s">
         <v>305</v>
       </c>
-      <c r="B11" s="92">
+      <c r="B11" s="89">
         <v>50</v>
       </c>
       <c r="C11" s="13" t="s">
@@ -8971,10 +9063,10 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="34">
-      <c r="A12" s="73" t="s">
+      <c r="A12" s="71" t="s">
         <v>378</v>
       </c>
-      <c r="B12" s="93">
+      <c r="B12" s="90">
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
@@ -8988,10 +9080,10 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="34">
-      <c r="A13" s="73" t="s">
+      <c r="A13" s="71" t="s">
         <v>379</v>
       </c>
-      <c r="B13" s="93">
+      <c r="B13" s="90">
         <v>0</v>
       </c>
       <c r="C13" s="8" t="s">
@@ -9005,10 +9097,10 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="34">
-      <c r="A14" s="73" t="s">
+      <c r="A14" s="71" t="s">
         <v>380</v>
       </c>
-      <c r="B14" s="93">
+      <c r="B14" s="90">
         <v>0</v>
       </c>
       <c r="C14" s="8" t="s">
@@ -9022,10 +9114,10 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="34">
-      <c r="A15" s="73" t="s">
+      <c r="A15" s="71" t="s">
         <v>381</v>
       </c>
-      <c r="B15" s="93">
+      <c r="B15" s="90">
         <v>20</v>
       </c>
       <c r="C15" s="8" t="s">
@@ -9039,10 +9131,10 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="34">
-      <c r="A16" s="73" t="s">
+      <c r="A16" s="71" t="s">
         <v>382</v>
       </c>
-      <c r="B16" s="93">
+      <c r="B16" s="90">
         <v>0</v>
       </c>
       <c r="C16" s="8" t="s">
@@ -9056,10 +9148,10 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="34">
-      <c r="A17" s="73" t="s">
+      <c r="A17" s="71" t="s">
         <v>383</v>
       </c>
-      <c r="B17" s="93">
+      <c r="B17" s="90">
         <v>0</v>
       </c>
       <c r="C17" s="8" t="s">
@@ -9073,10 +9165,10 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="34">
-      <c r="A18" s="73" t="s">
+      <c r="A18" s="71" t="s">
         <v>384</v>
       </c>
-      <c r="B18" s="93">
+      <c r="B18" s="90">
         <v>20</v>
       </c>
       <c r="C18" s="8" t="s">
@@ -9090,10 +9182,10 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="34">
-      <c r="A19" s="73" t="s">
+      <c r="A19" s="71" t="s">
         <v>385</v>
       </c>
-      <c r="B19" s="93">
+      <c r="B19" s="90">
         <v>0</v>
       </c>
       <c r="C19" s="8" t="s">
@@ -9106,105 +9198,105 @@
         <v>363</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="72" customFormat="1" ht="34">
-      <c r="A20" s="73" t="s">
+    <row r="20" spans="1:5" s="70" customFormat="1" ht="34">
+      <c r="A20" s="71" t="s">
         <v>386</v>
       </c>
-      <c r="B20" s="94">
-        <v>0</v>
-      </c>
-      <c r="C20" s="72" t="s">
+      <c r="B20" s="91">
+        <v>0</v>
+      </c>
+      <c r="C20" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="76" t="s">
+      <c r="D20" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="76" t="s">
+      <c r="E20" s="74" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="72" customFormat="1" ht="30" customHeight="1">
-      <c r="A21" s="74" t="s">
+    <row r="21" spans="1:5" s="70" customFormat="1" ht="30" customHeight="1">
+      <c r="A21" s="72" t="s">
         <v>387</v>
       </c>
-      <c r="B21" s="94">
-        <v>0</v>
-      </c>
-      <c r="C21" s="72" t="s">
+      <c r="B21" s="91">
+        <v>0</v>
+      </c>
+      <c r="C21" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="76" t="s">
+      <c r="D21" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="E21" s="76" t="s">
+      <c r="E21" s="74" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="72" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A22" s="73" t="s">
+    <row r="22" spans="1:5" s="70" customFormat="1" ht="32.25" customHeight="1">
+      <c r="A22" s="71" t="s">
         <v>388</v>
       </c>
-      <c r="B22" s="94">
+      <c r="B22" s="91">
         <v>20</v>
       </c>
-      <c r="C22" s="72" t="s">
+      <c r="C22" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="76" t="s">
+      <c r="D22" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="E22" s="76" t="s">
+      <c r="E22" s="74" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="72" customFormat="1" ht="17" customHeight="1">
-      <c r="A23" s="73" t="s">
+    <row r="23" spans="1:5" s="70" customFormat="1" ht="17" customHeight="1">
+      <c r="A23" s="71" t="s">
         <v>389</v>
       </c>
-      <c r="B23" s="94">
-        <v>0</v>
-      </c>
-      <c r="C23" s="72" t="s">
+      <c r="B23" s="91">
+        <v>0</v>
+      </c>
+      <c r="C23" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="76" t="s">
+      <c r="D23" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="E23" s="76" t="s">
+      <c r="E23" s="74" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="72" customFormat="1" ht="34">
-      <c r="A24" s="73" t="s">
+    <row r="24" spans="1:5" s="70" customFormat="1" ht="34">
+      <c r="A24" s="71" t="s">
         <v>390</v>
       </c>
-      <c r="B24" s="94">
-        <v>0</v>
-      </c>
-      <c r="C24" s="72" t="s">
+      <c r="B24" s="91">
+        <v>0</v>
+      </c>
+      <c r="C24" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="76" t="s">
+      <c r="D24" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="E24" s="76" t="s">
+      <c r="E24" s="74" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="72" customFormat="1" ht="17">
-      <c r="A25" s="73" t="s">
+    <row r="25" spans="1:5" s="70" customFormat="1" ht="17">
+      <c r="A25" s="71" t="s">
         <v>391</v>
       </c>
-      <c r="B25" s="94">
+      <c r="B25" s="91">
         <v>100</v>
       </c>
-      <c r="C25" s="72" t="s">
+      <c r="C25" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="76" t="s">
+      <c r="D25" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="E25" s="76" t="s">
+      <c r="E25" s="74" t="s">
         <v>369</v>
       </c>
     </row>
@@ -10137,7 +10229,7 @@
       <c r="B30" s="33" t="s">
         <v>423</v>
       </c>
-      <c r="C30" s="77">
+      <c r="C30" s="75">
         <v>100</v>
       </c>
       <c r="D30" s="30" t="s">

--- a/Template_CoMoCOVID-19App_v17.xlsx
+++ b/Template_CoMoCOVID-19App_v17.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivier/Documents/Projets/CoMo/como/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABF0776F-07E2-5049-95A5-4AAB3995960A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BB4E26E-6E4C-0142-8009-6F88F1967BE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10420" yWindow="640" windowWidth="24880" windowHeight="20680" tabRatio="648" xr2:uid="{25C8D176-4C08-9D40-9B57-F7F8CA55C35B}"/>
+    <workbookView xWindow="5660" yWindow="2400" windowWidth="32740" windowHeight="19200" tabRatio="648" xr2:uid="{25C8D176-4C08-9D40-9B57-F7F8CA55C35B}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
-    <sheet name="Cases" sheetId="2" r:id="rId2"/>
+    <sheet name="Epidemiology" sheetId="2" r:id="rId2"/>
     <sheet name="Severity-Mortality" sheetId="4" r:id="rId3"/>
     <sheet name="Population" sheetId="3" r:id="rId4"/>
     <sheet name="Parameters" sheetId="13" r:id="rId5"/>
@@ -23,7 +23,7 @@
     <sheet name="Hospitalisation Param" sheetId="9" r:id="rId8"/>
     <sheet name="Interventions Param" sheetId="11" r:id="rId9"/>
     <sheet name="Interventions" sheetId="14" r:id="rId10"/>
-    <sheet name="HIDDEN" sheetId="12" r:id="rId11"/>
+    <sheet name="HIDDEN" sheetId="12" state="hidden" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Interventions Param'!$A$1:$F$31</definedName>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="484">
   <si>
     <t>5-10 y.o.</t>
   </si>
@@ -2627,9 +2627,6 @@
     <t>1-5; 21</t>
   </si>
   <si>
-    <t>1-3; 8; 19-21</t>
-  </si>
-  <si>
     <t>Age Groups</t>
   </si>
   <si>
@@ -2980,6 +2977,12 @@
     </r>
   </si>
   <si>
+    <t>1-4</t>
+  </si>
+  <si>
+    <t>Seroprevalence (e.g. 12.3 for 12.3%)</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -2991,16 +2994,60 @@
     <r>
       <rPr>
         <sz val="12"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> Average sample size for seroprevalence</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Renamed </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Sample Size</t>
-    </r>
-  </si>
-  <si>
-    <t>(a)</t>
+      <t>Cases</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> sheet in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Epidemiology</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Added a column for Seroprevalence survey data.</t>
+    </r>
+  </si>
+  <si>
+    <t>v17.b</t>
   </si>
 </sst>
 </file>
@@ -3010,9 +3057,9 @@
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="17">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3114,6 +3161,15 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
     </font>
   </fonts>
   <fills count="10">
@@ -3265,7 +3321,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -3475,29 +3531,20 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="5">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -3542,6 +3589,16 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -3556,14 +3613,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DB0B0E91-77B9-BF40-854E-551FE7298B58}" name="Table2" displayName="Table2" ref="E1:F15" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DB0B0E91-77B9-BF40-854E-551FE7298B58}" name="Table2" displayName="Table2" ref="E1:F15" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
   <autoFilter ref="E1:F15" xr:uid="{2E89BE7F-E667-6946-928D-DC5AB4119A65}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E2:F8">
     <sortCondition ref="E1:E8"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{1DFAD25E-CC0B-354F-8701-442A29A91782}" name="Intervention" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{D399EFFD-3A23-4943-B9C5-CF90FE06EA91}" name="Unit Intervention" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{1DFAD25E-CC0B-354F-8701-442A29A91782}" name="Intervention" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{D399EFFD-3A23-4943-B9C5-CF90FE06EA91}" name="Unit Intervention" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3866,7 +3923,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0E13D8F-D093-7849-84D5-273B640F7707}">
-  <dimension ref="A1:F63"/>
+  <dimension ref="A1:F64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -3882,7 +3939,7 @@
         <v>438</v>
       </c>
       <c r="B1" s="95" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="21">
@@ -3912,7 +3969,7 @@
     </row>
     <row r="8" spans="1:6" ht="89" customHeight="1">
       <c r="A8" s="38" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3920,93 +3977,93 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="94" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F15" s="40"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="94" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F16" s="40"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="94" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F17" s="40"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="94" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F18" s="40"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="94" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F19" s="40"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="94" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F20" s="40"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="94" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F21" s="40"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="94" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F22" s="40"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="94" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F23" s="40"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="94" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F24" s="40"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="94" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F25" s="40"/>
     </row>
     <row r="26" spans="1:6" s="39" customFormat="1">
       <c r="A26" s="94" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B26"/>
       <c r="D26"/>
@@ -4014,171 +4071,176 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="94" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F27" s="40"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="94" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F28" s="40"/>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="94" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F29" s="40"/>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="94" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F30" s="40"/>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="94" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F31" s="40"/>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="94" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F32" s="40"/>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="94" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F33" s="40"/>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="94" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F34" s="40"/>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="94" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F35" s="40"/>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="78" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="34">
       <c r="A38" s="86" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="34">
       <c r="A39" s="87" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="34">
       <c r="A40" s="87" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="17">
       <c r="A41" s="87" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="78"/>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="81" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="17">
+      <c r="A42" s="87" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="78"/>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="81" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="34">
-      <c r="A45" s="38" t="s">
+    <row r="46" spans="1:6" ht="34">
+      <c r="A46" s="38" t="s">
         <v>431</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="17">
-      <c r="A46" s="38" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="17">
       <c r="A47" s="38" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="17">
       <c r="A48" s="38" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="17">
+      <c r="A49" s="38" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="34">
-      <c r="A49" s="38" t="s">
+    <row r="50" spans="1:1" ht="34">
+      <c r="A50" s="38" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
-      <c r="A51" s="76" t="s">
+    <row r="52" spans="1:1">
+      <c r="A52" s="76" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
-      <c r="A52" s="40" t="s">
+    <row r="53" spans="1:1">
+      <c r="A53" s="40" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
-      <c r="A54" s="77" t="s">
+    <row r="55" spans="1:1">
+      <c r="A55" s="77" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
-      <c r="A55" t="s">
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
         <v>307</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" ht="34">
-      <c r="A56" s="38" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="34">
       <c r="A57" s="38" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" ht="34">
+      <c r="A58" s="38" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="68">
-      <c r="A58" s="38" t="s">
+    <row r="59" spans="1:1" ht="68">
+      <c r="A59" s="38" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
-      <c r="A59" s="38"/>
-    </row>
     <row r="60" spans="1:1">
-      <c r="A60" s="77" t="s">
+      <c r="A60" s="38"/>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="77" t="s">
         <v>433</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" t="s">
         <v>300</v>
       </c>
     </row>
@@ -4195,7 +4257,7 @@
   <dimension ref="A1:G100"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -4227,7 +4289,7 @@
         <v>33</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>270</v>
@@ -4493,7 +4555,7 @@
         <v>thousand tests</v>
       </c>
       <c r="F13" s="84" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>278</v>
@@ -4517,7 +4579,7 @@
         <v>%</v>
       </c>
       <c r="F14" s="84" t="s">
-        <v>441</v>
+        <v>479</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>278</v>
@@ -5579,7 +5641,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F2:F100">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula>NOT(OR($A2 = "Vaccination", $A2 = "School Closures",  $A2 = "Mass Testing"))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6510,17 +6572,21 @@
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:C105"/>
+  <dimension ref="A1:D105"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="3" width="11" style="1"/>
-    <col min="4" max="16384" width="11" style="8"/>
+    <col min="4" max="4" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="11" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="68">
+    <row r="1" spans="1:4" ht="68">
       <c r="A1" s="9" t="s">
         <v>280</v>
       </c>
@@ -6530,8 +6596,11 @@
       <c r="C1" s="10" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="10" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="7">
         <v>43830</v>
       </c>
@@ -6542,7 +6611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" s="7">
         <v>43831</v>
       </c>
@@ -6553,7 +6622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4" s="7">
         <v>43832</v>
       </c>
@@ -6564,7 +6633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="A5" s="7">
         <v>43833</v>
       </c>
@@ -6575,7 +6644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4">
       <c r="A6" s="7">
         <v>43834</v>
       </c>
@@ -6586,7 +6655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:4">
       <c r="A7" s="7">
         <v>43835</v>
       </c>
@@ -6597,7 +6666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:4">
       <c r="A8" s="7">
         <v>43836</v>
       </c>
@@ -6608,7 +6677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:4">
       <c r="A9" s="7">
         <v>43837</v>
       </c>
@@ -6619,7 +6688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:4">
       <c r="A10" s="7">
         <v>43838</v>
       </c>
@@ -6630,7 +6699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:4">
       <c r="A11" s="7">
         <v>43839</v>
       </c>
@@ -6641,7 +6710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:4">
       <c r="A12" s="7">
         <v>43840</v>
       </c>
@@ -6652,7 +6721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:4">
       <c r="A13" s="7">
         <v>43841</v>
       </c>
@@ -6663,7 +6732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:4">
       <c r="A14" s="7">
         <v>43842</v>
       </c>
@@ -6674,7 +6743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:4">
       <c r="A15" s="7">
         <v>43843</v>
       </c>
@@ -6685,7 +6754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:4">
       <c r="A16" s="7">
         <v>43844</v>
       </c>
@@ -7651,7 +7720,9 @@
   </sheetPr>
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
@@ -7674,7 +7745,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="8" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B2" s="78">
         <v>1.6000000000000001E-3</v>
@@ -7922,7 +7993,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A22"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -7951,7 +8022,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="8" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B2" s="79">
         <v>3924000</v>
@@ -8263,8 +8334,8 @@
   </sheetPr>
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView topLeftCell="A9" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -8332,14 +8403,14 @@
     </row>
     <row r="4" spans="1:6" ht="17">
       <c r="A4" s="63" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B4" s="66"/>
       <c r="C4" s="85">
         <v>10</v>
       </c>
       <c r="D4" s="60" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E4" s="59" t="s">
         <v>23</v>
@@ -8438,7 +8509,7 @@
     </row>
     <row r="10" spans="1:6" ht="17">
       <c r="A10" s="63" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B10" s="60"/>
       <c r="C10" s="62">
@@ -8685,8 +8756,8 @@
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="8" t="s">
-        <v>480</v>
+      <c r="A24" s="96" t="s">
+        <v>481</v>
       </c>
       <c r="C24" s="92">
         <v>5000</v>
@@ -8695,7 +8766,7 @@
         <v>23</v>
       </c>
       <c r="F24" s="65" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
   </sheetData>
@@ -8862,7 +8933,7 @@
   </sheetPr>
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A12" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>

--- a/Template_CoMoCOVID-19App_v17.xlsx
+++ b/Template_CoMoCOVID-19App_v17.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivier/Documents/Projets/CoMo/como/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BB4E26E-6E4C-0142-8009-6F88F1967BE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B162C87-E621-384C-A188-6A2C4C7C1A36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5660" yWindow="2400" windowWidth="32740" windowHeight="19200" tabRatio="648" xr2:uid="{25C8D176-4C08-9D40-9B57-F7F8CA55C35B}"/>
+    <workbookView xWindow="5880" yWindow="500" windowWidth="22280" windowHeight="17500" tabRatio="648" xr2:uid="{25C8D176-4C08-9D40-9B57-F7F8CA55C35B}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -3047,7 +3047,7 @@
     </r>
   </si>
   <si>
-    <t>v17.b</t>
+    <t>v17.c</t>
   </si>
 </sst>
 </file>
@@ -7721,14 +7721,14 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="12.1640625" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.83203125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="15.5" style="8" customWidth="1"/>
+    <col min="3" max="3" width="15" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="11" style="8"/>
   </cols>
   <sheetData>
@@ -7748,10 +7748,10 @@
         <v>475</v>
       </c>
       <c r="B2" s="78">
-        <v>1.6000000000000001E-3</v>
+        <v>0.1</v>
       </c>
       <c r="C2" s="78">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -7759,10 +7759,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="78">
-        <v>1.6000000000000001E-3</v>
+        <v>0.1</v>
       </c>
       <c r="C3" s="78">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -7770,10 +7770,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="78">
-        <v>7.0000000000000001E-3</v>
+        <v>0.1</v>
       </c>
       <c r="C4" s="78">
-        <v>0.04</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -7781,10 +7781,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="78">
-        <v>7.0000000000000001E-3</v>
+        <v>0.1</v>
       </c>
       <c r="C5" s="78">
-        <v>0.04</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -7792,7 +7792,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="78">
-        <v>3.1E-2</v>
+        <v>0.5</v>
       </c>
       <c r="C6" s="78">
         <v>1.1000000000000001</v>
@@ -7803,7 +7803,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="78">
-        <v>3.1E-2</v>
+        <v>0.5</v>
       </c>
       <c r="C7" s="78">
         <v>1.1000000000000001</v>
@@ -7814,10 +7814,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="78">
-        <v>0.26</v>
+        <v>1.0999999999999999</v>
       </c>
       <c r="C8" s="78">
-        <v>3.43</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -7825,10 +7825,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="78">
-        <v>0.26</v>
+        <v>1.0999999999999999</v>
       </c>
       <c r="C9" s="78">
-        <v>3.43</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -7836,10 +7836,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="78">
-        <v>0.48</v>
+        <v>1.4000000000000001</v>
       </c>
       <c r="C10" s="78">
-        <v>4.25</v>
+        <v>3.3000000000000003</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -7847,10 +7847,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="78">
-        <v>0.48</v>
+        <v>1.4000000000000001</v>
       </c>
       <c r="C11" s="78">
-        <v>4.25</v>
+        <v>3.3000000000000003</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -7858,10 +7858,10 @@
         <v>9</v>
       </c>
       <c r="B12" s="78">
-        <v>0.6</v>
+        <v>2.9000000000000004</v>
       </c>
       <c r="C12" s="78">
-        <v>8.1999999999999993</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -7869,10 +7869,10 @@
         <v>10</v>
       </c>
       <c r="B13" s="78">
-        <v>0.6</v>
+        <v>2.9000000000000004</v>
       </c>
       <c r="C13" s="78">
-        <v>8.1999999999999993</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -7880,10 +7880,10 @@
         <v>11</v>
       </c>
       <c r="B14" s="78">
-        <v>1.9</v>
+        <v>5.8000000000000007</v>
       </c>
       <c r="C14" s="78">
-        <v>11.8</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -7891,10 +7891,10 @@
         <v>12</v>
       </c>
       <c r="B15" s="78">
-        <v>1.9</v>
+        <v>5.8000000000000007</v>
       </c>
       <c r="C15" s="78">
-        <v>11.8</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -7902,10 +7902,10 @@
         <v>13</v>
       </c>
       <c r="B16" s="78">
-        <v>4.3</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="C16" s="78">
-        <v>16.600000000000001</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -7913,10 +7913,10 @@
         <v>14</v>
       </c>
       <c r="B17" s="78">
-        <v>4.3</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="C17" s="78">
-        <v>16.600000000000001</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -7924,10 +7924,10 @@
         <v>15</v>
       </c>
       <c r="B18" s="78">
-        <v>7.8</v>
+        <v>26.200000000000003</v>
       </c>
       <c r="C18" s="78">
-        <v>18.399999999999999</v>
+        <v>31.6</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -7935,10 +7935,10 @@
         <v>16</v>
       </c>
       <c r="B19" s="78">
-        <v>7.8</v>
+        <v>26.200000000000003</v>
       </c>
       <c r="C19" s="78">
-        <v>18.399999999999999</v>
+        <v>31.6</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -7946,10 +7946,10 @@
         <v>17</v>
       </c>
       <c r="B20" s="78">
-        <v>7.8</v>
+        <v>26.200000000000003</v>
       </c>
       <c r="C20" s="78">
-        <v>18.399999999999999</v>
+        <v>31.6</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -7957,10 +7957,10 @@
         <v>18</v>
       </c>
       <c r="B21" s="78">
-        <v>7.8</v>
+        <v>26.200000000000003</v>
       </c>
       <c r="C21" s="78">
-        <v>18.399999999999999</v>
+        <v>31.6</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -7968,10 +7968,10 @@
         <v>19</v>
       </c>
       <c r="B22" s="78">
-        <v>7.8</v>
+        <v>26.200000000000003</v>
       </c>
       <c r="C22" s="78">
-        <v>18.399999999999999</v>
+        <v>31.6</v>
       </c>
     </row>
   </sheetData>

--- a/Template_CoMoCOVID-19App_v17.xlsx
+++ b/Template_CoMoCOVID-19App_v17.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivier/Documents/Projets/CoMo/como/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B162C87-E621-384C-A188-6A2C4C7C1A36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12EFA703-5080-CB49-BA76-16F1144198C6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5880" yWindow="500" windowWidth="22280" windowHeight="17500" tabRatio="648" xr2:uid="{25C8D176-4C08-9D40-9B57-F7F8CA55C35B}"/>
+    <workbookView xWindow="5920" yWindow="500" windowWidth="20360" windowHeight="17500" tabRatio="648" activeTab="4" xr2:uid="{25C8D176-4C08-9D40-9B57-F7F8CA55C35B}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -3047,7 +3047,7 @@
     </r>
   </si>
   <si>
-    <t>v17.c</t>
+    <t>v17.d</t>
   </si>
 </sst>
 </file>
@@ -3055,9 +3055,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
   <fonts count="17">
     <font>
@@ -3319,7 +3319,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3389,7 +3389,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3495,7 +3495,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -3528,10 +3528,10 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -3925,7 +3925,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0E13D8F-D093-7849-84D5-273B640F7707}">
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -6575,8 +6575,8 @@
   <dimension ref="A1:D105"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D92" sqref="D92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -7293,7 +7293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:4">
       <c r="A65" s="7">
         <v>43893</v>
       </c>
@@ -7304,7 +7304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:4">
       <c r="A66" s="7">
         <v>43894</v>
       </c>
@@ -7315,7 +7315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:4">
       <c r="A67" s="7">
         <v>43895</v>
       </c>
@@ -7326,7 +7326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:4">
       <c r="A68" s="7">
         <v>43896</v>
       </c>
@@ -7337,7 +7337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:4">
       <c r="A69" s="7">
         <v>43897</v>
       </c>
@@ -7348,7 +7348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:4">
       <c r="A70" s="7">
         <v>43898</v>
       </c>
@@ -7359,7 +7359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:4">
       <c r="A71" s="7">
         <v>43899</v>
       </c>
@@ -7370,7 +7370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:4">
       <c r="A72" s="7">
         <v>43900</v>
       </c>
@@ -7381,7 +7381,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:4">
       <c r="A73" s="7">
         <v>43901</v>
       </c>
@@ -7392,7 +7392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:4">
       <c r="A74" s="7">
         <v>43902</v>
       </c>
@@ -7403,7 +7403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:4">
       <c r="A75" s="7">
         <v>43903</v>
       </c>
@@ -7414,7 +7414,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:4">
       <c r="A76" s="7">
         <v>43904</v>
       </c>
@@ -7425,7 +7425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:4">
       <c r="A77" s="7">
         <v>43905</v>
       </c>
@@ -7435,8 +7435,11 @@
       <c r="C77" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="78" spans="1:3">
+      <c r="D77" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="7">
         <v>43906</v>
       </c>
@@ -7447,7 +7450,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:4">
       <c r="A79" s="7">
         <v>43907</v>
       </c>
@@ -7458,7 +7461,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:4">
       <c r="A80" s="7">
         <v>43908</v>
       </c>
@@ -7469,7 +7472,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:4">
       <c r="A81" s="7">
         <v>43909</v>
       </c>
@@ -7480,7 +7483,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:4">
       <c r="A82" s="7">
         <v>43910</v>
       </c>
@@ -7490,8 +7493,11 @@
       <c r="C82" s="1">
         <v>41</v>
       </c>
-    </row>
-    <row r="83" spans="1:3">
+      <c r="D82" s="1">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="7">
         <v>43911</v>
       </c>
@@ -7502,7 +7508,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:4">
       <c r="A84" s="7">
         <v>43912</v>
       </c>
@@ -7513,7 +7519,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:4">
       <c r="A85" s="7">
         <v>43913</v>
       </c>
@@ -7524,7 +7530,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:4">
       <c r="A86" s="7">
         <v>43914</v>
       </c>
@@ -7535,7 +7541,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:4">
       <c r="A87" s="7">
         <v>43915</v>
       </c>
@@ -7545,8 +7551,11 @@
       <c r="C87" s="1">
         <v>87</v>
       </c>
-    </row>
-    <row r="88" spans="1:3">
+      <c r="D87" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="7">
         <v>43916</v>
       </c>
@@ -7557,7 +7566,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:4">
       <c r="A89" s="7">
         <v>43917</v>
       </c>
@@ -7568,7 +7577,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:4">
       <c r="A90" s="7">
         <v>43918</v>
       </c>
@@ -7579,7 +7588,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:4">
       <c r="A91" s="7">
         <v>43919</v>
       </c>
@@ -7590,7 +7599,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:4">
       <c r="A92" s="7">
         <v>43920</v>
       </c>
@@ -7600,8 +7609,11 @@
       <c r="C92" s="1">
         <v>209</v>
       </c>
-    </row>
-    <row r="93" spans="1:3">
+      <c r="D92" s="1">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="7">
         <v>43921</v>
       </c>
@@ -7612,7 +7624,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:4">
       <c r="A94" s="7">
         <v>43922</v>
       </c>
@@ -7623,7 +7635,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:4">
       <c r="A95" s="7">
         <v>43923</v>
       </c>
@@ -7634,7 +7646,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:4">
       <c r="A96" s="7">
         <v>43924</v>
       </c>
@@ -8334,7 +8346,7 @@
   </sheetPr>
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
@@ -8760,7 +8772,7 @@
         <v>481</v>
       </c>
       <c r="C24" s="92">
-        <v>5000</v>
+        <v>100</v>
       </c>
       <c r="E24" s="65" t="s">
         <v>23</v>
@@ -8933,7 +8945,7 @@
   </sheetPr>
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>

--- a/Template_CoMoCOVID-19App_v17.xlsx
+++ b/Template_CoMoCOVID-19App_v17.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ricardo\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E1ADBFA-C958-4BAF-976B-96B72300FD47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="17850" tabRatio="648" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="648" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -17,12 +23,23 @@
     <sheet name="Hospitalisation Param" sheetId="9" r:id="rId8"/>
     <sheet name="Interventions Param" sheetId="11" r:id="rId9"/>
     <sheet name="Interventions" sheetId="14" r:id="rId10"/>
-    <sheet name="HIDDEN" sheetId="12" state="hidden" r:id="rId11"/>
+    <sheet name="Sheet1" sheetId="15" r:id="rId11"/>
+    <sheet name="HIDDEN" sheetId="12" state="hidden" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Interventions Param'!$A$1:$F$31</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1997,6 +2014,15 @@
     <t>sigmaR</t>
   </si>
   <si>
+    <t>sigmaEV</t>
+  </si>
+  <si>
+    <t>sigmaER</t>
+  </si>
+  <si>
+    <t>sigmaEVR</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -2013,21 +2039,164 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Change in probability of requiring hospitalisation if previously </t>
+      <t xml:space="preserve"> Days from seropositve to seronegative </t>
+    </r>
+  </si>
+  <si>
+    <t>seroneg</t>
+  </si>
+  <si>
+    <t>Maximum number of hospital surge beds</t>
+  </si>
+  <si>
+    <t>beds</t>
+  </si>
+  <si>
+    <t>beds_available</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Maximum number of ICU beds </t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="12"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>vaccinated</t>
-    </r>
-  </si>
-  <si>
-    <t>sigmaEV</t>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>without</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ventilators</t>
+    </r>
+  </si>
+  <si>
+    <t>icu_beds_available</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Maximum number of ICU beds </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>with</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ventilators</t>
+    </r>
+  </si>
+  <si>
+    <t>ventilators_available</t>
+  </si>
+  <si>
+    <t>Relative percentage of regular daily contacts when hospitalised:</t>
+  </si>
+  <si>
+    <t>rhos</t>
+  </si>
+  <si>
+    <t>Scaling factor for infection hospitalisation rate: (0.1 to 5)</t>
+  </si>
+  <si>
+    <t>ihr_scaling</t>
+  </si>
+  <si>
+    <t>Probability of dying when hospitalised (not req O2):</t>
+  </si>
+  <si>
+    <t>pdeath_h</t>
+  </si>
+  <si>
+    <t>Probability of dying when hospitalised if req O2:</t>
+  </si>
+  <si>
+    <t>pdeath_ho</t>
+  </si>
+  <si>
+    <t>Probability of dying when denied hospitalisation (not req O2):</t>
+  </si>
+  <si>
+    <t>pdeath_hc</t>
+  </si>
+  <si>
+    <t>Probability of dying when denied hospitalisation if req O2:</t>
+  </si>
+  <si>
+    <t>pdeath_hco</t>
+  </si>
+  <si>
+    <t>Probability of dying when admitted to ICU (not req O2):</t>
+  </si>
+  <si>
+    <t>pdeath_icu</t>
+  </si>
+  <si>
+    <t>Probability of dying when admitted to ICU if req O2:</t>
+  </si>
+  <si>
+    <t>pdeath_icuo</t>
+  </si>
+  <si>
+    <t>Probability of dying when admission to ICU denied (not req O2):</t>
+  </si>
+  <si>
+    <t>pdeath_icuc</t>
+  </si>
+  <si>
+    <t>Probability of dying when admission to ICU denied if req O2:</t>
+  </si>
+  <si>
+    <t>pdeath_icuco</t>
+  </si>
+  <si>
+    <t>Probability of dying when ventilated:</t>
+  </si>
+  <si>
+    <t>pdeath_vent</t>
+  </si>
+  <si>
+    <t>Probability of dying when ventilator denied:</t>
+  </si>
+  <si>
+    <t>pdeath_ventc</t>
   </si>
   <si>
     <r>
@@ -2042,25 +2211,16 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Change in probability of requiring hospitalisation if previously </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>infected</t>
-    </r>
-  </si>
-  <si>
-    <t>sigmaER</t>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Probability of dying when ventilator required and not going to hospital:</t>
+    </r>
+  </si>
+  <si>
+    <t>pdeath_vent_hc</t>
   </si>
   <si>
     <r>
@@ -2070,30 +2230,21 @@
         <rFont val="Calibri (Body)_x0000_"/>
         <charset val="134"/>
       </rPr>
-      <t>(v16.2)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Change in probability of requiring hospitalisation if previously</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> infected and vaccinated</t>
-    </r>
-  </si>
-  <si>
-    <t>sigmaEVR</t>
+      <t xml:space="preserve">(v16.2) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Probability of dying when icu required (not O2) and not going to hospital:</t>
+    </r>
+  </si>
+  <si>
+    <t>pdeath_icu_hc</t>
   </si>
   <si>
     <r>
@@ -2108,168 +2259,166 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Days from seropositve to seronegative </t>
-    </r>
-  </si>
-  <si>
-    <t>seroneg</t>
-  </si>
-  <si>
-    <t>Maximum number of hospital surge beds</t>
-  </si>
-  <si>
-    <t>beds</t>
-  </si>
-  <si>
-    <t>beds_available</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Maximum number of ICU beds </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>without</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ventilators</t>
-    </r>
-  </si>
-  <si>
-    <t>icu_beds_available</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Maximum number of ICU beds </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>with</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ventilators</t>
-    </r>
-  </si>
-  <si>
-    <t>ventilators_available</t>
-  </si>
-  <si>
-    <t>Relative percentage of regular daily contacts when hospitalised:</t>
-  </si>
-  <si>
-    <t>rhos</t>
-  </si>
-  <si>
-    <t>Scaling factor for infection hospitalisation rate: (0.1 to 5)</t>
-  </si>
-  <si>
-    <t>ihr_scaling</t>
-  </si>
-  <si>
-    <t>Probability of dying when hospitalised (not req O2):</t>
-  </si>
-  <si>
-    <t>pdeath_h</t>
-  </si>
-  <si>
-    <t>Probability of dying when hospitalised if req O2:</t>
-  </si>
-  <si>
-    <t>pdeath_ho</t>
-  </si>
-  <si>
-    <t>Probability of dying when denied hospitalisation (not req O2):</t>
-  </si>
-  <si>
-    <t>pdeath_hc</t>
-  </si>
-  <si>
-    <t>Probability of dying when denied hospitalisation if req O2:</t>
-  </si>
-  <si>
-    <t>pdeath_hco</t>
-  </si>
-  <si>
-    <t>Probability of dying when admitted to ICU (not req O2):</t>
-  </si>
-  <si>
-    <t>pdeath_icu</t>
-  </si>
-  <si>
-    <t>Probability of dying when admitted to ICU if req O2:</t>
-  </si>
-  <si>
-    <t>pdeath_icuo</t>
-  </si>
-  <si>
-    <t>Probability of dying when admission to ICU denied (not req O2):</t>
-  </si>
-  <si>
-    <t>pdeath_icuc</t>
-  </si>
-  <si>
-    <t>Probability of dying when admission to ICU denied if req O2:</t>
-  </si>
-  <si>
-    <t>pdeath_icuco</t>
-  </si>
-  <si>
-    <t>Probability of dying when ventilated:</t>
-  </si>
-  <si>
-    <t>pdeath_vent</t>
-  </si>
-  <si>
-    <t>Probability of dying when ventilator denied:</t>
-  </si>
-  <si>
-    <t>pdeath_ventc</t>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Probability of dying when icu required (req O2) and not going to hospital:</t>
+    </r>
+  </si>
+  <si>
+    <t>pdeath_icu_hco</t>
+  </si>
+  <si>
+    <t>Duration of hospitalised infection: (1 to 30)</t>
+  </si>
+  <si>
+    <t>nus</t>
+  </si>
+  <si>
+    <t>Duration of ICU infection: (1 to 30)</t>
+  </si>
+  <si>
+    <t>nu_icu</t>
+  </si>
+  <si>
+    <t>Duration of ventilated infection: (1 to 30)</t>
+  </si>
+  <si>
+    <t>nu_vent</t>
+  </si>
+  <si>
+    <t>Label_1</t>
+  </si>
+  <si>
+    <t>Label_2</t>
+  </si>
+  <si>
+    <t>Self-isolation if Symptomatic</t>
+  </si>
+  <si>
+    <t>Adherence:</t>
+  </si>
+  <si>
+    <t>selfis_eff</t>
+  </si>
+  <si>
+    <t>(*Self-isolation) Screening</t>
+  </si>
+  <si>
+    <t>Overdispersion: (1, 2, 3, 4 or 5)</t>
+  </si>
+  <si>
+    <t>screen_overdispersion</t>
+  </si>
+  <si>
+    <t>Test Sensitivity:</t>
+  </si>
+  <si>
+    <t>screen_test_sens</t>
+  </si>
+  <si>
+    <t>(*Self-isolation) Household Isolation</t>
+  </si>
+  <si>
+    <t>Days in isolation for average person:</t>
+  </si>
+  <si>
+    <t>quarantine_days</t>
+  </si>
+  <si>
+    <t>Days to implement maximum quarantine coverage: (1 to 5)</t>
+  </si>
+  <si>
+    <t>quarantine_effort</t>
+  </si>
+  <si>
+    <t>Decrease in the number of other contacts when quarantined:</t>
+  </si>
+  <si>
+    <t>quarantine_eff_other</t>
+  </si>
+  <si>
+    <t>Increase in the number of contacts at home when quarantined:</t>
+  </si>
+  <si>
+    <t>quarantine_eff_home</t>
+  </si>
+  <si>
+    <t>Social Distancing</t>
+  </si>
+  <si>
+    <t>dist_eff</t>
+  </si>
+  <si>
+    <t>Handwashing</t>
+  </si>
+  <si>
+    <t>Efficacy: (0-25%)</t>
+  </si>
+  <si>
+    <t>hand_eff</t>
+  </si>
+  <si>
+    <t>Mask Wearing</t>
+  </si>
+  <si>
+    <t>Efficacy: (0-35%)</t>
+  </si>
+  <si>
+    <t>mask_eff</t>
+  </si>
+  <si>
+    <t>Working at Home</t>
+  </si>
+  <si>
+    <t>Efficacy:</t>
+  </si>
+  <si>
+    <t>work_eff</t>
+  </si>
+  <si>
+    <t>Home contacts inflation due to working from home:</t>
+  </si>
+  <si>
+    <t>w2h</t>
+  </si>
+  <si>
+    <t>School Closures</t>
+  </si>
+  <si>
+    <t>Home contacts inflation due to school closure:</t>
+  </si>
+  <si>
+    <t>s2h</t>
+  </si>
+  <si>
+    <t>Shielding the Elderly</t>
+  </si>
+  <si>
+    <t>cocoon_eff</t>
+  </si>
+  <si>
+    <t>Minimum age for elderly shielding: (0 to 100)</t>
+  </si>
+  <si>
+    <t>y.o.</t>
+  </si>
+  <si>
+    <t>age_cocoon</t>
+  </si>
+  <si>
+    <t>Vaccination</t>
+  </si>
+  <si>
+    <t>Time to reach target coverage (1 to 52)</t>
+  </si>
+  <si>
+    <t>weeks</t>
+  </si>
+  <si>
+    <t>vac_campaign</t>
   </si>
   <si>
     <r>
@@ -2289,11 +2438,11 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Probability of dying when ventilator required and not going to hospital:</t>
-    </r>
-  </si>
-  <si>
-    <t>pdeath_vent_hc</t>
+      <t xml:space="preserve"> Duration of efficacious period</t>
+    </r>
+  </si>
+  <si>
+    <t>vac_dur</t>
   </si>
   <si>
     <r>
@@ -2303,21 +2452,27 @@
         <rFont val="Calibri (Body)_x0000_"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">(v16.2) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Probability of dying when icu required (not O2) and not going to hospital:</t>
-    </r>
-  </si>
-  <si>
-    <t>pdeath_icu_hc</t>
+      <t>(v16.2)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Duration of efficacious period if previously infected</t>
+    </r>
+  </si>
+  <si>
+    <t>vac_dur_r</t>
+  </si>
+  <si>
+    <t>Efficacy</t>
+  </si>
+  <si>
+    <t>vaccine_eff</t>
   </si>
   <si>
     <r>
@@ -2337,161 +2492,563 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Probability of dying when icu required (req O2) and not going to hospital:</t>
-    </r>
-  </si>
-  <si>
-    <t>pdeath_icu_hco</t>
-  </si>
-  <si>
-    <t>Duration of hospitalised infection: (1 to 30)</t>
-  </si>
-  <si>
-    <t>nus</t>
-  </si>
-  <si>
-    <t>Duration of ICU infection: (1 to 30)</t>
-  </si>
-  <si>
-    <t>nu_icu</t>
-  </si>
-  <si>
-    <t>Duration of ventilated infection: (1 to 30)</t>
-  </si>
-  <si>
-    <t>nu_vent</t>
-  </si>
-  <si>
-    <t>Label_1</t>
-  </si>
-  <si>
-    <t>Label_2</t>
-  </si>
-  <si>
-    <t>Self-isolation if Symptomatic</t>
-  </si>
-  <si>
-    <t>Adherence:</t>
-  </si>
-  <si>
-    <t>selfis_eff</t>
-  </si>
-  <si>
-    <t>(*Self-isolation) Screening</t>
-  </si>
-  <si>
-    <t>Overdispersion: (1, 2, 3, 4 or 5)</t>
-  </si>
-  <si>
-    <t>screen_overdispersion</t>
-  </si>
-  <si>
-    <t>Test Sensitivity:</t>
-  </si>
-  <si>
-    <t>screen_test_sens</t>
-  </si>
-  <si>
-    <t>(*Self-isolation) Household Isolation</t>
-  </si>
-  <si>
-    <t>Days in isolation for average person:</t>
-  </si>
-  <si>
-    <t>quarantine_days</t>
-  </si>
-  <si>
-    <t>Days to implement maximum quarantine coverage: (1 to 5)</t>
-  </si>
-  <si>
-    <t>quarantine_effort</t>
-  </si>
-  <si>
-    <t>Decrease in the number of other contacts when quarantined:</t>
-  </si>
-  <si>
-    <t>quarantine_eff_other</t>
-  </si>
-  <si>
-    <t>Increase in the number of contacts at home when quarantined:</t>
-  </si>
-  <si>
-    <t>quarantine_eff_home</t>
-  </si>
-  <si>
-    <t>Social Distancing</t>
-  </si>
-  <si>
-    <t>dist_eff</t>
-  </si>
-  <si>
-    <t>Handwashing</t>
-  </si>
-  <si>
-    <t>Efficacy: (0-25%)</t>
-  </si>
-  <si>
-    <t>hand_eff</t>
-  </si>
-  <si>
-    <t>Mask Wearing</t>
-  </si>
-  <si>
-    <t>Efficacy: (0-35%)</t>
-  </si>
-  <si>
-    <t>mask_eff</t>
-  </si>
-  <si>
-    <t>Working at Home</t>
-  </si>
-  <si>
-    <t>Efficacy:</t>
-  </si>
-  <si>
-    <t>work_eff</t>
-  </si>
-  <si>
-    <t>Home contacts inflation due to working from home:</t>
-  </si>
-  <si>
-    <t>w2h</t>
-  </si>
-  <si>
-    <t>School Closures</t>
-  </si>
-  <si>
-    <t>Home contacts inflation due to school closure:</t>
-  </si>
-  <si>
-    <t>s2h</t>
-  </si>
-  <si>
-    <t>Shielding the Elderly</t>
-  </si>
-  <si>
-    <t>cocoon_eff</t>
-  </si>
-  <si>
-    <t>Minimum age for elderly shielding: (0 to 100)</t>
-  </si>
-  <si>
-    <t>y.o.</t>
-  </si>
-  <si>
-    <t>age_cocoon</t>
-  </si>
-  <si>
-    <t>Vaccination</t>
-  </si>
-  <si>
-    <t>Time to reach target coverage (1 to 52)</t>
-  </si>
-  <si>
-    <t>weeks</t>
-  </si>
-  <si>
-    <t>vac_campaign</t>
+      <t xml:space="preserve"> Efficacy if previously infected</t>
+    </r>
+  </si>
+  <si>
+    <t>vaccine_eff_r</t>
+  </si>
+  <si>
+    <t>Mass Testing</t>
+  </si>
+  <si>
+    <t>Sensitivity</t>
+  </si>
+  <si>
+    <t>mass_test_sens</t>
+  </si>
+  <si>
+    <t>Isolation days</t>
+  </si>
+  <si>
+    <t>isolation_days</t>
+  </si>
+  <si>
+    <t>Dexamethasone</t>
+  </si>
+  <si>
+    <t>Relative risk of dying if needing O2 and taking Dex</t>
+  </si>
+  <si>
+    <t>dexo2</t>
+  </si>
+  <si>
+    <t>Relative risk of dying if needing ventilation and taking Dex</t>
+  </si>
+  <si>
+    <t>dexv</t>
+  </si>
+  <si>
+    <t>Relative risk of dying if needing  but not receiving O2 and taking Dex</t>
+  </si>
+  <si>
+    <t>dexo2c</t>
+  </si>
+  <si>
+    <t>Relative risk of dying if needing but not receiving ventilation and taking Dex</t>
+  </si>
+  <si>
+    <t>dexvc</t>
+  </si>
+  <si>
+    <t>Change in ventilation requirement if given Dex</t>
+  </si>
+  <si>
+    <t>vent_dex</t>
+  </si>
+  <si>
+    <t>Intervention</t>
+  </si>
+  <si>
+    <t>Date Start</t>
+  </si>
+  <si>
+    <t>Date End</t>
+  </si>
+  <si>
+    <t>Age Groups</t>
+  </si>
+  <si>
+    <t>Apply to</t>
+  </si>
+  <si>
+    <t>Baseline (Calibration)</t>
+  </si>
+  <si>
+    <t>Hypothetical Scenario</t>
+  </si>
+  <si>
+    <t>International Travel Ban</t>
+  </si>
+  <si>
+    <t>1-21</t>
+  </si>
+  <si>
+    <t>1-4</t>
+  </si>
+  <si>
+    <t>1-5; 21</t>
+  </si>
+  <si>
+    <t>Switch</t>
+  </si>
+  <si>
+    <t>Social Contacts</t>
+  </si>
+  <si>
+    <t>Unit Intervention</t>
+  </si>
+  <si>
+    <t>Albania</t>
+  </si>
+  <si>
+    <t>Algeria</t>
+  </si>
+  <si>
+    <t>Andorra</t>
+  </si>
+  <si>
+    <t>Antigua and Barbuda</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>thousand tests</t>
+  </si>
+  <si>
+    <t>Armenia</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Azerbaijan</t>
+  </si>
+  <si>
+    <t>contacts</t>
+  </si>
+  <si>
+    <t>Bahamas</t>
+  </si>
+  <si>
+    <t>Bahrain</t>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+  </si>
+  <si>
+    <t>Belarus</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_ </t>
+  </si>
+  <si>
+    <t>Belize</t>
+  </si>
+  <si>
+    <t>Benin</t>
+  </si>
+  <si>
+    <t>Bhutan</t>
+  </si>
+  <si>
+    <t>Bolivia (Plurinational State of</t>
+  </si>
+  <si>
+    <t>Bosnia and Herzegovina</t>
+  </si>
+  <si>
+    <t>Botswana</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Brunei Darussalam</t>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+  </si>
+  <si>
+    <t>Burkina Faso</t>
+  </si>
+  <si>
+    <t>Cabo Verde</t>
+  </si>
+  <si>
+    <t>Cambodia</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Congo</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>Croatia</t>
+  </si>
+  <si>
+    <t>Cyprus</t>
+  </si>
+  <si>
+    <t>Czech Republic</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Dominican Republic</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>El Salvador</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>Ethiopia</t>
+  </si>
+  <si>
+    <t>Fiji</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Ghana</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>Guatemala</t>
+  </si>
+  <si>
+    <t>Guinea</t>
+  </si>
+  <si>
+    <t>Guyana</t>
+  </si>
+  <si>
+    <t>Haiti</t>
+  </si>
+  <si>
+    <t>Honduras</t>
+  </si>
+  <si>
+    <t>Hong Kong SAR, China</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>Iceland</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Iran (Islamic Republic of)</t>
+  </si>
+  <si>
+    <t>Iraq</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Jamaica</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>Kazakhstan</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>Kiribati</t>
+  </si>
+  <si>
+    <t>Kuwait</t>
+  </si>
+  <si>
+    <t>Kyrgyzstan</t>
+  </si>
+  <si>
+    <t>Lao People's Democratic Republi</t>
+  </si>
+  <si>
+    <t>Latvia</t>
+  </si>
+  <si>
+    <t>Lebanon</t>
+  </si>
+  <si>
+    <t>Lesotho</t>
+  </si>
+  <si>
+    <t>Liberia</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>Maldives</t>
+  </si>
+  <si>
+    <t>Malta</t>
+  </si>
+  <si>
+    <t>Mauritania</t>
+  </si>
+  <si>
+    <t>Mauritius</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Monaco</t>
+  </si>
+  <si>
+    <t>Mongolia</t>
+  </si>
+  <si>
+    <t>Montenegro</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>Mozambique</t>
+  </si>
+  <si>
+    <t>Namibia</t>
+  </si>
+  <si>
+    <t>Nepal</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
+    <t>Niger</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>Oman</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>Republic of Korea</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>Russian Federation</t>
+  </si>
+  <si>
+    <t>Rwanda</t>
+  </si>
+  <si>
+    <t>Saint Lucia</t>
+  </si>
+  <si>
+    <t>Samoa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sao Tome and Principe </t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Senegal</t>
+  </si>
+  <si>
+    <t>Serbia</t>
+  </si>
+  <si>
+    <t>Seychelles</t>
+  </si>
+  <si>
+    <t>Sierra Leone</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>Slovakia</t>
+  </si>
+  <si>
+    <t>Slovenia</t>
+  </si>
+  <si>
+    <t>Solomon Islands</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+  </si>
+  <si>
+    <t>Suriname</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Syrian Arab Republic</t>
+  </si>
+  <si>
+    <t>Taiwan</t>
+  </si>
+  <si>
+    <t>Tajikistan</t>
+  </si>
+  <si>
+    <t>TFYR of Macedonia</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
+    <t>Tonga</t>
+  </si>
+  <si>
+    <t>Tunisia</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Uganda</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>United Arab Emirates</t>
+  </si>
+  <si>
+    <t>United Republic of Tanzania</t>
+  </si>
+  <si>
+    <t>United States of America</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>Uzbekistan</t>
+  </si>
+  <si>
+    <t>Vanuatu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Venezuela (Bolivarian Republic </t>
+  </si>
+  <si>
+    <t>Viet Nam</t>
+  </si>
+  <si>
+    <t>Yemen</t>
+  </si>
+  <si>
+    <t>Zambia</t>
+  </si>
+  <si>
+    <t>Zimbabwe</t>
   </si>
   <si>
     <r>
@@ -2506,16 +3063,22 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Duration of efficacious period</t>
-    </r>
-  </si>
-  <si>
-    <t>vac_dur</t>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Probability of requiring hospitalisation if previously </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>vaccinated</t>
+    </r>
   </si>
   <si>
     <r>
@@ -2530,22 +3093,22 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Duration of efficacious period if previously infected</t>
-    </r>
-  </si>
-  <si>
-    <t>vac_dur_r</t>
-  </si>
-  <si>
-    <t>Efficacy</t>
-  </si>
-  <si>
-    <t>vaccine_eff</t>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Probability of requiring hospitalisation if previously </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>infected</t>
+    </r>
   </si>
   <si>
     <r>
@@ -2560,583 +3123,34 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Efficacy if previously infected</t>
-    </r>
-  </si>
-  <si>
-    <t>vaccine_eff_r</t>
-  </si>
-  <si>
-    <t>Mass Testing</t>
-  </si>
-  <si>
-    <t>Sensitivity</t>
-  </si>
-  <si>
-    <t>mass_test_sens</t>
-  </si>
-  <si>
-    <t>Isolation days</t>
-  </si>
-  <si>
-    <t>isolation_days</t>
-  </si>
-  <si>
-    <t>Dexamethasone</t>
-  </si>
-  <si>
-    <t>Relative risk of dying if needing O2 and taking Dex</t>
-  </si>
-  <si>
-    <t>dexo2</t>
-  </si>
-  <si>
-    <t>Relative risk of dying if needing ventilation and taking Dex</t>
-  </si>
-  <si>
-    <t>dexv</t>
-  </si>
-  <si>
-    <t>Relative risk of dying if needing  but not receiving O2 and taking Dex</t>
-  </si>
-  <si>
-    <t>dexo2c</t>
-  </si>
-  <si>
-    <t>Relative risk of dying if needing but not receiving ventilation and taking Dex</t>
-  </si>
-  <si>
-    <t>dexvc</t>
-  </si>
-  <si>
-    <t>Change in ventilation requirement if given Dex</t>
-  </si>
-  <si>
-    <t>vent_dex</t>
-  </si>
-  <si>
-    <t>Intervention</t>
-  </si>
-  <si>
-    <t>Date Start</t>
-  </si>
-  <si>
-    <t>Date End</t>
-  </si>
-  <si>
-    <t>Age Groups</t>
-  </si>
-  <si>
-    <t>Apply to</t>
-  </si>
-  <si>
-    <t>Baseline (Calibration)</t>
-  </si>
-  <si>
-    <t>Hypothetical Scenario</t>
-  </si>
-  <si>
-    <t>International Travel Ban</t>
-  </si>
-  <si>
-    <t>1-21</t>
-  </si>
-  <si>
-    <t>1-4</t>
-  </si>
-  <si>
-    <t>1-5; 21</t>
-  </si>
-  <si>
-    <t>Switch</t>
-  </si>
-  <si>
-    <t>Social Contacts</t>
-  </si>
-  <si>
-    <t>Unit Intervention</t>
-  </si>
-  <si>
-    <t>Albania</t>
-  </si>
-  <si>
-    <t>Algeria</t>
-  </si>
-  <si>
-    <t>Andorra</t>
-  </si>
-  <si>
-    <t>Antigua and Barbuda</t>
-  </si>
-  <si>
-    <t>Argentina</t>
-  </si>
-  <si>
-    <t>thousand tests</t>
-  </si>
-  <si>
-    <t>Armenia</t>
-  </si>
-  <si>
-    <t>Australia</t>
-  </si>
-  <si>
-    <t>Austria</t>
-  </si>
-  <si>
-    <t>Azerbaijan</t>
-  </si>
-  <si>
-    <t>contacts</t>
-  </si>
-  <si>
-    <t>Bahamas</t>
-  </si>
-  <si>
-    <t>Bahrain</t>
-  </si>
-  <si>
-    <t>Bangladesh</t>
-  </si>
-  <si>
-    <t>Belarus</t>
-  </si>
-  <si>
-    <t>Belgium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_ </t>
-  </si>
-  <si>
-    <t>Belize</t>
-  </si>
-  <si>
-    <t>Benin</t>
-  </si>
-  <si>
-    <t>Bhutan</t>
-  </si>
-  <si>
-    <t>Bolivia (Plurinational State of</t>
-  </si>
-  <si>
-    <t>Bosnia and Herzegovina</t>
-  </si>
-  <si>
-    <t>Botswana</t>
-  </si>
-  <si>
-    <t>Brazil</t>
-  </si>
-  <si>
-    <t>Brunei Darussalam</t>
-  </si>
-  <si>
-    <t>Bulgaria</t>
-  </si>
-  <si>
-    <t>Burkina Faso</t>
-  </si>
-  <si>
-    <t>Cabo Verde</t>
-  </si>
-  <si>
-    <t>Cambodia</t>
-  </si>
-  <si>
-    <t>Cameroon</t>
-  </si>
-  <si>
-    <t>Canada</t>
-  </si>
-  <si>
-    <t>Chile</t>
-  </si>
-  <si>
-    <t>China</t>
-  </si>
-  <si>
-    <t>Colombia</t>
-  </si>
-  <si>
-    <t>Congo</t>
-  </si>
-  <si>
-    <t>Costa Rica</t>
-  </si>
-  <si>
-    <t>Croatia</t>
-  </si>
-  <si>
-    <t>Cyprus</t>
-  </si>
-  <si>
-    <t>Czech Republic</t>
-  </si>
-  <si>
-    <t>Denmark</t>
-  </si>
-  <si>
-    <t>Dominican Republic</t>
-  </si>
-  <si>
-    <t>Ecuador</t>
-  </si>
-  <si>
-    <t>Egypt</t>
-  </si>
-  <si>
-    <t>El Salvador</t>
-  </si>
-  <si>
-    <t>Estonia</t>
-  </si>
-  <si>
-    <t>Ethiopia</t>
-  </si>
-  <si>
-    <t>Fiji</t>
-  </si>
-  <si>
-    <t>Finland</t>
-  </si>
-  <si>
-    <t>France</t>
-  </si>
-  <si>
-    <t>Georgia</t>
-  </si>
-  <si>
-    <t>Germany</t>
-  </si>
-  <si>
-    <t>Ghana</t>
-  </si>
-  <si>
-    <t>Greece</t>
-  </si>
-  <si>
-    <t>Guatemala</t>
-  </si>
-  <si>
-    <t>Guinea</t>
-  </si>
-  <si>
-    <t>Guyana</t>
-  </si>
-  <si>
-    <t>Haiti</t>
-  </si>
-  <si>
-    <t>Honduras</t>
-  </si>
-  <si>
-    <t>Hong Kong SAR, China</t>
-  </si>
-  <si>
-    <t>Hungary</t>
-  </si>
-  <si>
-    <t>Iceland</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>Indonesia</t>
-  </si>
-  <si>
-    <t>Iran (Islamic Republic of)</t>
-  </si>
-  <si>
-    <t>Iraq</t>
-  </si>
-  <si>
-    <t>Ireland</t>
-  </si>
-  <si>
-    <t>Israel</t>
-  </si>
-  <si>
-    <t>Italy</t>
-  </si>
-  <si>
-    <t>Jamaica</t>
-  </si>
-  <si>
-    <t>Japan</t>
-  </si>
-  <si>
-    <t>Jordan</t>
-  </si>
-  <si>
-    <t>Kazakhstan</t>
-  </si>
-  <si>
-    <t>Kenya</t>
-  </si>
-  <si>
-    <t>Kiribati</t>
-  </si>
-  <si>
-    <t>Kuwait</t>
-  </si>
-  <si>
-    <t>Kyrgyzstan</t>
-  </si>
-  <si>
-    <t>Lao People's Democratic Republi</t>
-  </si>
-  <si>
-    <t>Latvia</t>
-  </si>
-  <si>
-    <t>Lebanon</t>
-  </si>
-  <si>
-    <t>Lesotho</t>
-  </si>
-  <si>
-    <t>Liberia</t>
-  </si>
-  <si>
-    <t>Lithuania</t>
-  </si>
-  <si>
-    <t>Luxembourg</t>
-  </si>
-  <si>
-    <t>Malaysia</t>
-  </si>
-  <si>
-    <t>Maldives</t>
-  </si>
-  <si>
-    <t>Malta</t>
-  </si>
-  <si>
-    <t>Mauritania</t>
-  </si>
-  <si>
-    <t>Mauritius</t>
-  </si>
-  <si>
-    <t>Mexico</t>
-  </si>
-  <si>
-    <t>Monaco</t>
-  </si>
-  <si>
-    <t>Mongolia</t>
-  </si>
-  <si>
-    <t>Montenegro</t>
-  </si>
-  <si>
-    <t>Morocco</t>
-  </si>
-  <si>
-    <t>Mozambique</t>
-  </si>
-  <si>
-    <t>Namibia</t>
-  </si>
-  <si>
-    <t>Nepal</t>
-  </si>
-  <si>
-    <t>Netherlands</t>
-  </si>
-  <si>
-    <t>New Zealand</t>
-  </si>
-  <si>
-    <t>Nicaragua</t>
-  </si>
-  <si>
-    <t>Niger</t>
-  </si>
-  <si>
-    <t>Nigeria</t>
-  </si>
-  <si>
-    <t>Oman</t>
-  </si>
-  <si>
-    <t>Pakistan</t>
-  </si>
-  <si>
-    <t>Panama</t>
-  </si>
-  <si>
-    <t>Paraguay</t>
-  </si>
-  <si>
-    <t>Peru</t>
-  </si>
-  <si>
-    <t>Philippines</t>
-  </si>
-  <si>
-    <t>Poland</t>
-  </si>
-  <si>
-    <t>Portugal</t>
-  </si>
-  <si>
-    <t>Qatar</t>
-  </si>
-  <si>
-    <t>Republic of Korea</t>
-  </si>
-  <si>
-    <t>Romania</t>
-  </si>
-  <si>
-    <t>Russian Federation</t>
-  </si>
-  <si>
-    <t>Rwanda</t>
-  </si>
-  <si>
-    <t>Saint Lucia</t>
-  </si>
-  <si>
-    <t>Samoa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sao Tome and Principe </t>
-  </si>
-  <si>
-    <t>Saudi Arabia</t>
-  </si>
-  <si>
-    <t>Senegal</t>
-  </si>
-  <si>
-    <t>Serbia</t>
-  </si>
-  <si>
-    <t>Seychelles</t>
-  </si>
-  <si>
-    <t>Sierra Leone</t>
-  </si>
-  <si>
-    <t>Singapore</t>
-  </si>
-  <si>
-    <t>Slovakia</t>
-  </si>
-  <si>
-    <t>Slovenia</t>
-  </si>
-  <si>
-    <t>Solomon Islands</t>
-  </si>
-  <si>
-    <t>South Africa</t>
-  </si>
-  <si>
-    <t>Spain</t>
-  </si>
-  <si>
-    <t>Sri Lanka</t>
-  </si>
-  <si>
-    <t>Suriname</t>
-  </si>
-  <si>
-    <t>Sweden</t>
-  </si>
-  <si>
-    <t>Switzerland</t>
-  </si>
-  <si>
-    <t>Syrian Arab Republic</t>
-  </si>
-  <si>
-    <t>Taiwan</t>
-  </si>
-  <si>
-    <t>Tajikistan</t>
-  </si>
-  <si>
-    <t>TFYR of Macedonia</t>
-  </si>
-  <si>
-    <t>Thailand</t>
-  </si>
-  <si>
-    <t>Timor-Leste</t>
-  </si>
-  <si>
-    <t>Tonga</t>
-  </si>
-  <si>
-    <t>Tunisia</t>
-  </si>
-  <si>
-    <t>Turkey</t>
-  </si>
-  <si>
-    <t>Uganda</t>
-  </si>
-  <si>
-    <t>Ukraine</t>
-  </si>
-  <si>
-    <t>United Arab Emirates</t>
-  </si>
-  <si>
-    <t>United Republic of Tanzania</t>
-  </si>
-  <si>
-    <t>United States of America</t>
-  </si>
-  <si>
-    <t>Uruguay</t>
-  </si>
-  <si>
-    <t>Uzbekistan</t>
-  </si>
-  <si>
-    <t>Vanuatu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Venezuela (Bolivarian Republic </t>
-  </si>
-  <si>
-    <t>Viet Nam</t>
-  </si>
-  <si>
-    <t>Yemen</t>
-  </si>
-  <si>
-    <t>Zambia</t>
-  </si>
-  <si>
-    <t>Zimbabwe</t>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Probability of requiring hospitalisation if previously</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> infected and vaccinated</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="0.0"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="36">
+  <fonts count="18">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3146,7 +3160,7 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="2" tint="-0.0999786370433668"/>
+      <color theme="2" tint="-9.9978637043366805E-2"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3223,157 +3237,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri (Body)_x0000_"/>
@@ -3397,8 +3260,22 @@
       <name val="Calibri (Body)"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="41">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3413,13 +3290,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.0499893185216834"/>
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149998474074526"/>
+        <fgColor theme="0" tint="-0.14996795556505021"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3443,204 +3320,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -3728,251 +3419,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -3980,7 +3432,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4083,7 +3535,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4098,10 +3550,10 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4117,13 +3569,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -4141,10 +3593,10 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -4157,7 +3609,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -4190,57 +3642,13 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -4273,19 +3681,19 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="E1:F15" totalsRowShown="0">
-  <autoFilter ref="E1:F15"/>
-  <sortState ref="E1:F15">
-    <sortCondition ref="E1:E8"/>
-  </sortState>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="E1:F15" totalsRowShown="0">
+  <autoFilter ref="E1:F15" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Intervention" dataDxfId="1"/>
-    <tableColumn id="2" name="Unit Intervention" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Intervention" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Unit Intervention" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4543,24 +3951,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F64"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="76.6666666666667" customWidth="1"/>
+    <col min="1" max="1" width="76.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:6">
       <c r="A1" s="85" t="s">
         <v>0</v>
       </c>
@@ -4568,55 +3976,55 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="21" spans="1:1">
+    <row r="2" spans="1:6" ht="21">
       <c r="A2" s="87" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:6">
       <c r="A7" s="88" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" ht="89" customHeight="1" spans="1:1">
+    <row r="8" spans="1:6" ht="89.1" customHeight="1">
       <c r="A8" s="89" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:6">
       <c r="A9" s="89"/>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -4687,7 +4095,7 @@
       </c>
       <c r="F25" s="95"/>
     </row>
-    <row r="26" s="84" customFormat="1" spans="1:6">
+    <row r="26" spans="1:6" s="84" customFormat="1">
       <c r="A26" s="90" t="s">
         <v>23</v>
       </c>
@@ -4749,55 +4157,55 @@
       </c>
       <c r="F35" s="95"/>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:6">
       <c r="A37" s="83" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="38" ht="31.5" spans="1:1">
+    <row r="38" spans="1:6" ht="31.5">
       <c r="A38" s="91" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="39" ht="31.5" spans="1:1">
+    <row r="39" spans="1:6" ht="31.5">
       <c r="A39" s="92" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="40" ht="31.5" spans="1:1">
+    <row r="40" spans="1:6" ht="31.5">
       <c r="A40" s="92" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:6">
       <c r="A41" s="92" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:6">
       <c r="A42" s="92" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:6">
       <c r="A43" s="83"/>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:6">
       <c r="A45" s="93" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="46" ht="31.5" spans="1:1">
+    <row r="46" spans="1:6" ht="31.5">
       <c r="A46" s="89" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:6">
       <c r="A47" s="89" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:6">
       <c r="A48" s="89" t="s">
         <v>42</v>
       </c>
@@ -4807,7 +4215,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="50" ht="31.5" spans="1:1">
+    <row r="50" spans="1:1" ht="31.5">
       <c r="A50" s="89" t="s">
         <v>44</v>
       </c>
@@ -4832,17 +4240,17 @@
         <v>48</v>
       </c>
     </row>
-    <row r="57" ht="31.5" spans="1:1">
+    <row r="57" spans="1:1" ht="31.5">
       <c r="A57" s="89" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="58" ht="31.5" spans="1:1">
+    <row r="58" spans="1:1" ht="31.5">
       <c r="A58" s="89" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="59" ht="63" spans="1:1">
+    <row r="59" spans="1:1" ht="63">
       <c r="A59" s="89" t="s">
         <v>51</v>
       </c>
@@ -4872,12 +4280,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -4887,27 +4294,27 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="15.75" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="31.3333333333333" style="1" customWidth="1"/>
+    <col min="1" max="1" width="31.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.8333333333333" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.66666666666667" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.1666666666667" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.125" style="1" customWidth="1"/>
     <col min="6" max="6" width="21" style="1" customWidth="1"/>
-    <col min="7" max="7" width="24.1666666666667" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.8333333333333" style="1"/>
+    <col min="7" max="7" width="24.125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>89</v>
@@ -4916,15 +4323,15 @@
         <v>90</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="4" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B2" s="5">
         <v>43876</v>
@@ -4941,12 +4348,12 @@
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="4" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B3" s="5">
         <v>43876</v>
@@ -4963,12 +4370,12 @@
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="4" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="4" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B4" s="5">
         <v>43937</v>
@@ -4985,12 +4392,12 @@
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="4" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="4" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B5" s="5">
         <v>43876</v>
@@ -5007,12 +4414,12 @@
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="4" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="4" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B6" s="5">
         <v>43876</v>
@@ -5029,12 +4436,12 @@
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="4" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="4" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B7" s="5">
         <v>43937</v>
@@ -5051,12 +4458,12 @@
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="4" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B8" s="5">
         <v>43876</v>
@@ -5073,12 +4480,12 @@
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="4" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="4" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B9" s="5">
         <v>43876</v>
@@ -5095,12 +4502,12 @@
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="4" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="4" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B10" s="5">
         <v>43876</v>
@@ -5117,12 +4524,12 @@
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="4" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="4" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B11" s="5">
         <v>43876</v>
@@ -5139,12 +4546,12 @@
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="4" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="4" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B12" s="5">
         <v>43866</v>
@@ -5161,12 +4568,12 @@
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="4" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="4" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B13" s="5">
         <v>43891</v>
@@ -5182,15 +4589,15 @@
         <v>thousand tests</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="4" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B14" s="5">
         <v>43891</v>
@@ -5206,15 +4613,15 @@
         <v>%</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B15" s="5">
         <v>43941</v>
@@ -5231,12 +4638,12 @@
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="4" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="4" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B16" s="5">
         <v>43983</v>
@@ -5252,10 +4659,10 @@
         <v>%</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -6272,55 +5679,77 @@
       <formula>NOT(OR($A2="Vaccination",$A2="School Closures",$A2="Mass Testing"))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G100">
-      <formula1>HIDDEN!$I$2:$I$3</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D100">
+  <dataValidations count="1">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D100" xr:uid="{00000000-0002-0000-0900-000001000000}">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A100">
-      <formula1>HIDDEN!$E$2:$E$15</formula1>
-    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0900-000000000000}">
+          <x14:formula1>
+            <xm:f>HIDDEN!$I$2:$I$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>G2:G100</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0900-000002000000}">
+          <x14:formula1>
+            <xm:f>HIDDEN!$E$2:$E$15</xm:f>
+          </x14:formula1>
+          <xm:sqref>A2:A100</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BFDEC0F-0A74-40CC-B3E8-C7CE9088CA9F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:I153"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="4" width="10.8333333333333" style="1"/>
-    <col min="5" max="5" width="39.8333333333333" style="1" customWidth="1"/>
+    <col min="1" max="4" width="10.875" style="1"/>
+    <col min="5" max="5" width="39.875" style="1" customWidth="1"/>
     <col min="6" max="6" width="18" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.8333333333333" style="1"/>
+    <col min="7" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -6328,16 +5757,16 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>103</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -6345,780 +5774,780 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>103</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="4" spans="3:6">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="C4" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="3:6">
+    <row r="5" spans="1:9">
       <c r="C5" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="3:6">
+    <row r="6" spans="1:9">
       <c r="C6" s="1" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="7" spans="3:6">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="C7" s="1" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="8" spans="3:6">
+    <row r="8" spans="1:9">
       <c r="C8" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="9" spans="3:6">
+    <row r="9" spans="1:9">
       <c r="C9" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="10" spans="3:6">
+    <row r="10" spans="1:9">
       <c r="C10" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="11" spans="3:6">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="C11" s="1" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="3:6">
+    <row r="12" spans="1:9">
       <c r="C12" s="1" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="13" spans="3:6">
+    <row r="13" spans="1:9">
       <c r="C13" s="1" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="14" spans="3:6">
+    <row r="14" spans="1:9">
       <c r="C14" s="1" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="15" spans="3:6">
+    <row r="15" spans="1:9">
       <c r="C15" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="16" spans="3:3">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="C16" s="1" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="17" spans="3:3">
       <c r="C17" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="18" spans="3:3">
       <c r="C18" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" s="1" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="22" spans="3:3">
       <c r="C22" s="1" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="23" spans="3:3">
       <c r="C23" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="26" spans="3:3">
       <c r="C26" s="1" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="28" spans="3:3">
       <c r="C28" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="29" spans="3:3">
       <c r="C29" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="30" spans="3:3">
       <c r="C30" s="1" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" s="1" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" s="1" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" s="1" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" s="1" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" s="1" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" s="1" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" s="1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" s="1" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" s="1" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="45" spans="3:3">
       <c r="C45" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" s="1" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" s="1" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" s="1" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" s="1" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="51" spans="3:3">
       <c r="C51" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" s="1" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" s="1" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" s="1" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" s="1" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" s="1" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" s="1" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" s="1" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="59" spans="3:3">
       <c r="C59" s="1" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="60" spans="3:3">
       <c r="C60" s="1" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" s="1" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" s="1" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" s="1" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" s="1" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="65" spans="3:3">
       <c r="C65" s="1" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="66" spans="3:3">
       <c r="C66" s="1" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="67" spans="3:3">
       <c r="C67" s="1" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="68" spans="3:3">
       <c r="C68" s="1" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="69" spans="3:3">
       <c r="C69" s="1" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="70" spans="3:3">
       <c r="C70" s="1" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="71" spans="3:3">
       <c r="C71" s="1" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="72" spans="3:3">
       <c r="C72" s="1" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="73" spans="3:3">
       <c r="C73" s="1" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="74" spans="3:3">
       <c r="C74" s="1" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="75" spans="3:3">
       <c r="C75" s="1" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="76" spans="3:3">
       <c r="C76" s="1" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="77" spans="3:3">
       <c r="C77" s="1" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="78" spans="3:3">
       <c r="C78" s="1" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="79" spans="3:3">
       <c r="C79" s="1" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="80" spans="3:3">
       <c r="C80" s="1" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" s="1" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" s="1" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="83" spans="3:3">
       <c r="C83" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" s="1" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="85" spans="3:3">
       <c r="C85" s="1" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" s="1" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="87" spans="3:3">
       <c r="C87" s="1" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="88" spans="3:3">
       <c r="C88" s="1" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="89" spans="3:3">
       <c r="C89" s="1" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="90" spans="3:3">
       <c r="C90" s="1" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="91" spans="3:3">
       <c r="C91" s="1" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="92" spans="3:3">
       <c r="C92" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="93" spans="3:3">
       <c r="C93" s="1" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="94" spans="3:3">
       <c r="C94" s="1" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="95" spans="3:3">
       <c r="C95" s="1" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="96" spans="3:3">
       <c r="C96" s="1" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="97" spans="3:3">
       <c r="C97" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="98" spans="3:3">
       <c r="C98" s="1" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="99" spans="3:3">
       <c r="C99" s="1" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="100" spans="3:3">
       <c r="C100" s="1" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="101" spans="3:3">
       <c r="C101" s="1" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="102" spans="3:3">
       <c r="C102" s="1" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="103" spans="3:3">
       <c r="C103" s="1" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="104" spans="3:3">
       <c r="C104" s="1" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="105" spans="3:3">
       <c r="C105" s="1" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="106" spans="3:3">
       <c r="C106" s="1" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="107" spans="3:3">
       <c r="C107" s="1" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="108" spans="3:3">
       <c r="C108" s="1" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="109" spans="3:3">
       <c r="C109" s="1" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="110" spans="3:3">
       <c r="C110" s="1" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="111" spans="3:3">
       <c r="C111" s="1" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="112" spans="3:3">
       <c r="C112" s="1" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="113" spans="3:3">
       <c r="C113" s="1" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="114" spans="3:3">
       <c r="C114" s="1" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="115" spans="3:3">
       <c r="C115" s="1" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="116" spans="3:3">
       <c r="C116" s="1" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="117" spans="3:3">
       <c r="C117" s="1" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="118" spans="3:3">
       <c r="C118" s="1" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="119" spans="3:3">
       <c r="C119" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="120" spans="3:3">
       <c r="C120" s="1" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="121" spans="3:3">
       <c r="C121" s="1" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="122" spans="3:3">
       <c r="C122" s="1" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="123" spans="3:3">
       <c r="C123" s="1" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="124" spans="3:3">
       <c r="C124" s="1" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="125" spans="3:3">
       <c r="C125" s="1" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="126" spans="3:3">
       <c r="C126" s="1" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="127" spans="3:3">
       <c r="C127" s="1" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="128" spans="3:3">
       <c r="C128" s="1" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="129" spans="3:3">
       <c r="C129" s="1" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="130" spans="3:3">
       <c r="C130" s="1" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="131" spans="3:3">
       <c r="C131" s="1" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="132" spans="3:3">
       <c r="C132" s="1" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="133" spans="3:3">
       <c r="C133" s="1" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="134" spans="3:3">
       <c r="C134" s="1" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="135" spans="3:3">
       <c r="C135" s="1" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="136" spans="3:3">
       <c r="C136" s="1" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="137" spans="3:3">
       <c r="C137" s="1" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="138" spans="3:3">
       <c r="C138" s="1" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="139" spans="3:3">
       <c r="C139" s="1" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="140" spans="3:3">
       <c r="C140" s="1" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="141" spans="3:3">
       <c r="C141" s="1" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="142" spans="3:3">
       <c r="C142" s="1" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="143" spans="3:3">
@@ -7128,57 +6557,56 @@
     </row>
     <row r="144" spans="3:3">
       <c r="C144" s="1" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="145" spans="3:3">
       <c r="C145" s="1" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="146" spans="3:3">
       <c r="C146" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="147" spans="3:3">
       <c r="C147" s="1" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="148" spans="3:3">
       <c r="C148" s="1" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="149" spans="3:3">
       <c r="C149" s="1" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="150" spans="3:3">
       <c r="C150" s="1" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="151" spans="3:3">
       <c r="C151" s="1" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="152" spans="3:3">
       <c r="C152" s="1" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="153" spans="3:3">
       <c r="C153" s="1" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -7186,7 +6614,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
@@ -7194,18 +6622,17 @@
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection/>
       <selection pane="bottomLeft" activeCell="D92" sqref="D92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="3" width="11" style="4"/>
-    <col min="4" max="4" width="13.6666666666667" style="4" customWidth="1"/>
+    <col min="4" max="4" width="13.625" style="4" customWidth="1"/>
     <col min="5" max="16384" width="11" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" ht="63" spans="1:4">
+    <row r="1" spans="1:4" ht="63">
       <c r="A1" s="78" t="s">
         <v>56</v>
       </c>
@@ -7219,7 +6646,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" s="5">
         <v>43830</v>
       </c>
@@ -7230,7 +6657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" s="5">
         <v>43831</v>
       </c>
@@ -7241,7 +6668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4" s="5">
         <v>43832</v>
       </c>
@@ -7252,7 +6679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="A5" s="5">
         <v>43833</v>
       </c>
@@ -7263,7 +6690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4">
       <c r="A6" s="5">
         <v>43834</v>
       </c>
@@ -7274,7 +6701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:4">
       <c r="A7" s="5">
         <v>43835</v>
       </c>
@@ -7285,7 +6712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:4">
       <c r="A8" s="5">
         <v>43836</v>
       </c>
@@ -7296,7 +6723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:4">
       <c r="A9" s="5">
         <v>43837</v>
       </c>
@@ -7307,7 +6734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:4">
       <c r="A10" s="5">
         <v>43838</v>
       </c>
@@ -7318,7 +6745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:4">
       <c r="A11" s="5">
         <v>43839</v>
       </c>
@@ -7329,7 +6756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:4">
       <c r="A12" s="5">
         <v>43840</v>
       </c>
@@ -7340,7 +6767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:4">
       <c r="A13" s="5">
         <v>43841</v>
       </c>
@@ -7351,7 +6778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:4">
       <c r="A14" s="5">
         <v>43842</v>
       </c>
@@ -7362,7 +6789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:4">
       <c r="A15" s="5">
         <v>43843</v>
       </c>
@@ -7373,7 +6800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:4">
       <c r="A16" s="5">
         <v>43844</v>
       </c>
@@ -7912,7 +7339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:4">
       <c r="A65" s="5">
         <v>43893</v>
       </c>
@@ -7923,7 +7350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:4">
       <c r="A66" s="5">
         <v>43894</v>
       </c>
@@ -7934,7 +7361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:4">
       <c r="A67" s="5">
         <v>43895</v>
       </c>
@@ -7945,7 +7372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:4">
       <c r="A68" s="5">
         <v>43896</v>
       </c>
@@ -7956,7 +7383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:4">
       <c r="A69" s="5">
         <v>43897</v>
       </c>
@@ -7967,7 +7394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:4">
       <c r="A70" s="5">
         <v>43898</v>
       </c>
@@ -7978,7 +7405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:4">
       <c r="A71" s="5">
         <v>43899</v>
       </c>
@@ -7989,7 +7416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:4">
       <c r="A72" s="5">
         <v>43900</v>
       </c>
@@ -8000,7 +7427,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:4">
       <c r="A73" s="5">
         <v>43901</v>
       </c>
@@ -8011,7 +7438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:4">
       <c r="A74" s="5">
         <v>43902</v>
       </c>
@@ -8022,7 +7449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:4">
       <c r="A75" s="5">
         <v>43903</v>
       </c>
@@ -8033,7 +7460,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:4">
       <c r="A76" s="5">
         <v>43904</v>
       </c>
@@ -8058,7 +7485,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:4">
       <c r="A78" s="5">
         <v>43906</v>
       </c>
@@ -8069,7 +7496,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:4">
       <c r="A79" s="5">
         <v>43907</v>
       </c>
@@ -8080,7 +7507,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:4">
       <c r="A80" s="5">
         <v>43908</v>
       </c>
@@ -8091,7 +7518,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:4">
       <c r="A81" s="5">
         <v>43909</v>
       </c>
@@ -8116,7 +7543,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:4">
       <c r="A83" s="5">
         <v>43911</v>
       </c>
@@ -8127,7 +7554,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:4">
       <c r="A84" s="5">
         <v>43912</v>
       </c>
@@ -8138,7 +7565,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:4">
       <c r="A85" s="5">
         <v>43913</v>
       </c>
@@ -8149,7 +7576,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:4">
       <c r="A86" s="5">
         <v>43914</v>
       </c>
@@ -8174,7 +7601,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:4">
       <c r="A88" s="5">
         <v>43916</v>
       </c>
@@ -8185,7 +7612,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:4">
       <c r="A89" s="5">
         <v>43917</v>
       </c>
@@ -8196,7 +7623,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:4">
       <c r="A90" s="5">
         <v>43918</v>
       </c>
@@ -8207,7 +7634,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:4">
       <c r="A91" s="5">
         <v>43919</v>
       </c>
@@ -8232,7 +7659,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:4">
       <c r="A93" s="5">
         <v>43921</v>
       </c>
@@ -8243,7 +7670,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:4">
       <c r="A94" s="5">
         <v>43922</v>
       </c>
@@ -8254,7 +7681,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:4">
       <c r="A95" s="5">
         <v>43923</v>
       </c>
@@ -8265,7 +7692,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:4">
       <c r="A96" s="5">
         <v>43924</v>
       </c>
@@ -8298,79 +7725,78 @@
         <v>708</v>
       </c>
     </row>
-    <row r="99" spans="1:1">
+    <row r="99" spans="1:3">
       <c r="A99" s="5">
         <v>43927</v>
       </c>
     </row>
-    <row r="100" spans="1:1">
+    <row r="100" spans="1:3">
       <c r="A100" s="5">
         <v>43928</v>
       </c>
     </row>
-    <row r="101" spans="1:1">
+    <row r="101" spans="1:3">
       <c r="A101" s="5">
         <v>43929</v>
       </c>
     </row>
-    <row r="102" spans="1:1">
+    <row r="102" spans="1:3">
       <c r="A102" s="5">
         <v>43930</v>
       </c>
     </row>
-    <row r="103" spans="1:1">
+    <row r="103" spans="1:3">
       <c r="A103" s="5">
         <v>43931</v>
       </c>
     </row>
-    <row r="104" spans="1:1">
+    <row r="104" spans="1:3">
       <c r="A104" s="5">
         <v>43932</v>
       </c>
     </row>
-    <row r="105" spans="1:1">
+    <row r="105" spans="1:3">
       <c r="A105" s="5">
         <v>43933</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:C1048576">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:C1048576" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C22"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="12.1666666666667" style="8" customWidth="1"/>
-    <col min="2" max="2" width="12.8333333333333" style="8" customWidth="1"/>
-    <col min="3" max="3" width="15" style="8" customWidth="1"/>
+    <col min="1" max="1" width="12.125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="17.25" style="8" customWidth="1"/>
+    <col min="3" max="3" width="21.75" style="8" customWidth="1"/>
     <col min="4" max="16384" width="11" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" ht="157.5" spans="1:3">
+    <row r="1" spans="1:3" ht="113.25" customHeight="1">
       <c r="A1" s="82" t="s">
         <v>60</v>
       </c>
       <c r="B1" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="97" t="s">
         <v>62</v>
       </c>
     </row>
@@ -8423,7 +7849,7 @@
         <v>67</v>
       </c>
       <c r="B6" s="83">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C6" s="83">
         <v>0.5</v>
@@ -8434,7 +7860,7 @@
         <v>68</v>
       </c>
       <c r="B7" s="83">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C7" s="83">
         <v>0.5</v>
@@ -8448,7 +7874,7 @@
         <v>1.9</v>
       </c>
       <c r="C8" s="83">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -8459,7 +7885,7 @@
         <v>1.9</v>
       </c>
       <c r="C9" s="83">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -8536,7 +7962,7 @@
         <v>21</v>
       </c>
       <c r="C16" s="83">
-        <v>9.3</v>
+        <v>9.3000000000000007</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -8547,7 +7973,7 @@
         <v>21</v>
       </c>
       <c r="C17" s="83">
-        <v>9.3</v>
+        <v>9.3000000000000007</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -8607,18 +8033,17 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="decimal" operator="between" showInputMessage="1" showErrorMessage="1" sqref="B2:B22 C2:C22">
+    <dataValidation type="decimal" showInputMessage="1" showErrorMessage="1" sqref="B2:B22 C2:C22" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
@@ -8628,17 +8053,17 @@
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="12.1666666666667" style="78" customWidth="1"/>
+    <col min="1" max="1" width="12.125" style="78" customWidth="1"/>
     <col min="2" max="2" width="14" style="78" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="78" customWidth="1"/>
     <col min="4" max="5" width="11" style="78"/>
-    <col min="6" max="6" width="11.1666666666667" style="78" customWidth="1"/>
+    <col min="6" max="6" width="11.125" style="78" customWidth="1"/>
     <col min="7" max="16384" width="11" style="78"/>
   </cols>
   <sheetData>
-    <row r="1" ht="63" spans="1:4">
+    <row r="1" spans="1:4" ht="63">
       <c r="A1" s="78" t="s">
         <v>60</v>
       </c>
@@ -8663,7 +8088,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="81">
-        <v>2.37224584002272e-6</v>
+        <v>2.3722458400227202E-6</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -8677,7 +8102,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="81">
-        <v>1.32905378016121e-7</v>
+        <v>1.32905378016121E-7</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -8691,7 +8116,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="81">
-        <v>2.76830211034591e-7</v>
+        <v>2.7683021103459102E-7</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -8702,10 +8127,10 @@
         <v>3686000</v>
       </c>
       <c r="C5" s="81">
-        <v>1.82721457849836e-5</v>
+        <v>1.82721457849836E-5</v>
       </c>
       <c r="D5" s="81">
-        <v>5.94216123088899e-7</v>
+        <v>5.9421612308889897E-7</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -8716,10 +8141,10 @@
         <v>4075000</v>
       </c>
       <c r="C6" s="81">
-        <v>7.3367682442902e-5</v>
+        <v>7.3367682442901998E-5</v>
       </c>
       <c r="D6" s="81">
-        <v>9.40611313370538e-7</v>
+        <v>9.4061131337053795E-7</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -8730,10 +8155,10 @@
         <v>4484000</v>
       </c>
       <c r="C7" s="81">
-        <v>0.000129687668864152</v>
+        <v>1.2968766886415199E-4</v>
       </c>
       <c r="D7" s="81">
-        <v>1.22116449024625e-6</v>
+        <v>1.22116449024625E-6</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -8744,10 +8169,10 @@
         <v>4707000</v>
       </c>
       <c r="C8" s="81">
-        <v>0.000145181125232244</v>
+        <v>1.4518112523224401E-4</v>
       </c>
       <c r="D8" s="81">
-        <v>1.74496544750293e-6</v>
+        <v>1.74496544750293E-6</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -8758,10 +8183,10 @@
         <v>4588000</v>
       </c>
       <c r="C9" s="81">
-        <v>8.56921039738818e-5</v>
+        <v>8.5692103973881797E-5</v>
       </c>
       <c r="D9" s="81">
-        <v>2.38696668450924e-6</v>
+        <v>2.3869666845092401E-6</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -8772,10 +8197,10 @@
         <v>4308000</v>
       </c>
       <c r="C10" s="81">
-        <v>1.93200241246091e-5</v>
+        <v>1.9320024124609101E-5</v>
       </c>
       <c r="D10" s="81">
-        <v>3.94026807804527e-6</v>
+        <v>3.9402680780452703E-6</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -8786,10 +8211,10 @@
         <v>4296000</v>
       </c>
       <c r="C11" s="81">
-        <v>1.27460464950284e-6</v>
+        <v>1.2746046495028399E-6</v>
       </c>
       <c r="D11" s="81">
-        <v>5.99064185266335e-6</v>
+        <v>5.9906418526633501E-6</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -8803,7 +8228,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="81">
-        <v>8.50594419303177e-6</v>
+        <v>8.5059441930317695E-6</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -8817,7 +8242,7 @@
         <v>0</v>
       </c>
       <c r="D13" s="81">
-        <v>1.26668575743058e-5</v>
+        <v>1.26668575743058E-5</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -8831,7 +8256,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="81">
-        <v>2.04725334146626e-5</v>
+        <v>2.0472533414662599E-5</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -8845,7 +8270,7 @@
         <v>0</v>
       </c>
       <c r="D15" s="81">
-        <v>3.40005124362946e-5</v>
+        <v>3.4000512436294603E-5</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -8859,7 +8284,7 @@
         <v>0</v>
       </c>
       <c r="D16" s="81">
-        <v>4.96174847490883e-5</v>
+        <v>4.9617484749088298E-5</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -8873,7 +8298,7 @@
         <v>0</v>
       </c>
       <c r="D17" s="81">
-        <v>8.74497794415659e-5</v>
+        <v>8.7449779441565906E-5</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -8887,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="D18" s="81">
-        <v>0.000161717611260653</v>
+        <v>1.6171761126065301E-4</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -8901,7 +8326,7 @@
         <v>0</v>
       </c>
       <c r="D19" s="81">
-        <v>0.000294611030897332</v>
+        <v>2.9461103089733202E-4</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -8915,7 +8340,7 @@
         <v>0</v>
       </c>
       <c r="D20" s="81">
-        <v>0.000497385519780414</v>
+        <v>4.9738551978041395E-4</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -8929,7 +8354,7 @@
         <v>0</v>
       </c>
       <c r="D21" s="81">
-        <v>0.000897172642552519</v>
+        <v>8.9717264255251901E-4</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -8943,43 +8368,42 @@
         <v>0</v>
       </c>
       <c r="D22" s="81">
-        <v>0.00728952772073922</v>
+        <v>7.2895277207392197E-3</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="decimal" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="C2:D22">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="C2:D22" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="B2:B22">
+    <dataValidation type="whole" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="B2:B22" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="15.75" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="70.6666666666667" style="8" customWidth="1"/>
-    <col min="2" max="2" width="10.8333333333333" style="8" customWidth="1"/>
+    <col min="1" max="1" width="70.625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="10.875" style="8" customWidth="1"/>
     <col min="3" max="3" width="7" style="8" customWidth="1"/>
-    <col min="4" max="4" width="9.83333333333333" style="8" customWidth="1"/>
+    <col min="4" max="4" width="9.875" style="8" customWidth="1"/>
     <col min="5" max="5" width="16" style="8" customWidth="1"/>
     <col min="6" max="6" width="21" style="8" customWidth="1"/>
-    <col min="7" max="16384" width="10.8333333333333" style="8"/>
+    <col min="7" max="16384" width="10.875" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -9052,7 +8476,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" s="63" customFormat="1" spans="1:6">
+    <row r="5" spans="1:6" s="63" customFormat="1">
       <c r="A5" s="65" t="s">
         <v>102</v>
       </c>
@@ -9076,7 +8500,7 @@
       </c>
       <c r="B6" s="67"/>
       <c r="C6" s="71">
-        <v>0.049</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="D6" s="67"/>
       <c r="E6" s="64" t="s">
@@ -9140,7 +8564,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" ht="31.5">
       <c r="A10" s="65" t="s">
         <v>114</v>
       </c>
@@ -9176,7 +8600,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="12" ht="31.5" spans="1:6">
+    <row r="12" spans="1:6" ht="31.5">
       <c r="A12" s="65" t="s">
         <v>118</v>
       </c>
@@ -9194,7 +8618,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="13" ht="31.5" spans="1:6">
+    <row r="13" spans="1:6" ht="31.5">
       <c r="A13" s="65" t="s">
         <v>120</v>
       </c>
@@ -9212,7 +8636,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="14" ht="31.5" spans="1:6">
+    <row r="14" spans="1:6" ht="31.5">
       <c r="A14" s="65" t="s">
         <v>122</v>
       </c>
@@ -9230,7 +8654,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="15" ht="31.5" spans="1:6">
+    <row r="15" spans="1:6" ht="31.5">
       <c r="A15" s="65" t="s">
         <v>124</v>
       </c>
@@ -9248,7 +8672,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="16" ht="31.5" spans="1:6">
+    <row r="16" spans="1:6" ht="31.5">
       <c r="A16" s="65" t="s">
         <v>126</v>
       </c>
@@ -9266,7 +8690,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="17" ht="31.5" spans="1:6">
+    <row r="17" spans="1:6" ht="31.5">
       <c r="A17" s="65" t="s">
         <v>128</v>
       </c>
@@ -9284,7 +8708,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="18" ht="31.5" spans="1:6">
+    <row r="18" spans="1:6" ht="31.5">
       <c r="A18" s="65" t="s">
         <v>130</v>
       </c>
@@ -9302,7 +8726,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="19" ht="31.5" spans="1:6">
+    <row r="19" spans="1:6" ht="31.5">
       <c r="A19" s="65" t="s">
         <v>132</v>
       </c>
@@ -9320,7 +8744,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="20" ht="31.5" spans="1:6">
+    <row r="20" spans="1:6" ht="31.5">
       <c r="A20" s="65" t="s">
         <v>134</v>
       </c>
@@ -9404,42 +8828,41 @@
     </row>
   </sheetData>
   <dataValidations count="7">
-    <dataValidation type="decimal" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C8 C9:C20">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C8 C9:C20" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
-    <dataValidation type="date" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B3 B4:B5">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B3 B4:B5" xr:uid="{00000000-0002-0000-0400-000001000000}">
       <formula1>1</formula1>
       <formula2>73051</formula2>
     </dataValidation>
-    <dataValidation type="whole" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C21">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C21" xr:uid="{00000000-0002-0000-0400-000002000000}">
       <formula1>1</formula1>
       <formula2>10000</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="between" showInputMessage="1" showErrorMessage="1" sqref="C2">
+    <dataValidation type="decimal" showInputMessage="1" showErrorMessage="1" sqref="C2" xr:uid="{00000000-0002-0000-0400-000003000000}">
       <formula1>1</formula1>
       <formula2>10</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6" xr:uid="{00000000-0002-0000-0400-000004000000}">
       <formula1>0</formula1>
       <formula2>0.2</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C22">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C22" xr:uid="{00000000-0002-0000-0400-000005000000}">
       <formula1>0.01</formula1>
       <formula2>0.2</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="C3 C4 C5">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="C3 C4 C5" xr:uid="{00000000-0002-0000-0400-000006000000}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
@@ -9449,14 +8872,14 @@
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="3" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="38.5" style="8" customWidth="1"/>
-    <col min="2" max="2" width="28.1666666666667" style="8" customWidth="1"/>
+    <col min="2" max="2" width="28.125" style="8" customWidth="1"/>
     <col min="3" max="3" width="13" style="8" customWidth="1"/>
-    <col min="4" max="4" width="9.83333333333333" style="8" customWidth="1"/>
-    <col min="5" max="5" width="7.83333333333333" style="8" customWidth="1"/>
-    <col min="6" max="6" width="13.6666666666667" style="8" customWidth="1"/>
+    <col min="4" max="4" width="9.875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="7.875" style="8" customWidth="1"/>
+    <col min="6" max="6" width="13.625" style="8" customWidth="1"/>
     <col min="7" max="16384" width="11" style="8"/>
   </cols>
   <sheetData>
@@ -9531,42 +8954,50 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="3">
-    <dataValidation type="decimal" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="C4">
+  <dataValidations count="2">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="C4" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="between" showInputMessage="1" showErrorMessage="1" sqref="C3">
+    <dataValidation type="decimal" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{00000000-0002-0000-0500-000001000000}">
       <formula1>1</formula1>
       <formula2>10</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
-      <formula1>HIDDEN!$C$2:$C$153</formula1>
-    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0500-000002000000}">
+          <x14:formula1>
+            <xm:f>HIDDEN!$C$2:$C$153</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView topLeftCell="A10" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="66.3333333333333" style="8" customWidth="1"/>
-    <col min="2" max="2" width="5.83333333333333" style="8" customWidth="1"/>
+    <col min="1" max="1" width="74.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.875" style="8" customWidth="1"/>
     <col min="3" max="3" width="5.5" style="8" customWidth="1"/>
     <col min="4" max="5" width="11" style="8"/>
-    <col min="6" max="6" width="7.33333333333333" style="8" customWidth="1"/>
-    <col min="7" max="7" width="10.8333333333333" style="8"/>
+    <col min="6" max="6" width="7.375" style="8" customWidth="1"/>
+    <col min="7" max="7" width="10.875" style="8"/>
     <col min="8" max="16384" width="11" style="8"/>
   </cols>
   <sheetData>
@@ -9755,7 +9186,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="12" ht="31.5" spans="1:5">
+    <row r="12" spans="1:5" ht="31.5">
       <c r="A12" s="55" t="s">
         <v>177</v>
       </c>
@@ -9772,7 +9203,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="13" ht="31.5" spans="1:5">
+    <row r="13" spans="1:5" ht="31.5">
       <c r="A13" s="55" t="s">
         <v>179</v>
       </c>
@@ -9789,7 +9220,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="14" ht="31.5" spans="1:5">
+    <row r="14" spans="1:5" ht="31.5">
       <c r="A14" s="55" t="s">
         <v>181</v>
       </c>
@@ -9806,7 +9237,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="15" ht="31.5" spans="1:5">
+    <row r="15" spans="1:5" ht="31.5">
       <c r="A15" s="55" t="s">
         <v>183</v>
       </c>
@@ -9823,7 +9254,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="16" ht="31.5" spans="1:5">
+    <row r="16" spans="1:5" ht="31.5">
       <c r="A16" s="55" t="s">
         <v>185</v>
       </c>
@@ -9840,7 +9271,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="17" ht="31.5" spans="1:5">
+    <row r="17" spans="1:5" ht="31.5">
       <c r="A17" s="55" t="s">
         <v>187</v>
       </c>
@@ -9857,7 +9288,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="18" ht="31.5" spans="1:5">
+    <row r="18" spans="1:5" ht="31.5">
       <c r="A18" s="55" t="s">
         <v>189</v>
       </c>
@@ -9874,7 +9305,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="19" ht="31.5" spans="1:5">
+    <row r="19" spans="1:5" ht="31.5">
       <c r="A19" s="55" t="s">
         <v>191</v>
       </c>
@@ -9891,7 +9322,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="20" s="54" customFormat="1" ht="31.5" spans="1:5">
+    <row r="20" spans="1:5" s="54" customFormat="1" ht="31.5">
       <c r="A20" s="55" t="s">
         <v>193</v>
       </c>
@@ -9908,7 +9339,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="21" s="54" customFormat="1" ht="30" customHeight="1" spans="1:5">
+    <row r="21" spans="1:5" s="54" customFormat="1" ht="30" customHeight="1">
       <c r="A21" s="62" t="s">
         <v>195</v>
       </c>
@@ -9925,9 +9356,9 @@
         <v>196</v>
       </c>
     </row>
-    <row r="22" s="54" customFormat="1" ht="32.25" customHeight="1" spans="1:5">
+    <row r="22" spans="1:5" s="54" customFormat="1" ht="32.25" customHeight="1">
       <c r="A22" s="55" t="s">
-        <v>197</v>
+        <v>481</v>
       </c>
       <c r="B22" s="60">
         <v>20</v>
@@ -9939,12 +9370,12 @@
         <v>104</v>
       </c>
       <c r="E22" s="61" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="23" s="54" customFormat="1" ht="17" customHeight="1" spans="1:5">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="54" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A23" s="55" t="s">
-        <v>199</v>
+        <v>482</v>
       </c>
       <c r="B23" s="60">
         <v>0</v>
@@ -9956,12 +9387,12 @@
         <v>104</v>
       </c>
       <c r="E23" s="61" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="24" s="54" customFormat="1" ht="31.5" spans="1:5">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="54" customFormat="1" ht="31.5">
       <c r="A24" s="55" t="s">
-        <v>201</v>
+        <v>483</v>
       </c>
       <c r="B24" s="60">
         <v>0</v>
@@ -9973,12 +9404,12 @@
         <v>104</v>
       </c>
       <c r="E24" s="61" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="25" s="54" customFormat="1" spans="1:5">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="54" customFormat="1">
       <c r="A25" s="55" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B25" s="60">
         <v>100</v>
@@ -9990,55 +9421,54 @@
         <v>104</v>
       </c>
       <c r="E25" s="61" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="9">
-    <dataValidation type="decimal" operator="between" showInputMessage="1" showErrorMessage="1" sqref="B3:B4">
+    <dataValidation type="decimal" showInputMessage="1" showErrorMessage="1" sqref="B3:B4" xr:uid="{00000000-0002-0000-0600-000000000000}">
       <formula1>1</formula1>
       <formula2>7</formula2>
     </dataValidation>
-    <dataValidation type="whole" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15 B18">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15 B18" xr:uid="{00000000-0002-0000-0600-000001000000}">
       <formula1>1</formula1>
       <formula2>100</formula2>
     </dataValidation>
-    <dataValidation type="whole" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B12 B13 B14 B16 B17 B19 B20 B21:B24">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B12 B13 B14 B16 B17 B19 B20 B21:B24" xr:uid="{00000000-0002-0000-0600-000002000000}">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
-    <dataValidation type="whole" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25" xr:uid="{00000000-0002-0000-0600-000003000000}">
       <formula1>0</formula1>
       <formula2>1000</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="between" showInputMessage="1" showErrorMessage="1" sqref="B8">
+    <dataValidation type="decimal" showInputMessage="1" showErrorMessage="1" sqref="B8" xr:uid="{00000000-0002-0000-0600-000004000000}">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="between" showInputMessage="1" showErrorMessage="1" sqref="B7">
+    <dataValidation type="decimal" showInputMessage="1" showErrorMessage="1" sqref="B7" xr:uid="{00000000-0002-0000-0600-000005000000}">
       <formula1>0.5</formula1>
       <formula2>150</formula2>
     </dataValidation>
-    <dataValidation type="whole" operator="between" showInputMessage="1" showErrorMessage="1" sqref="B5">
+    <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" sqref="B5" xr:uid="{00000000-0002-0000-0600-000006000000}">
       <formula1>1</formula1>
       <formula2>12</formula2>
     </dataValidation>
-    <dataValidation type="whole" operator="between" showInputMessage="1" showErrorMessage="1" sqref="B6 B9:B11">
+    <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" sqref="B6 B9:B11" xr:uid="{00000000-0002-0000-0600-000007000000}">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2" xr:uid="{00000000-0002-0000-0600-000008000000}">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
@@ -10048,13 +9478,13 @@
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="71.5" style="8" customWidth="1"/>
     <col min="2" max="2" width="12.5" style="8" customWidth="1"/>
-    <col min="3" max="3" width="9.83333333333333" style="8" customWidth="1"/>
-    <col min="4" max="4" width="7.83333333333333" style="8" customWidth="1"/>
-    <col min="5" max="5" width="18.3333333333333" style="8" customWidth="1"/>
+    <col min="3" max="3" width="9.875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="7.875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="18.375" style="8" customWidth="1"/>
     <col min="6" max="16384" width="11" style="8"/>
   </cols>
   <sheetData>
@@ -10077,58 +9507,58 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="8" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B2" s="52">
         <v>160000</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>100</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="8" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B3" s="52">
         <v>8000</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>100</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="8" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B4" s="52">
         <v>8000</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>100</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="8" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B5" s="4">
         <v>5</v>
@@ -10140,12 +9570,12 @@
         <v>104</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="8" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B6" s="4">
         <v>1</v>
@@ -10154,12 +9584,12 @@
         <v>104</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="44" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B7" s="53">
         <v>15</v>
@@ -10171,12 +9601,12 @@
         <v>104</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="44" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B8" s="53">
         <v>20</v>
@@ -10188,12 +9618,12 @@
         <v>104</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="44" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B9" s="53">
         <v>50</v>
@@ -10205,12 +9635,12 @@
         <v>104</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="44" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B10" s="53">
         <v>50</v>
@@ -10222,12 +9652,12 @@
         <v>104</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="44" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B11" s="53">
         <v>30</v>
@@ -10239,12 +9669,12 @@
         <v>104</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="44" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B12" s="53">
         <v>40</v>
@@ -10256,12 +9686,12 @@
         <v>104</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="44" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B13" s="53">
         <v>75</v>
@@ -10273,12 +9703,12 @@
         <v>104</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="44" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B14" s="53">
         <v>75</v>
@@ -10290,12 +9720,12 @@
         <v>104</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="8" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B15" s="4">
         <v>70</v>
@@ -10307,12 +9737,12 @@
         <v>104</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="8" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B16" s="4">
         <v>90</v>
@@ -10324,12 +9754,12 @@
         <v>104</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="8" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B17" s="4">
         <v>90</v>
@@ -10341,12 +9771,12 @@
         <v>104</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="8" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B18" s="4">
         <v>90</v>
@@ -10358,12 +9788,12 @@
         <v>104</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="8" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B19" s="4">
         <v>90</v>
@@ -10375,12 +9805,12 @@
         <v>104</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="8" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B20" s="4">
         <v>5</v>
@@ -10392,12 +9822,12 @@
         <v>104</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="8" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B21" s="4">
         <v>7</v>
@@ -10409,12 +9839,12 @@
         <v>104</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="8" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B22" s="4">
         <v>7</v>
@@ -10426,63 +9856,62 @@
         <v>104</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation type="whole" operator="between" showInputMessage="1" showErrorMessage="1" sqref="B20:B22">
+    <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" sqref="B20:B22" xr:uid="{00000000-0002-0000-0700-000000000000}">
       <formula1>1</formula1>
       <formula2>30</formula2>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="B3:B4">
+    <dataValidation type="whole" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="B3:B4" xr:uid="{00000000-0002-0000-0700-000001000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6" xr:uid="{00000000-0002-0000-0700-000002000000}">
       <formula1>0.1</formula1>
       <formula2>5</formula2>
     </dataValidation>
-    <dataValidation type="whole" operator="between" showInputMessage="1" showErrorMessage="1" sqref="B5 B7:B19">
+    <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" sqref="B5 B7:B19" xr:uid="{00000000-0002-0000-0700-000003000000}">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="B2">
+    <dataValidation type="whole" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="B2" xr:uid="{00000000-0002-0000-0700-000004000000}">
       <formula1>1</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="35" style="8" customWidth="1"/>
-    <col min="2" max="2" width="42.6666666666667" style="8" customWidth="1"/>
-    <col min="3" max="3" width="8.33333333333333" style="8" customWidth="1"/>
+    <col min="2" max="2" width="42.625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="8.375" style="8" customWidth="1"/>
     <col min="4" max="4" width="8" style="8" customWidth="1"/>
     <col min="5" max="5" width="11" style="8"/>
-    <col min="6" max="6" width="20.6666666666667" style="8" customWidth="1"/>
+    <col min="6" max="6" width="20.625" style="8" customWidth="1"/>
     <col min="7" max="16384" width="11" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:6">
+    <row r="1" spans="1:6">
       <c r="A1" s="9" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>89</v>
@@ -10499,7 +9928,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="10" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="12"/>
@@ -10507,10 +9936,10 @@
       <c r="E2" s="46"/>
       <c r="F2" s="47"/>
     </row>
-    <row r="3" ht="16.5" spans="1:6">
+    <row r="3" spans="1:6">
       <c r="A3" s="13"/>
       <c r="B3" s="14" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C3" s="15">
         <v>50</v>
@@ -10522,12 +9951,12 @@
         <v>104</v>
       </c>
       <c r="F3" s="49" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="18"/>
@@ -10538,7 +9967,7 @@
     <row r="5" spans="1:6">
       <c r="A5" s="20"/>
       <c r="B5" s="21" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C5" s="22">
         <v>4</v>
@@ -10548,13 +9977,13 @@
         <v>104</v>
       </c>
       <c r="F5" s="49" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="6" ht="16.5" spans="1:6">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="20"/>
       <c r="B6" s="21" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C6" s="22">
         <v>80</v>
@@ -10566,12 +9995,12 @@
         <v>104</v>
       </c>
       <c r="F6" s="49" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="10" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B7" s="17"/>
       <c r="C7" s="18"/>
@@ -10582,7 +10011,7 @@
     <row r="8" spans="1:6">
       <c r="A8" s="13"/>
       <c r="B8" s="14" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C8" s="15">
         <v>14</v>
@@ -10594,13 +10023,13 @@
         <v>104</v>
       </c>
       <c r="F8" s="49" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="9" ht="31.5" spans="1:6">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="31.5">
       <c r="A9" s="13"/>
       <c r="B9" s="21" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C9" s="22">
         <v>2</v>
@@ -10612,13 +10041,13 @@
         <v>104</v>
       </c>
       <c r="F9" s="49" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="10" ht="31.5" spans="1:6">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="31.5">
       <c r="A10" s="13"/>
       <c r="B10" s="14" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C10" s="15">
         <v>20</v>
@@ -10630,13 +10059,13 @@
         <v>104</v>
       </c>
       <c r="F10" s="49" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="11" ht="32.25" spans="1:6">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="31.5">
       <c r="A11" s="23"/>
       <c r="B11" s="24" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C11" s="25">
         <v>100</v>
@@ -10648,12 +10077,12 @@
         <v>104</v>
       </c>
       <c r="F11" s="51" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="27" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B12" s="28"/>
       <c r="C12" s="29"/>
@@ -10661,10 +10090,10 @@
       <c r="E12" s="46"/>
       <c r="F12" s="47"/>
     </row>
-    <row r="13" ht="16.5" spans="1:6">
+    <row r="13" spans="1:6">
       <c r="A13" s="31"/>
       <c r="B13" s="32" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C13" s="33">
         <v>100</v>
@@ -10676,12 +10105,12 @@
         <v>104</v>
       </c>
       <c r="F13" s="51" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="27" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B14" s="28"/>
       <c r="C14" s="29"/>
@@ -10689,10 +10118,10 @@
       <c r="E14" s="46"/>
       <c r="F14" s="47"/>
     </row>
-    <row r="15" ht="16.5" spans="1:6">
+    <row r="15" spans="1:6">
       <c r="A15" s="31"/>
       <c r="B15" s="35" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C15" s="33">
         <v>20</v>
@@ -10704,12 +10133,12 @@
         <v>104</v>
       </c>
       <c r="F15" s="51" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="27" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B16" s="28"/>
       <c r="C16" s="29"/>
@@ -10717,10 +10146,10 @@
       <c r="E16" s="46"/>
       <c r="F16" s="47"/>
     </row>
-    <row r="17" ht="16.5" spans="1:6">
+    <row r="17" spans="1:6">
       <c r="A17" s="31"/>
       <c r="B17" s="36" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C17" s="37">
         <v>15</v>
@@ -10732,12 +10161,12 @@
         <v>104</v>
       </c>
       <c r="F17" s="51" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="27" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B18" s="28"/>
       <c r="C18" s="29"/>
@@ -10748,7 +10177,7 @@
     <row r="19" spans="1:6">
       <c r="A19" s="38"/>
       <c r="B19" s="35" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C19" s="39">
         <v>85</v>
@@ -10760,13 +10189,13 @@
         <v>104</v>
       </c>
       <c r="F19" s="49" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="20" ht="16.5" spans="1:6">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="31.5">
       <c r="A20" s="31"/>
       <c r="B20" s="32" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C20" s="33">
         <v>10</v>
@@ -10778,12 +10207,12 @@
         <v>104</v>
       </c>
       <c r="F20" s="51" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="27" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B21" s="28"/>
       <c r="C21" s="29"/>
@@ -10791,10 +10220,10 @@
       <c r="E21" s="46"/>
       <c r="F21" s="47"/>
     </row>
-    <row r="22" ht="16.5" spans="1:6">
+    <row r="22" spans="1:6">
       <c r="A22" s="31"/>
       <c r="B22" s="32" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C22" s="33">
         <v>20</v>
@@ -10806,12 +10235,12 @@
         <v>104</v>
       </c>
       <c r="F22" s="51" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="27" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B23" s="28"/>
       <c r="C23" s="29"/>
@@ -10822,7 +10251,7 @@
     <row r="24" spans="1:6">
       <c r="A24" s="38"/>
       <c r="B24" s="35" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C24" s="39">
         <v>95</v>
@@ -10834,30 +10263,30 @@
         <v>104</v>
       </c>
       <c r="F24" s="49" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="25" ht="16.5" spans="1:6">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="31"/>
       <c r="B25" s="32" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C25" s="33">
         <v>70</v>
       </c>
       <c r="D25" s="34" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E25" s="50" t="s">
         <v>104</v>
       </c>
       <c r="F25" s="51" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="27" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B26" s="28"/>
       <c r="C26" s="29"/>
@@ -10868,25 +10297,25 @@
     <row r="27" spans="1:6">
       <c r="A27" s="38"/>
       <c r="B27" s="35" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C27" s="39">
         <v>4</v>
       </c>
       <c r="D27" s="40" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E27" s="48" t="s">
         <v>104</v>
       </c>
       <c r="F27" s="49" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="38"/>
       <c r="B28" s="14" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C28" s="15">
         <v>100</v>
@@ -10898,13 +10327,13 @@
         <v>104</v>
       </c>
       <c r="F28" s="49" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="29" ht="31.5" spans="1:6">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="31.5">
       <c r="A29" s="38"/>
       <c r="B29" s="14" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C29" s="15">
         <v>100</v>
@@ -10916,13 +10345,13 @@
         <v>104</v>
       </c>
       <c r="F29" s="49" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="38"/>
       <c r="B30" s="14" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C30" s="41">
         <v>100</v>
@@ -10934,13 +10363,13 @@
         <v>104</v>
       </c>
       <c r="F30" s="49" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="31" ht="16.5" spans="1:6">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="31"/>
       <c r="B31" s="24" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C31" s="25">
         <v>100</v>
@@ -10952,12 +10381,12 @@
         <v>104</v>
       </c>
       <c r="F31" s="51" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="27" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B32" s="28"/>
       <c r="C32" s="29"/>
@@ -10968,7 +10397,7 @@
     <row r="33" spans="1:6">
       <c r="A33" s="38"/>
       <c r="B33" s="35" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C33" s="39">
         <v>80</v>
@@ -10980,13 +10409,13 @@
         <v>104</v>
       </c>
       <c r="F33" s="49" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="34" ht="16.5" spans="1:6">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="38"/>
       <c r="B34" s="35" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C34" s="39">
         <v>14</v>
@@ -10998,12 +10427,12 @@
         <v>104</v>
       </c>
       <c r="F34" s="49" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="27" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B35" s="28"/>
       <c r="C35" s="29"/>
@@ -11011,10 +10440,10 @@
       <c r="E35" s="46"/>
       <c r="F35" s="47"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" ht="31.5">
       <c r="A36" s="38"/>
       <c r="B36" s="36" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C36" s="42">
         <v>82</v>
@@ -11026,13 +10455,13 @@
         <v>104</v>
       </c>
       <c r="F36" s="49" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="37" ht="31.5" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="31.5">
       <c r="A37" s="44"/>
       <c r="B37" s="36" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C37" s="42">
         <v>64</v>
@@ -11044,13 +10473,13 @@
         <v>104</v>
       </c>
       <c r="F37" s="49" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="38" ht="31.5" spans="1:6">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="31.5">
       <c r="A38" s="38"/>
       <c r="B38" s="36" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C38" s="42">
         <v>82</v>
@@ -11062,13 +10491,13 @@
         <v>104</v>
       </c>
       <c r="F38" s="49" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="39" ht="31.5" spans="1:6">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="31.5">
       <c r="A39" s="38"/>
       <c r="B39" s="35" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C39" s="45">
         <v>64</v>
@@ -11080,13 +10509,13 @@
         <v>104</v>
       </c>
       <c r="F39" s="49" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="40" ht="16.5" spans="1:6">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="31"/>
       <c r="B40" s="32" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C40" s="37">
         <v>87</v>
@@ -11098,53 +10527,52 @@
         <v>104</v>
       </c>
       <c r="F40" s="51" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="10">
-    <dataValidation type="decimal" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C28:C29">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C28:C29" xr:uid="{00000000-0002-0000-0800-000000000000}">
       <formula1>0.08</formula1>
       <formula2>100</formula2>
     </dataValidation>
-    <dataValidation type="whole" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C27">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C27" xr:uid="{00000000-0002-0000-0800-000001000000}">
       <formula1>1</formula1>
       <formula2>52</formula2>
     </dataValidation>
-    <dataValidation type="whole" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C36:C40">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C36:C40" xr:uid="{00000000-0002-0000-0800-000002000000}">
       <formula1>1</formula1>
       <formula2>100</formula2>
     </dataValidation>
-    <dataValidation type="whole" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C17">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C17" xr:uid="{00000000-0002-0000-0800-000003000000}">
       <formula1>0</formula1>
       <formula2>35</formula2>
     </dataValidation>
-    <dataValidation type="whole" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C15">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C15" xr:uid="{00000000-0002-0000-0800-000004000000}">
       <formula1>0</formula1>
       <formula2>25</formula2>
     </dataValidation>
-    <dataValidation type="whole" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13 C22 C3:C4 C10:C11 C19:C20 C24:C25 C30:C31 C33:C34">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13 C22 C3:C4 C10:C11 C19:C20 C24:C25 C30:C31 C33:C34" xr:uid="{00000000-0002-0000-0800-000005000000}">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
-    <dataValidation type="whole" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{00000000-0002-0000-0800-000006000000}">
       <formula1>1</formula1>
       <formula2>21</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6" xr:uid="{00000000-0002-0000-0800-000007000000}">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
-    <dataValidation type="whole" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9" xr:uid="{00000000-0002-0000-0800-000008000000}">
       <formula1>1</formula1>
       <formula2>5</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5" xr:uid="{00000000-0002-0000-0800-000009000000}">
       <formula1>1</formula1>
       <formula2>5</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Template_CoMoCOVID-19App_v17.xlsx
+++ b/Template_CoMoCOVID-19App_v17.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10323"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ricardo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivier/Documents/Projets/CoMo/como/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E1ADBFA-C958-4BAF-976B-96B72300FD47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A267AA-414E-5940-B8C9-AEA5B04494EB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="648" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="27880" windowHeight="16000" tabRatio="648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -30,16 +30,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Interventions Param'!$A$1:$F$31</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -49,9 +39,6 @@
     <t>Template v17</t>
   </si>
   <si>
-    <t>v17.d</t>
-  </si>
-  <si>
     <t>Instructions</t>
   </si>
   <si>
@@ -3139,6 +3126,9 @@
       </rPr>
       <t xml:space="preserve"> infected and vaccinated</t>
     </r>
+  </si>
+  <si>
+    <t>v17.e</t>
   </si>
 </sst>
 </file>
@@ -3652,9 +3642,6 @@
   </cellStyles>
   <dxfs count="3">
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
         <patternFill patternType="solid">
           <bgColor theme="2"/>
@@ -3669,6 +3656,9 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
         <patternFill patternType="solid">
           <bgColor theme="2"/>
@@ -3692,8 +3682,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="E1:F15" totalsRowShown="0">
   <autoFilter ref="E1:F15" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Intervention" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Unit Intervention" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Intervention" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Unit Intervention" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3959,13 +3949,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="76.625" customWidth="1"/>
+    <col min="1" max="1" width="76.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -3973,37 +3963,37 @@
         <v>0</v>
       </c>
       <c r="B1" s="86" t="s">
-        <v>1</v>
+        <v>483</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="21">
       <c r="A2" s="87" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="88" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="89" customHeight="1">
+      <c r="A8" s="89" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="89.1" customHeight="1">
-      <c r="A8" s="89" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4011,93 +4001,93 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="90" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F15" s="95"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="90" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F16" s="95"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="90" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F17" s="95"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="90" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F18" s="95"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="90" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F19" s="95"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="90" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F20" s="95"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="90" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F21" s="95"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="90" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F22" s="95"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="90" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F23" s="95"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F24" s="95"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="90" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F25" s="95"/>
     </row>
     <row r="26" spans="1:6" s="84" customFormat="1">
       <c r="A26" s="90" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B26"/>
       <c r="D26"/>
@@ -4105,86 +4095,86 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="90" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F27" s="95"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="90" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F28" s="95"/>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="90" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F29" s="95"/>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="90" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F30" s="95"/>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="90" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F31" s="95"/>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="90" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F32" s="95"/>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="90" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F33" s="95"/>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="90" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F34" s="95"/>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="90" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F35" s="95"/>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="83" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="34">
+      <c r="A38" s="91" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="31.5">
-      <c r="A38" s="91" t="s">
+    <row r="39" spans="1:6" ht="34">
+      <c r="A39" s="92" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="31.5">
-      <c r="A39" s="92" t="s">
+    <row r="40" spans="1:6" ht="34">
+      <c r="A40" s="92" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="31.5">
-      <c r="A40" s="92" t="s">
+    <row r="41" spans="1:6" ht="17">
+      <c r="A41" s="92" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="92" t="s">
+    <row r="42" spans="1:6" ht="17">
+      <c r="A42" s="92" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="92" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -4192,67 +4182,67 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="93" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="34">
+      <c r="A46" s="89" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="31.5">
-      <c r="A46" s="89" t="s">
+    <row r="47" spans="1:6" ht="17">
+      <c r="A47" s="89" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="89" t="s">
+    <row r="48" spans="1:6" ht="17">
+      <c r="A48" s="89" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="89" t="s">
+    <row r="49" spans="1:1" ht="17">
+      <c r="A49" s="89" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="89" t="s">
+    <row r="50" spans="1:1" ht="34">
+      <c r="A50" s="89" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" ht="31.5">
-      <c r="A50" s="89" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="94" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="95" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="96" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" ht="34">
+      <c r="A57" s="89" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="57" spans="1:1" ht="31.5">
-      <c r="A57" s="89" t="s">
+    <row r="58" spans="1:1" ht="34">
+      <c r="A58" s="89" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="31.5">
-      <c r="A58" s="89" t="s">
+    <row r="59" spans="1:1" ht="68">
+      <c r="A59" s="89" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" ht="63">
-      <c r="A59" s="89" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="60" spans="1:1">
@@ -4260,22 +4250,22 @@
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="96" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -4294,44 +4284,44 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="31.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="31.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="21" style="1" customWidth="1"/>
-    <col min="7" max="7" width="24.125" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.875" style="1"/>
+    <col min="7" max="7" width="24.1640625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" ht="17">
       <c r="A1" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>316</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B2" s="5">
         <v>43876</v>
@@ -4348,12 +4338,12 @@
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B3" s="5">
         <v>43876</v>
@@ -4370,12 +4360,12 @@
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B4" s="5">
         <v>43937</v>
@@ -4392,12 +4382,12 @@
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B5" s="5">
         <v>43876</v>
@@ -4414,12 +4404,12 @@
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B6" s="5">
         <v>43876</v>
@@ -4436,12 +4426,12 @@
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B7" s="5">
         <v>43937</v>
@@ -4458,12 +4448,12 @@
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B8" s="5">
         <v>43876</v>
@@ -4480,12 +4470,12 @@
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B9" s="5">
         <v>43876</v>
@@ -4502,12 +4492,12 @@
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B10" s="5">
         <v>43876</v>
@@ -4524,12 +4514,12 @@
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B11" s="5">
         <v>43876</v>
@@ -4546,12 +4536,12 @@
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B12" s="5">
         <v>43866</v>
@@ -4568,12 +4558,12 @@
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B13" s="5">
         <v>43891</v>
@@ -4589,15 +4579,15 @@
         <v>thousand tests</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B14" s="5">
         <v>43891</v>
@@ -4613,15 +4603,15 @@
         <v>%</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B15" s="5">
         <v>43941</v>
@@ -4638,12 +4628,12 @@
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B16" s="5">
         <v>43983</v>
@@ -4659,10 +4649,10 @@
         <v>%</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -5675,7 +5665,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F2:F100">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>NOT(OR($A2="Vaccination",$A2="School Closures",$A2="Mass Testing"))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5713,7 +5703,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5727,29 +5717,29 @@
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="4" width="10.875" style="1"/>
-    <col min="5" max="5" width="39.875" style="1" customWidth="1"/>
+    <col min="1" max="4" width="10.83203125" style="1"/>
+    <col min="5" max="5" width="39.83203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="18" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.875" style="1"/>
+    <col min="7" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>326</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -5757,16 +5747,16 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -5774,835 +5764,835 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="C4" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="C5" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="C6" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>331</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="C7" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="C8" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="C9" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="C10" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>336</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="C11" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="C12" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="C13" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="C14" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="C15" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>342</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="C16" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="17" spans="3:3">
       <c r="C17" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="18" spans="3:3">
       <c r="C18" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="22" spans="3:3">
       <c r="C22" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="23" spans="3:3">
       <c r="C23" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="26" spans="3:3">
       <c r="C26" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="28" spans="3:3">
       <c r="C28" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="29" spans="3:3">
       <c r="C29" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="30" spans="3:3">
       <c r="C30" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="45" spans="3:3">
       <c r="C45" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="51" spans="3:3">
       <c r="C51" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="59" spans="3:3">
       <c r="C59" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="60" spans="3:3">
       <c r="C60" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="65" spans="3:3">
       <c r="C65" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="66" spans="3:3">
       <c r="C66" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="67" spans="3:3">
       <c r="C67" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="68" spans="3:3">
       <c r="C68" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="69" spans="3:3">
       <c r="C69" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="70" spans="3:3">
       <c r="C70" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="71" spans="3:3">
       <c r="C71" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="72" spans="3:3">
       <c r="C72" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="73" spans="3:3">
       <c r="C73" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="74" spans="3:3">
       <c r="C74" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="75" spans="3:3">
       <c r="C75" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="76" spans="3:3">
       <c r="C76" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="77" spans="3:3">
       <c r="C77" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="78" spans="3:3">
       <c r="C78" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="79" spans="3:3">
       <c r="C79" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="80" spans="3:3">
       <c r="C80" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="83" spans="3:3">
       <c r="C83" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="85" spans="3:3">
       <c r="C85" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="87" spans="3:3">
       <c r="C87" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="88" spans="3:3">
       <c r="C88" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="89" spans="3:3">
       <c r="C89" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="90" spans="3:3">
       <c r="C90" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="91" spans="3:3">
       <c r="C91" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="92" spans="3:3">
       <c r="C92" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="93" spans="3:3">
       <c r="C93" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="94" spans="3:3">
       <c r="C94" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="95" spans="3:3">
       <c r="C95" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="96" spans="3:3">
       <c r="C96" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="97" spans="3:3">
       <c r="C97" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="98" spans="3:3">
       <c r="C98" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="99" spans="3:3">
       <c r="C99" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="100" spans="3:3">
       <c r="C100" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="101" spans="3:3">
       <c r="C101" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="102" spans="3:3">
       <c r="C102" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="103" spans="3:3">
       <c r="C103" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="104" spans="3:3">
       <c r="C104" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="105" spans="3:3">
       <c r="C105" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="106" spans="3:3">
       <c r="C106" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="107" spans="3:3">
       <c r="C107" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="108" spans="3:3">
       <c r="C108" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="109" spans="3:3">
       <c r="C109" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="110" spans="3:3">
       <c r="C110" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="111" spans="3:3">
       <c r="C111" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="112" spans="3:3">
       <c r="C112" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="113" spans="3:3">
       <c r="C113" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="114" spans="3:3">
       <c r="C114" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="115" spans="3:3">
       <c r="C115" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="116" spans="3:3">
       <c r="C116" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="117" spans="3:3">
       <c r="C117" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="118" spans="3:3">
       <c r="C118" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="119" spans="3:3">
       <c r="C119" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="120" spans="3:3">
       <c r="C120" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="121" spans="3:3">
       <c r="C121" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="122" spans="3:3">
       <c r="C122" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="123" spans="3:3">
       <c r="C123" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="124" spans="3:3">
       <c r="C124" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="125" spans="3:3">
       <c r="C125" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="126" spans="3:3">
       <c r="C126" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="127" spans="3:3">
       <c r="C127" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="128" spans="3:3">
       <c r="C128" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="129" spans="3:3">
       <c r="C129" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="130" spans="3:3">
       <c r="C130" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="131" spans="3:3">
       <c r="C131" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="132" spans="3:3">
       <c r="C132" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="133" spans="3:3">
       <c r="C133" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="134" spans="3:3">
       <c r="C134" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="135" spans="3:3">
       <c r="C135" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="136" spans="3:3">
       <c r="C136" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="137" spans="3:3">
       <c r="C137" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="138" spans="3:3">
       <c r="C138" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="139" spans="3:3">
       <c r="C139" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="140" spans="3:3">
       <c r="C140" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="141" spans="3:3">
       <c r="C141" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="142" spans="3:3">
       <c r="C142" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="143" spans="3:3">
       <c r="C143" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="144" spans="3:3">
       <c r="C144" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="145" spans="3:3">
       <c r="C145" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="146" spans="3:3">
       <c r="C146" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="147" spans="3:3">
       <c r="C147" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="148" spans="3:3">
       <c r="C148" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="149" spans="3:3">
       <c r="C149" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="150" spans="3:3">
       <c r="C150" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="151" spans="3:3">
       <c r="C151" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="152" spans="3:3">
       <c r="C152" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="153" spans="3:3">
       <c r="C153" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
   </sheetData>
@@ -6625,25 +6615,25 @@
       <selection pane="bottomLeft" activeCell="D92" sqref="D92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="3" width="11" style="4"/>
-    <col min="4" max="4" width="13.625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" style="4" customWidth="1"/>
     <col min="5" max="16384" width="11" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="63">
+    <row r="1" spans="1:4" ht="68">
       <c r="A1" s="78" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="79" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="79" t="s">
+      <c r="C1" s="79" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="79" t="s">
+      <c r="D1" s="79" t="s">
         <v>58</v>
-      </c>
-      <c r="D1" s="79" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -7777,32 +7767,32 @@
   </sheetPr>
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="12.125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="17.25" style="8" customWidth="1"/>
-    <col min="3" max="3" width="21.75" style="8" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" style="8" customWidth="1"/>
     <col min="4" max="16384" width="11" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="113.25" customHeight="1">
       <c r="A1" s="82" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="C1" s="97" t="s">
         <v>61</v>
-      </c>
-      <c r="C1" s="97" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B2" s="83">
         <v>0.6</v>
@@ -7813,7 +7803,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B3" s="83">
         <v>0.6</v>
@@ -7824,7 +7814,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B4" s="83">
         <v>0.6</v>
@@ -7835,7 +7825,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B5" s="83">
         <v>0.6</v>
@@ -7846,7 +7836,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B6" s="83">
         <v>1.1000000000000001</v>
@@ -7857,7 +7847,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B7" s="83">
         <v>1.1000000000000001</v>
@@ -7868,7 +7858,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B8" s="83">
         <v>1.9</v>
@@ -7879,7 +7869,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B9" s="83">
         <v>1.9</v>
@@ -7890,7 +7880,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B10" s="83">
         <v>3.3</v>
@@ -7901,7 +7891,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B11" s="83">
         <v>3.3</v>
@@ -7912,7 +7902,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B12" s="83">
         <v>6.5</v>
@@ -7923,7 +7913,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B13" s="83">
         <v>6.5</v>
@@ -7934,7 +7924,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B14" s="83">
         <v>12.6</v>
@@ -7945,7 +7935,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B15" s="83">
         <v>12.6</v>
@@ -7956,7 +7946,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B16" s="83">
         <v>21</v>
@@ -7967,7 +7957,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B17" s="83">
         <v>21</v>
@@ -7978,7 +7968,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B18" s="83">
         <v>31.6</v>
@@ -7989,7 +7979,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B19" s="83">
         <v>31.6</v>
@@ -8000,7 +7990,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B20" s="83">
         <v>31.6</v>
@@ -8011,7 +8001,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B21" s="83">
         <v>31.6</v>
@@ -8022,7 +8012,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B22" s="83">
         <v>31.6</v>
@@ -8053,33 +8043,33 @@
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="12.125" style="78" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" style="78" customWidth="1"/>
     <col min="2" max="2" width="14" style="78" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="78" customWidth="1"/>
     <col min="4" max="5" width="11" style="78"/>
-    <col min="6" max="6" width="11.125" style="78" customWidth="1"/>
+    <col min="6" max="6" width="11.1640625" style="78" customWidth="1"/>
     <col min="7" max="16384" width="11" style="78"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="63">
+    <row r="1" spans="1:4" ht="68">
       <c r="A1" s="78" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B1" s="78" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="79" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="79" t="s">
+      <c r="D1" s="79" t="s">
         <v>85</v>
-      </c>
-      <c r="D1" s="79" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B2" s="80">
         <v>3924000</v>
@@ -8093,7 +8083,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B3" s="80">
         <v>4120000</v>
@@ -8107,7 +8097,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B4" s="80">
         <v>3956000</v>
@@ -8121,7 +8111,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B5" s="80">
         <v>3686000</v>
@@ -8135,7 +8125,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B6" s="80">
         <v>4075000</v>
@@ -8149,7 +8139,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B7" s="80">
         <v>4484000</v>
@@ -8163,7 +8153,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B8" s="80">
         <v>4707000</v>
@@ -8177,7 +8167,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B9" s="80">
         <v>4588000</v>
@@ -8191,7 +8181,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B10" s="80">
         <v>4308000</v>
@@ -8205,7 +8195,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B11" s="80">
         <v>4296000</v>
@@ -8219,7 +8209,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B12" s="80">
         <v>4635000</v>
@@ -8233,7 +8223,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B13" s="80">
         <v>4539000</v>
@@ -8247,7 +8237,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B14" s="80">
         <v>3905000</v>
@@ -8261,7 +8251,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B15" s="80">
         <v>3382000</v>
@@ -8275,7 +8265,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B16" s="80">
         <v>3388000</v>
@@ -8289,7 +8279,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B17" s="80">
         <v>2442000</v>
@@ -8303,7 +8293,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B18" s="80">
         <v>1737000</v>
@@ -8317,7 +8307,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B19" s="80">
         <v>1078000</v>
@@ -8331,7 +8321,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B20" s="80">
         <v>491000</v>
@@ -8345,7 +8335,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B21" s="80">
         <v>130000</v>
@@ -8359,7 +8349,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B22" s="80">
         <v>16000</v>
@@ -8395,40 +8385,40 @@
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="70.625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="10.875" style="8" customWidth="1"/>
+    <col min="1" max="1" width="70.6640625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="8" customWidth="1"/>
     <col min="3" max="3" width="7" style="8" customWidth="1"/>
-    <col min="4" max="4" width="9.875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" style="8" customWidth="1"/>
     <col min="5" max="5" width="16" style="8" customWidth="1"/>
     <col min="6" max="6" width="21" style="8" customWidth="1"/>
-    <col min="7" max="16384" width="10.875" style="8"/>
+    <col min="7" max="16384" width="10.83203125" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="64" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="64" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="64" t="s">
+      <c r="C1" s="64" t="s">
         <v>88</v>
       </c>
-      <c r="C1" s="64" t="s">
+      <c r="D1" s="64" t="s">
         <v>89</v>
       </c>
-      <c r="D1" s="64" t="s">
+      <c r="E1" s="64" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="64" t="s">
+      <c r="F1" s="64" t="s">
         <v>91</v>
       </c>
-      <c r="F1" s="64" t="s">
+    </row>
+    <row r="2" spans="1:6" ht="17">
+      <c r="A2" s="65" t="s">
         <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="65" t="s">
-        <v>93</v>
       </c>
       <c r="B2" s="66">
         <v>43862</v>
@@ -8436,15 +8426,15 @@
       <c r="C2" s="67"/>
       <c r="D2" s="67"/>
       <c r="E2" s="64" t="s">
+        <v>93</v>
+      </c>
+      <c r="F2" s="64" t="s">
         <v>94</v>
       </c>
-      <c r="F2" s="64" t="s">
+    </row>
+    <row r="3" spans="1:6" ht="17">
+      <c r="A3" s="65" t="s">
         <v>95</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="65" t="s">
-        <v>96</v>
       </c>
       <c r="B3" s="66">
         <v>44377</v>
@@ -8452,51 +8442,51 @@
       <c r="C3" s="67"/>
       <c r="D3" s="67"/>
       <c r="E3" s="64" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F3" s="64" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="17">
+      <c r="A4" s="65" t="s">
         <v>97</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="65" t="s">
-        <v>98</v>
       </c>
       <c r="B4" s="68"/>
       <c r="C4" s="69">
         <v>10</v>
       </c>
       <c r="D4" s="67" t="s">
+        <v>98</v>
+      </c>
+      <c r="E4" s="64" t="s">
         <v>99</v>
       </c>
-      <c r="E4" s="64" t="s">
+      <c r="F4" s="77" t="s">
         <v>100</v>
       </c>
-      <c r="F4" s="77" t="s">
+    </row>
+    <row r="5" spans="1:6" s="63" customFormat="1" ht="17">
+      <c r="A5" s="65" t="s">
         <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" s="63" customFormat="1">
-      <c r="A5" s="65" t="s">
-        <v>102</v>
       </c>
       <c r="B5" s="68"/>
       <c r="C5" s="70">
         <v>0</v>
       </c>
       <c r="D5" s="67" t="s">
+        <v>102</v>
+      </c>
+      <c r="E5" s="64" t="s">
         <v>103</v>
       </c>
-      <c r="E5" s="64" t="s">
+      <c r="F5" s="77" t="s">
         <v>104</v>
       </c>
-      <c r="F5" s="77" t="s">
+    </row>
+    <row r="6" spans="1:6" ht="17">
+      <c r="A6" s="65" t="s">
         <v>105</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="65" t="s">
-        <v>106</v>
       </c>
       <c r="B6" s="67"/>
       <c r="C6" s="71">
@@ -8504,267 +8494,267 @@
       </c>
       <c r="D6" s="67"/>
       <c r="E6" s="64" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F6" s="64" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="17">
+      <c r="A7" s="65" t="s">
         <v>107</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="65" t="s">
-        <v>108</v>
       </c>
       <c r="B7" s="67"/>
       <c r="C7" s="71">
         <v>2.5</v>
       </c>
       <c r="D7" s="67" t="s">
+        <v>102</v>
+      </c>
+      <c r="E7" s="64" t="s">
         <v>103</v>
       </c>
-      <c r="E7" s="64" t="s">
-        <v>104</v>
-      </c>
       <c r="F7" s="64" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="17">
+      <c r="A8" s="65" t="s">
         <v>109</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="65" t="s">
-        <v>110</v>
       </c>
       <c r="B8" s="67"/>
       <c r="C8" s="71">
         <v>10</v>
       </c>
       <c r="D8" s="67" t="s">
+        <v>102</v>
+      </c>
+      <c r="E8" s="64" t="s">
         <v>103</v>
       </c>
-      <c r="E8" s="64" t="s">
-        <v>104</v>
-      </c>
       <c r="F8" s="64" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="17">
+      <c r="A9" s="65" t="s">
         <v>111</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="65" t="s">
-        <v>112</v>
       </c>
       <c r="B9" s="67"/>
       <c r="C9" s="71">
         <v>90</v>
       </c>
       <c r="D9" s="67" t="s">
+        <v>102</v>
+      </c>
+      <c r="E9" s="64" t="s">
         <v>103</v>
       </c>
-      <c r="E9" s="64" t="s">
-        <v>104</v>
-      </c>
       <c r="F9" s="77" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="17">
+      <c r="A10" s="65" t="s">
         <v>113</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="31.5">
-      <c r="A10" s="65" t="s">
-        <v>114</v>
       </c>
       <c r="B10" s="67"/>
       <c r="C10" s="71">
         <v>90</v>
       </c>
       <c r="D10" s="67" t="s">
+        <v>102</v>
+      </c>
+      <c r="E10" s="64" t="s">
         <v>103</v>
       </c>
-      <c r="E10" s="64" t="s">
-        <v>104</v>
-      </c>
       <c r="F10" s="77" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="17">
+      <c r="A11" s="65" t="s">
         <v>115</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="65" t="s">
-        <v>116</v>
       </c>
       <c r="B11" s="67"/>
       <c r="C11" s="71">
         <v>90</v>
       </c>
       <c r="D11" s="67" t="s">
+        <v>102</v>
+      </c>
+      <c r="E11" s="64" t="s">
         <v>103</v>
       </c>
-      <c r="E11" s="64" t="s">
-        <v>104</v>
-      </c>
       <c r="F11" s="77" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="34">
+      <c r="A12" s="65" t="s">
         <v>117</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="31.5">
-      <c r="A12" s="65" t="s">
-        <v>118</v>
       </c>
       <c r="B12" s="67"/>
       <c r="C12" s="71">
         <v>0</v>
       </c>
       <c r="D12" s="67" t="s">
+        <v>102</v>
+      </c>
+      <c r="E12" s="64" t="s">
         <v>103</v>
       </c>
-      <c r="E12" s="64" t="s">
-        <v>104</v>
-      </c>
       <c r="F12" s="77" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="34">
+      <c r="A13" s="65" t="s">
         <v>119</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="31.5">
-      <c r="A13" s="65" t="s">
-        <v>120</v>
       </c>
       <c r="B13" s="67"/>
       <c r="C13" s="71">
         <v>0</v>
       </c>
       <c r="D13" s="67" t="s">
+        <v>102</v>
+      </c>
+      <c r="E13" s="64" t="s">
         <v>103</v>
       </c>
-      <c r="E13" s="64" t="s">
-        <v>104</v>
-      </c>
       <c r="F13" s="77" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="34">
+      <c r="A14" s="65" t="s">
         <v>121</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="31.5">
-      <c r="A14" s="65" t="s">
-        <v>122</v>
       </c>
       <c r="B14" s="67"/>
       <c r="C14" s="71">
         <v>0</v>
       </c>
       <c r="D14" s="67" t="s">
+        <v>102</v>
+      </c>
+      <c r="E14" s="64" t="s">
         <v>103</v>
       </c>
-      <c r="E14" s="64" t="s">
-        <v>104</v>
-      </c>
       <c r="F14" s="77" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="34">
+      <c r="A15" s="65" t="s">
         <v>123</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="31.5">
-      <c r="A15" s="65" t="s">
-        <v>124</v>
       </c>
       <c r="B15" s="67"/>
       <c r="C15" s="71">
         <v>0</v>
       </c>
       <c r="D15" s="67" t="s">
+        <v>102</v>
+      </c>
+      <c r="E15" s="64" t="s">
         <v>103</v>
       </c>
-      <c r="E15" s="64" t="s">
-        <v>104</v>
-      </c>
       <c r="F15" s="77" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="34">
+      <c r="A16" s="65" t="s">
         <v>125</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="31.5">
-      <c r="A16" s="65" t="s">
-        <v>126</v>
       </c>
       <c r="B16" s="67"/>
       <c r="C16" s="71">
         <v>0</v>
       </c>
       <c r="D16" s="67" t="s">
+        <v>102</v>
+      </c>
+      <c r="E16" s="64" t="s">
         <v>103</v>
       </c>
-      <c r="E16" s="64" t="s">
-        <v>104</v>
-      </c>
       <c r="F16" s="77" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="34">
+      <c r="A17" s="65" t="s">
         <v>127</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="31.5">
-      <c r="A17" s="65" t="s">
-        <v>128</v>
       </c>
       <c r="B17" s="67"/>
       <c r="C17" s="71">
         <v>0</v>
       </c>
       <c r="D17" s="67" t="s">
+        <v>102</v>
+      </c>
+      <c r="E17" s="64" t="s">
         <v>103</v>
       </c>
-      <c r="E17" s="64" t="s">
-        <v>104</v>
-      </c>
       <c r="F17" s="77" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="34">
+      <c r="A18" s="65" t="s">
         <v>129</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="31.5">
-      <c r="A18" s="65" t="s">
-        <v>130</v>
       </c>
       <c r="B18" s="67"/>
       <c r="C18" s="71">
         <v>0</v>
       </c>
       <c r="D18" s="67" t="s">
+        <v>102</v>
+      </c>
+      <c r="E18" s="64" t="s">
         <v>103</v>
       </c>
-      <c r="E18" s="64" t="s">
-        <v>104</v>
-      </c>
       <c r="F18" s="77" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="34">
+      <c r="A19" s="65" t="s">
         <v>131</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="31.5">
-      <c r="A19" s="65" t="s">
-        <v>132</v>
       </c>
       <c r="B19" s="67"/>
       <c r="C19" s="71">
         <v>10</v>
       </c>
       <c r="D19" s="67" t="s">
+        <v>102</v>
+      </c>
+      <c r="E19" s="64" t="s">
         <v>103</v>
       </c>
-      <c r="E19" s="64" t="s">
-        <v>104</v>
-      </c>
       <c r="F19" s="77" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="34">
+      <c r="A20" s="65" t="s">
         <v>133</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="31.5">
-      <c r="A20" s="65" t="s">
-        <v>134</v>
       </c>
       <c r="B20" s="67"/>
       <c r="C20" s="71">
         <v>10</v>
       </c>
       <c r="D20" s="67" t="s">
+        <v>102</v>
+      </c>
+      <c r="E20" s="64" t="s">
         <v>103</v>
       </c>
-      <c r="E20" s="64" t="s">
-        <v>104</v>
-      </c>
       <c r="F20" s="77" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="17">
+      <c r="A21" s="72" t="s">
         <v>135</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="72" t="s">
-        <v>136</v>
       </c>
       <c r="B21" s="73"/>
       <c r="C21" s="74">
@@ -8772,15 +8762,15 @@
       </c>
       <c r="D21" s="73"/>
       <c r="E21" s="77" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F21" s="77" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="17">
+      <c r="A22" s="72" t="s">
         <v>137</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="72" t="s">
-        <v>138</v>
       </c>
       <c r="B22" s="73"/>
       <c r="C22" s="71">
@@ -8788,42 +8778,42 @@
       </c>
       <c r="D22" s="73"/>
       <c r="E22" s="77" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F22" s="77" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="17">
+      <c r="A23" s="72" t="s">
         <v>139</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="72" t="s">
-        <v>140</v>
       </c>
       <c r="B23" s="73"/>
       <c r="C23" s="75">
         <v>5</v>
       </c>
       <c r="D23" s="73" t="s">
+        <v>102</v>
+      </c>
+      <c r="E23" s="77" t="s">
         <v>103</v>
       </c>
-      <c r="E23" s="77" t="s">
-        <v>104</v>
-      </c>
       <c r="F23" s="77" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="76" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C24" s="74">
         <v>100</v>
       </c>
       <c r="E24" s="77" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F24" s="77" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -8872,85 +8862,85 @@
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="38.5" style="8" customWidth="1"/>
-    <col min="2" max="2" width="28.125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="28.1640625" style="8" customWidth="1"/>
     <col min="3" max="3" width="13" style="8" customWidth="1"/>
-    <col min="4" max="4" width="9.875" style="8" customWidth="1"/>
-    <col min="5" max="5" width="7.875" style="8" customWidth="1"/>
-    <col min="6" max="6" width="13.625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="7.83203125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" style="8" customWidth="1"/>
     <col min="7" max="16384" width="11" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C1" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>91</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="44" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2" s="53" t="s">
         <v>145</v>
-      </c>
-      <c r="B2" s="53" t="s">
-        <v>146</v>
       </c>
       <c r="C2" s="44"/>
       <c r="D2" s="44"/>
       <c r="E2" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>147</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C3" s="4">
         <v>2.8</v>
       </c>
       <c r="D3" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>150</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>152</v>
-      </c>
-      <c r="C4" s="4">
-        <v>0</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -8990,438 +8980,438 @@
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="74.625" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.875" style="8" customWidth="1"/>
+    <col min="1" max="1" width="74.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.83203125" style="8" customWidth="1"/>
     <col min="3" max="3" width="5.5" style="8" customWidth="1"/>
     <col min="4" max="5" width="11" style="8"/>
-    <col min="6" max="6" width="7.375" style="8" customWidth="1"/>
-    <col min="7" max="7" width="10.875" style="8"/>
+    <col min="6" max="6" width="7.33203125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="8"/>
     <col min="8" max="16384" width="11" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="E1" s="9" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+    </row>
+    <row r="2" spans="1:5" ht="17">
       <c r="A2" s="55" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B2" s="56">
         <v>50</v>
       </c>
       <c r="C2" s="57" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>104</v>
-      </c>
       <c r="E2" s="9" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="17">
+      <c r="A3" s="55" t="s">
         <v>155</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="55" t="s">
-        <v>156</v>
       </c>
       <c r="B3" s="56">
         <v>3.5</v>
       </c>
       <c r="C3" s="57" t="s">
+        <v>156</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="E3" s="9" t="s">
+    </row>
+    <row r="4" spans="1:5" ht="17">
+      <c r="A4" s="55" t="s">
         <v>158</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="55" t="s">
-        <v>159</v>
       </c>
       <c r="B4" s="56">
         <v>4.5</v>
       </c>
       <c r="C4" s="57" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E4" s="9" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="17">
+      <c r="A5" s="55" t="s">
         <v>160</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="55" t="s">
-        <v>161</v>
       </c>
       <c r="B5" s="56">
         <v>1</v>
       </c>
       <c r="C5" s="57"/>
       <c r="D5" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="E5" s="9" t="s">
+    </row>
+    <row r="6" spans="1:5" ht="17">
+      <c r="A6" s="55" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="55" t="s">
+      <c r="B6" s="56">
+        <v>0</v>
+      </c>
+      <c r="C6" s="57" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="B6" s="56">
-        <v>0</v>
-      </c>
-      <c r="C6" s="57" t="s">
-        <v>103</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="E6" s="9" t="s">
+    </row>
+    <row r="7" spans="1:5" ht="17">
+      <c r="A7" s="55" t="s">
         <v>165</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="55" t="s">
-        <v>166</v>
       </c>
       <c r="B7" s="56">
         <v>150</v>
       </c>
       <c r="C7" s="57" t="s">
+        <v>166</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="E7" s="9" t="s">
+    </row>
+    <row r="8" spans="1:5" ht="17">
+      <c r="A8" s="55" t="s">
         <v>168</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="55" t="s">
-        <v>169</v>
       </c>
       <c r="B8" s="56">
         <v>15</v>
       </c>
       <c r="C8" s="57" t="s">
+        <v>102</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>104</v>
-      </c>
       <c r="E8" s="9" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="17">
+      <c r="A9" s="55" t="s">
         <v>170</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="55" t="s">
-        <v>171</v>
       </c>
       <c r="B9" s="56">
         <v>25</v>
       </c>
       <c r="C9" s="57" t="s">
+        <v>102</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>104</v>
-      </c>
       <c r="E9" s="9" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="17">
+      <c r="A10" s="55" t="s">
         <v>172</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="55" t="s">
-        <v>173</v>
       </c>
       <c r="B10" s="56">
         <v>40</v>
       </c>
       <c r="C10" s="57" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>104</v>
-      </c>
       <c r="E10" s="9" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="17">
+      <c r="A11" s="55" t="s">
         <v>174</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="55" t="s">
-        <v>175</v>
       </c>
       <c r="B11" s="58">
         <v>50</v>
       </c>
       <c r="C11" s="44" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>104</v>
-      </c>
       <c r="E11" s="9" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="34">
+      <c r="A12" s="55" t="s">
         <v>176</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="31.5">
-      <c r="A12" s="55" t="s">
-        <v>177</v>
       </c>
       <c r="B12" s="59">
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>104</v>
-      </c>
       <c r="E12" s="9" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="34">
+      <c r="A13" s="55" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="31.5">
-      <c r="A13" s="55" t="s">
+      <c r="B13" s="59">
+        <v>0</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E13" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="B13" s="59">
-        <v>0</v>
-      </c>
-      <c r="C13" s="8" t="s">
+    </row>
+    <row r="14" spans="1:5" ht="17">
+      <c r="A14" s="55" t="s">
+        <v>180</v>
+      </c>
+      <c r="B14" s="59">
+        <v>0</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="D13" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="31.5">
-      <c r="A14" s="55" t="s">
+      <c r="E14" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="B14" s="59">
-        <v>0</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="E14" s="9" t="s">
+    </row>
+    <row r="15" spans="1:5" ht="34">
+      <c r="A15" s="55" t="s">
         <v>182</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="31.5">
-      <c r="A15" s="55" t="s">
-        <v>183</v>
       </c>
       <c r="B15" s="59">
         <v>20</v>
       </c>
       <c r="C15" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D15" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="D15" s="9" t="s">
-        <v>104</v>
-      </c>
       <c r="E15" s="9" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="34">
+      <c r="A16" s="55" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="31.5">
-      <c r="A16" s="55" t="s">
+      <c r="B16" s="59">
+        <v>0</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E16" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="B16" s="59">
-        <v>0</v>
-      </c>
-      <c r="C16" s="8" t="s">
+    </row>
+    <row r="17" spans="1:5" ht="34">
+      <c r="A17" s="55" t="s">
+        <v>186</v>
+      </c>
+      <c r="B17" s="59">
+        <v>0</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D17" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="D16" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="31.5">
-      <c r="A17" s="55" t="s">
+      <c r="E17" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="B17" s="59">
-        <v>0</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="E17" s="9" t="s">
+    </row>
+    <row r="18" spans="1:5" ht="34">
+      <c r="A18" s="55" t="s">
         <v>188</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="31.5">
-      <c r="A18" s="55" t="s">
-        <v>189</v>
       </c>
       <c r="B18" s="59">
         <v>20</v>
       </c>
       <c r="C18" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D18" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="D18" s="9" t="s">
-        <v>104</v>
-      </c>
       <c r="E18" s="9" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="34">
+      <c r="A19" s="55" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="31.5">
-      <c r="A19" s="55" t="s">
+      <c r="B19" s="59">
+        <v>0</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E19" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="B19" s="59">
-        <v>0</v>
-      </c>
-      <c r="C19" s="8" t="s">
+    </row>
+    <row r="20" spans="1:5" s="54" customFormat="1" ht="34">
+      <c r="A20" s="55" t="s">
+        <v>192</v>
+      </c>
+      <c r="B20" s="60">
+        <v>0</v>
+      </c>
+      <c r="C20" s="54" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="61" t="s">
         <v>103</v>
       </c>
-      <c r="D19" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" s="54" customFormat="1" ht="31.5">
-      <c r="A20" s="55" t="s">
+      <c r="E20" s="61" t="s">
         <v>193</v>
-      </c>
-      <c r="B20" s="60">
-        <v>0</v>
-      </c>
-      <c r="C20" s="54" t="s">
-        <v>103</v>
-      </c>
-      <c r="D20" s="61" t="s">
-        <v>104</v>
-      </c>
-      <c r="E20" s="61" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="21" spans="1:5" s="54" customFormat="1" ht="30" customHeight="1">
       <c r="A21" s="62" t="s">
+        <v>194</v>
+      </c>
+      <c r="B21" s="60">
+        <v>0</v>
+      </c>
+      <c r="C21" s="54" t="s">
+        <v>102</v>
+      </c>
+      <c r="D21" s="61" t="s">
+        <v>103</v>
+      </c>
+      <c r="E21" s="61" t="s">
         <v>195</v>
-      </c>
-      <c r="B21" s="60">
-        <v>0</v>
-      </c>
-      <c r="C21" s="54" t="s">
-        <v>103</v>
-      </c>
-      <c r="D21" s="61" t="s">
-        <v>104</v>
-      </c>
-      <c r="E21" s="61" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="22" spans="1:5" s="54" customFormat="1" ht="32.25" customHeight="1">
       <c r="A22" s="55" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B22" s="60">
         <v>20</v>
       </c>
       <c r="C22" s="54" t="s">
+        <v>102</v>
+      </c>
+      <c r="D22" s="61" t="s">
         <v>103</v>
       </c>
-      <c r="D22" s="61" t="s">
-        <v>104</v>
-      </c>
       <c r="E22" s="61" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="54" customFormat="1" ht="17" customHeight="1">
+      <c r="A23" s="55" t="s">
+        <v>481</v>
+      </c>
+      <c r="B23" s="60">
+        <v>0</v>
+      </c>
+      <c r="C23" s="54" t="s">
+        <v>102</v>
+      </c>
+      <c r="D23" s="61" t="s">
+        <v>103</v>
+      </c>
+      <c r="E23" s="61" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="54" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A23" s="55" t="s">
+    <row r="24" spans="1:5" s="54" customFormat="1" ht="17">
+      <c r="A24" s="55" t="s">
         <v>482</v>
       </c>
-      <c r="B23" s="60">
-        <v>0</v>
-      </c>
-      <c r="C23" s="54" t="s">
+      <c r="B24" s="60">
+        <v>0</v>
+      </c>
+      <c r="C24" s="54" t="s">
+        <v>102</v>
+      </c>
+      <c r="D24" s="61" t="s">
         <v>103</v>
       </c>
-      <c r="D23" s="61" t="s">
-        <v>104</v>
-      </c>
-      <c r="E23" s="61" t="s">
+      <c r="E24" s="61" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="54" customFormat="1" ht="31.5">
-      <c r="A24" s="55" t="s">
-        <v>483</v>
-      </c>
-      <c r="B24" s="60">
-        <v>0</v>
-      </c>
-      <c r="C24" s="54" t="s">
-        <v>103</v>
-      </c>
-      <c r="D24" s="61" t="s">
-        <v>104</v>
-      </c>
-      <c r="E24" s="61" t="s">
+    <row r="25" spans="1:5" s="54" customFormat="1" ht="17">
+      <c r="A25" s="55" t="s">
         <v>199</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" s="54" customFormat="1">
-      <c r="A25" s="55" t="s">
-        <v>200</v>
       </c>
       <c r="B25" s="60">
         <v>100</v>
       </c>
       <c r="C25" s="54" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D25" s="61" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E25" s="61" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -9478,385 +9468,385 @@
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="71.5" style="8" customWidth="1"/>
     <col min="2" max="2" width="12.5" style="8" customWidth="1"/>
-    <col min="3" max="3" width="9.875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="7.875" style="8" customWidth="1"/>
-    <col min="5" max="5" width="18.375" style="8" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="7.83203125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" style="8" customWidth="1"/>
     <col min="6" max="16384" width="11" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>91</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B2" s="52">
         <v>160000</v>
       </c>
       <c r="C2" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>203</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B3" s="52">
         <v>8000</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B4" s="52">
         <v>8000</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B5" s="4">
         <v>5</v>
       </c>
       <c r="C5" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>104</v>
-      </c>
       <c r="E5" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B6" s="4">
         <v>1</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="44" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B7" s="53">
         <v>15</v>
       </c>
       <c r="C7" s="44" t="s">
+        <v>102</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>104</v>
-      </c>
       <c r="E7" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="44" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B8" s="53">
         <v>20</v>
       </c>
       <c r="C8" s="44" t="s">
+        <v>102</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>104</v>
-      </c>
       <c r="E8" s="9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="44" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B9" s="53">
         <v>50</v>
       </c>
       <c r="C9" s="44" t="s">
+        <v>102</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>104</v>
-      </c>
       <c r="E9" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="44" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B10" s="53">
         <v>50</v>
       </c>
       <c r="C10" s="44" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>104</v>
-      </c>
       <c r="E10" s="9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="44" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B11" s="53">
         <v>30</v>
       </c>
       <c r="C11" s="44" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>104</v>
-      </c>
       <c r="E11" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="44" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B12" s="53">
         <v>40</v>
       </c>
       <c r="C12" s="44" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>104</v>
-      </c>
       <c r="E12" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="44" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B13" s="53">
         <v>75</v>
       </c>
       <c r="C13" s="44" t="s">
+        <v>102</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="D13" s="9" t="s">
-        <v>104</v>
-      </c>
       <c r="E13" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="44" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B14" s="53">
         <v>75</v>
       </c>
       <c r="C14" s="44" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="D14" s="9" t="s">
-        <v>104</v>
-      </c>
       <c r="E14" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B15" s="4">
         <v>70</v>
       </c>
       <c r="C15" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D15" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="D15" s="9" t="s">
-        <v>104</v>
-      </c>
       <c r="E15" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B16" s="4">
         <v>90</v>
       </c>
       <c r="C16" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D16" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="D16" s="9" t="s">
-        <v>104</v>
-      </c>
       <c r="E16" s="9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B17" s="4">
         <v>90</v>
       </c>
       <c r="C17" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D17" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="D17" s="9" t="s">
-        <v>104</v>
-      </c>
       <c r="E17" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B18" s="4">
         <v>90</v>
       </c>
       <c r="C18" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D18" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="D18" s="9" t="s">
-        <v>104</v>
-      </c>
       <c r="E18" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B19" s="4">
         <v>90</v>
       </c>
       <c r="C19" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D19" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="D19" s="9" t="s">
-        <v>104</v>
-      </c>
       <c r="E19" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B20" s="4">
         <v>5</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B21" s="4">
         <v>7</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B22" s="4">
         <v>7</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -9895,40 +9885,40 @@
       <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="35" style="8" customWidth="1"/>
-    <col min="2" max="2" width="42.625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="8.375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="42.6640625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" style="8" customWidth="1"/>
     <col min="4" max="4" width="8" style="8" customWidth="1"/>
     <col min="5" max="5" width="11" style="8"/>
-    <col min="6" max="6" width="20.625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" style="8" customWidth="1"/>
     <col min="7" max="16384" width="11" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>246</v>
-      </c>
       <c r="C1" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>91</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="12"/>
@@ -9936,27 +9926,27 @@
       <c r="E2" s="46"/>
       <c r="F2" s="47"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" ht="17">
       <c r="A3" s="13"/>
       <c r="B3" s="14" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C3" s="15">
         <v>50</v>
       </c>
       <c r="D3" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3" s="48" t="s">
         <v>103</v>
       </c>
-      <c r="E3" s="48" t="s">
-        <v>104</v>
-      </c>
       <c r="F3" s="49" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="18"/>
@@ -9964,43 +9954,43 @@
       <c r="E4" s="46"/>
       <c r="F4" s="47"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" ht="17">
       <c r="A5" s="20"/>
       <c r="B5" s="21" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C5" s="22">
         <v>4</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="48" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F5" s="49" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="17">
       <c r="A6" s="20"/>
       <c r="B6" s="21" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C6" s="22">
         <v>80</v>
       </c>
       <c r="D6" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="E6" s="48" t="s">
         <v>103</v>
       </c>
-      <c r="E6" s="48" t="s">
-        <v>104</v>
-      </c>
       <c r="F6" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B7" s="17"/>
       <c r="C7" s="18"/>
@@ -10008,81 +9998,81 @@
       <c r="E7" s="46"/>
       <c r="F7" s="47"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" ht="17">
       <c r="A8" s="13"/>
       <c r="B8" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C8" s="15">
         <v>14</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E8" s="48" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F8" s="49" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="31.5">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="34">
       <c r="A9" s="13"/>
       <c r="B9" s="21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C9" s="22">
         <v>2</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E9" s="48" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F9" s="49" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="31.5">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="34">
       <c r="A10" s="13"/>
       <c r="B10" s="14" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C10" s="15">
         <v>20</v>
       </c>
       <c r="D10" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="E10" s="48" t="s">
         <v>103</v>
       </c>
-      <c r="E10" s="48" t="s">
-        <v>104</v>
-      </c>
       <c r="F10" s="49" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="31.5">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="34">
       <c r="A11" s="23"/>
       <c r="B11" s="24" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C11" s="25">
         <v>100</v>
       </c>
       <c r="D11" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="E11" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="E11" s="50" t="s">
-        <v>104</v>
-      </c>
       <c r="F11" s="51" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="27" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B12" s="28"/>
       <c r="C12" s="29"/>
@@ -10090,27 +10080,27 @@
       <c r="E12" s="46"/>
       <c r="F12" s="47"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" ht="17">
       <c r="A13" s="31"/>
       <c r="B13" s="32" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C13" s="33">
         <v>100</v>
       </c>
       <c r="D13" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="E13" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="E13" s="50" t="s">
-        <v>104</v>
-      </c>
       <c r="F13" s="51" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="27" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B14" s="28"/>
       <c r="C14" s="29"/>
@@ -10118,27 +10108,27 @@
       <c r="E14" s="46"/>
       <c r="F14" s="47"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" ht="17">
       <c r="A15" s="31"/>
       <c r="B15" s="35" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C15" s="33">
         <v>20</v>
       </c>
       <c r="D15" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="E15" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="E15" s="50" t="s">
-        <v>104</v>
-      </c>
       <c r="F15" s="51" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="27" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B16" s="28"/>
       <c r="C16" s="29"/>
@@ -10146,27 +10136,27 @@
       <c r="E16" s="46"/>
       <c r="F16" s="47"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" ht="17">
       <c r="A17" s="31"/>
       <c r="B17" s="36" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C17" s="37">
         <v>15</v>
       </c>
       <c r="D17" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="E17" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="E17" s="50" t="s">
-        <v>104</v>
-      </c>
       <c r="F17" s="51" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="27" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B18" s="28"/>
       <c r="C18" s="29"/>
@@ -10174,45 +10164,45 @@
       <c r="E18" s="46"/>
       <c r="F18" s="47"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" ht="17">
       <c r="A19" s="38"/>
       <c r="B19" s="35" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C19" s="39">
         <v>85</v>
       </c>
       <c r="D19" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="E19" s="48" t="s">
         <v>103</v>
       </c>
-      <c r="E19" s="48" t="s">
-        <v>104</v>
-      </c>
       <c r="F19" s="49" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="31.5">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="34">
       <c r="A20" s="31"/>
       <c r="B20" s="32" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C20" s="33">
         <v>10</v>
       </c>
       <c r="D20" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="E20" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="E20" s="50" t="s">
-        <v>104</v>
-      </c>
       <c r="F20" s="51" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="27" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B21" s="28"/>
       <c r="C21" s="29"/>
@@ -10220,27 +10210,27 @@
       <c r="E21" s="46"/>
       <c r="F21" s="47"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" ht="17">
       <c r="A22" s="31"/>
       <c r="B22" s="32" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C22" s="33">
         <v>20</v>
       </c>
       <c r="D22" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="E22" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="E22" s="50" t="s">
-        <v>104</v>
-      </c>
       <c r="F22" s="51" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="27" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B23" s="28"/>
       <c r="C23" s="29"/>
@@ -10248,45 +10238,45 @@
       <c r="E23" s="46"/>
       <c r="F23" s="47"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" ht="17">
       <c r="A24" s="38"/>
       <c r="B24" s="35" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C24" s="39">
         <v>95</v>
       </c>
       <c r="D24" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="E24" s="48" t="s">
         <v>103</v>
       </c>
-      <c r="E24" s="48" t="s">
-        <v>104</v>
-      </c>
       <c r="F24" s="49" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="17">
       <c r="A25" s="31"/>
       <c r="B25" s="32" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C25" s="33">
         <v>70</v>
       </c>
       <c r="D25" s="34" t="s">
+        <v>282</v>
+      </c>
+      <c r="E25" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="F25" s="51" t="s">
         <v>283</v>
-      </c>
-      <c r="E25" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="F25" s="51" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="27" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B26" s="28"/>
       <c r="C26" s="29"/>
@@ -10294,99 +10284,99 @@
       <c r="E26" s="46"/>
       <c r="F26" s="47"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" ht="17">
       <c r="A27" s="38"/>
       <c r="B27" s="35" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C27" s="39">
         <v>4</v>
       </c>
       <c r="D27" s="40" t="s">
+        <v>286</v>
+      </c>
+      <c r="E27" s="48" t="s">
+        <v>103</v>
+      </c>
+      <c r="F27" s="49" t="s">
         <v>287</v>
       </c>
-      <c r="E27" s="48" t="s">
-        <v>104</v>
-      </c>
-      <c r="F27" s="49" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+    </row>
+    <row r="28" spans="1:6" ht="17">
       <c r="A28" s="38"/>
       <c r="B28" s="14" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C28" s="15">
         <v>100</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E28" s="48" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F28" s="49" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="31.5">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="34">
       <c r="A29" s="38"/>
       <c r="B29" s="14" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C29" s="15">
         <v>100</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E29" s="48" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F29" s="49" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="17">
       <c r="A30" s="38"/>
       <c r="B30" s="14" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C30" s="41">
         <v>100</v>
       </c>
       <c r="D30" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="E30" s="48" t="s">
         <v>103</v>
       </c>
-      <c r="E30" s="48" t="s">
-        <v>104</v>
-      </c>
       <c r="F30" s="49" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="17">
       <c r="A31" s="31"/>
       <c r="B31" s="24" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C31" s="25">
         <v>100</v>
       </c>
       <c r="D31" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="E31" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="E31" s="50" t="s">
-        <v>104</v>
-      </c>
       <c r="F31" s="51" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="27" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B32" s="28"/>
       <c r="C32" s="29"/>
@@ -10394,45 +10384,45 @@
       <c r="E32" s="46"/>
       <c r="F32" s="47"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" ht="17">
       <c r="A33" s="38"/>
       <c r="B33" s="35" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C33" s="39">
         <v>80</v>
       </c>
       <c r="D33" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="E33" s="48" t="s">
         <v>103</v>
       </c>
-      <c r="E33" s="48" t="s">
-        <v>104</v>
-      </c>
       <c r="F33" s="49" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="17">
       <c r="A34" s="38"/>
       <c r="B34" s="35" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C34" s="39">
         <v>14</v>
       </c>
       <c r="D34" s="40" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E34" s="48" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F34" s="49" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="27" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B35" s="28"/>
       <c r="C35" s="29"/>
@@ -10440,94 +10430,94 @@
       <c r="E35" s="46"/>
       <c r="F35" s="47"/>
     </row>
-    <row r="36" spans="1:6" ht="31.5">
+    <row r="36" spans="1:6" ht="34">
       <c r="A36" s="38"/>
       <c r="B36" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C36" s="42">
         <v>82</v>
       </c>
       <c r="D36" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="E36" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="E36" s="9" t="s">
-        <v>104</v>
-      </c>
       <c r="F36" s="49" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="31.5">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="34">
       <c r="A37" s="44"/>
       <c r="B37" s="36" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C37" s="42">
         <v>64</v>
       </c>
       <c r="D37" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="E37" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="E37" s="9" t="s">
-        <v>104</v>
-      </c>
       <c r="F37" s="49" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="31.5">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="34">
       <c r="A38" s="38"/>
       <c r="B38" s="36" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C38" s="42">
         <v>82</v>
       </c>
       <c r="D38" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="E38" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="E38" s="9" t="s">
-        <v>104</v>
-      </c>
       <c r="F38" s="49" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="31.5">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="34">
       <c r="A39" s="38"/>
       <c r="B39" s="35" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C39" s="45">
         <v>64</v>
       </c>
       <c r="D39" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="E39" s="48" t="s">
         <v>103</v>
       </c>
-      <c r="E39" s="48" t="s">
-        <v>104</v>
-      </c>
       <c r="F39" s="49" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="17">
       <c r="A40" s="31"/>
       <c r="B40" s="32" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C40" s="37">
         <v>87</v>
       </c>
       <c r="D40" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="E40" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="E40" s="50" t="s">
-        <v>104</v>
-      </c>
       <c r="F40" s="51" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
   </sheetData>

--- a/Template_CoMoCOVID-19App_v17.xlsx
+++ b/Template_CoMoCOVID-19App_v17.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10323"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ricardo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivier/Documents/Projets/CoMo/como/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E1ADBFA-C958-4BAF-976B-96B72300FD47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AA923D5-07D8-7D41-9028-C9D0BAC3C1B7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="648" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="27880" windowHeight="16000" tabRatio="648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -30,16 +30,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Interventions Param'!$A$1:$F$31</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -49,9 +39,6 @@
     <t>Template v17</t>
   </si>
   <si>
-    <t>v17.d</t>
-  </si>
-  <si>
     <t>Instructions</t>
   </si>
   <si>
@@ -3139,6 +3126,9 @@
       </rPr>
       <t xml:space="preserve"> infected and vaccinated</t>
     </r>
+  </si>
+  <si>
+    <t>v17.e</t>
   </si>
 </sst>
 </file>
@@ -3652,9 +3642,6 @@
   </cellStyles>
   <dxfs count="3">
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
         <patternFill patternType="solid">
           <bgColor theme="2"/>
@@ -3669,6 +3656,9 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
         <patternFill patternType="solid">
           <bgColor theme="2"/>
@@ -3692,8 +3682,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="E1:F15" totalsRowShown="0">
   <autoFilter ref="E1:F15" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Intervention" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Unit Intervention" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Intervention" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Unit Intervention" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3959,13 +3949,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="76.625" customWidth="1"/>
+    <col min="1" max="1" width="76.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -3973,37 +3963,37 @@
         <v>0</v>
       </c>
       <c r="B1" s="86" t="s">
-        <v>1</v>
+        <v>483</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="21">
       <c r="A2" s="87" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="88" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="89" customHeight="1">
+      <c r="A8" s="89" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="89.1" customHeight="1">
-      <c r="A8" s="89" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4011,93 +4001,93 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="90" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F15" s="95"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="90" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F16" s="95"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="90" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F17" s="95"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="90" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F18" s="95"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="90" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F19" s="95"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="90" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F20" s="95"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="90" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F21" s="95"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="90" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F22" s="95"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="90" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F23" s="95"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F24" s="95"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="90" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F25" s="95"/>
     </row>
     <row r="26" spans="1:6" s="84" customFormat="1">
       <c r="A26" s="90" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B26"/>
       <c r="D26"/>
@@ -4105,86 +4095,86 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="90" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F27" s="95"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="90" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F28" s="95"/>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="90" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F29" s="95"/>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="90" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F30" s="95"/>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="90" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F31" s="95"/>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="90" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F32" s="95"/>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="90" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F33" s="95"/>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="90" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F34" s="95"/>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="90" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F35" s="95"/>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="83" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="34">
+      <c r="A38" s="91" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="31.5">
-      <c r="A38" s="91" t="s">
+    <row r="39" spans="1:6" ht="34">
+      <c r="A39" s="92" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="31.5">
-      <c r="A39" s="92" t="s">
+    <row r="40" spans="1:6" ht="34">
+      <c r="A40" s="92" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="31.5">
-      <c r="A40" s="92" t="s">
+    <row r="41" spans="1:6" ht="17">
+      <c r="A41" s="92" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="92" t="s">
+    <row r="42" spans="1:6" ht="17">
+      <c r="A42" s="92" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="92" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -4192,67 +4182,67 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="93" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="34">
+      <c r="A46" s="89" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="31.5">
-      <c r="A46" s="89" t="s">
+    <row r="47" spans="1:6" ht="17">
+      <c r="A47" s="89" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="89" t="s">
+    <row r="48" spans="1:6" ht="17">
+      <c r="A48" s="89" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="89" t="s">
+    <row r="49" spans="1:1" ht="17">
+      <c r="A49" s="89" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="89" t="s">
+    <row r="50" spans="1:1" ht="34">
+      <c r="A50" s="89" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" ht="31.5">
-      <c r="A50" s="89" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="94" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="95" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="96" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" ht="34">
+      <c r="A57" s="89" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="57" spans="1:1" ht="31.5">
-      <c r="A57" s="89" t="s">
+    <row r="58" spans="1:1" ht="34">
+      <c r="A58" s="89" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="31.5">
-      <c r="A58" s="89" t="s">
+    <row r="59" spans="1:1" ht="68">
+      <c r="A59" s="89" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" ht="63">
-      <c r="A59" s="89" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="60" spans="1:1">
@@ -4260,22 +4250,22 @@
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="96" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -4294,44 +4284,44 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="31.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="31.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="21" style="1" customWidth="1"/>
-    <col min="7" max="7" width="24.125" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.875" style="1"/>
+    <col min="7" max="7" width="24.1640625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" ht="17">
       <c r="A1" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>316</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B2" s="5">
         <v>43876</v>
@@ -4348,12 +4338,12 @@
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B3" s="5">
         <v>43876</v>
@@ -4370,12 +4360,12 @@
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B4" s="5">
         <v>43937</v>
@@ -4392,12 +4382,12 @@
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B5" s="5">
         <v>43876</v>
@@ -4414,12 +4404,12 @@
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B6" s="5">
         <v>43876</v>
@@ -4436,12 +4426,12 @@
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B7" s="5">
         <v>43937</v>
@@ -4458,12 +4448,12 @@
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B8" s="5">
         <v>43876</v>
@@ -4480,12 +4470,12 @@
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B9" s="5">
         <v>43876</v>
@@ -4502,12 +4492,12 @@
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B10" s="5">
         <v>43876</v>
@@ -4524,12 +4514,12 @@
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B11" s="5">
         <v>43876</v>
@@ -4546,12 +4536,12 @@
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B12" s="5">
         <v>43866</v>
@@ -4568,12 +4558,12 @@
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B13" s="5">
         <v>43891</v>
@@ -4589,15 +4579,15 @@
         <v>thousand tests</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B14" s="5">
         <v>43891</v>
@@ -4613,15 +4603,15 @@
         <v>%</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B15" s="5">
         <v>43941</v>
@@ -4638,12 +4628,12 @@
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B16" s="5">
         <v>43983</v>
@@ -4659,10 +4649,10 @@
         <v>%</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -5675,7 +5665,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F2:F100">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>NOT(OR($A2="Vaccination",$A2="School Closures",$A2="Mass Testing"))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5713,7 +5703,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5727,29 +5717,29 @@
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="4" width="10.875" style="1"/>
-    <col min="5" max="5" width="39.875" style="1" customWidth="1"/>
+    <col min="1" max="4" width="10.83203125" style="1"/>
+    <col min="5" max="5" width="39.83203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="18" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.875" style="1"/>
+    <col min="7" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>326</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -5757,16 +5747,16 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -5774,835 +5764,835 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="C4" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="C5" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="C6" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>331</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="C7" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="C8" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="C9" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="C10" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>336</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="C11" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="C12" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="C13" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="C14" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="C15" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>342</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="C16" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="17" spans="3:3">
       <c r="C17" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="18" spans="3:3">
       <c r="C18" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="22" spans="3:3">
       <c r="C22" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="23" spans="3:3">
       <c r="C23" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="26" spans="3:3">
       <c r="C26" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="28" spans="3:3">
       <c r="C28" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="29" spans="3:3">
       <c r="C29" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="30" spans="3:3">
       <c r="C30" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="45" spans="3:3">
       <c r="C45" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="51" spans="3:3">
       <c r="C51" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="59" spans="3:3">
       <c r="C59" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="60" spans="3:3">
       <c r="C60" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="65" spans="3:3">
       <c r="C65" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="66" spans="3:3">
       <c r="C66" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="67" spans="3:3">
       <c r="C67" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="68" spans="3:3">
       <c r="C68" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="69" spans="3:3">
       <c r="C69" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="70" spans="3:3">
       <c r="C70" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="71" spans="3:3">
       <c r="C71" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="72" spans="3:3">
       <c r="C72" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="73" spans="3:3">
       <c r="C73" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="74" spans="3:3">
       <c r="C74" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="75" spans="3:3">
       <c r="C75" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="76" spans="3:3">
       <c r="C76" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="77" spans="3:3">
       <c r="C77" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="78" spans="3:3">
       <c r="C78" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="79" spans="3:3">
       <c r="C79" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="80" spans="3:3">
       <c r="C80" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="83" spans="3:3">
       <c r="C83" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="85" spans="3:3">
       <c r="C85" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="87" spans="3:3">
       <c r="C87" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="88" spans="3:3">
       <c r="C88" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="89" spans="3:3">
       <c r="C89" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="90" spans="3:3">
       <c r="C90" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="91" spans="3:3">
       <c r="C91" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="92" spans="3:3">
       <c r="C92" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="93" spans="3:3">
       <c r="C93" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="94" spans="3:3">
       <c r="C94" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="95" spans="3:3">
       <c r="C95" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="96" spans="3:3">
       <c r="C96" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="97" spans="3:3">
       <c r="C97" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="98" spans="3:3">
       <c r="C98" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="99" spans="3:3">
       <c r="C99" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="100" spans="3:3">
       <c r="C100" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="101" spans="3:3">
       <c r="C101" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="102" spans="3:3">
       <c r="C102" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="103" spans="3:3">
       <c r="C103" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="104" spans="3:3">
       <c r="C104" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="105" spans="3:3">
       <c r="C105" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="106" spans="3:3">
       <c r="C106" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="107" spans="3:3">
       <c r="C107" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="108" spans="3:3">
       <c r="C108" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="109" spans="3:3">
       <c r="C109" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="110" spans="3:3">
       <c r="C110" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="111" spans="3:3">
       <c r="C111" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="112" spans="3:3">
       <c r="C112" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="113" spans="3:3">
       <c r="C113" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="114" spans="3:3">
       <c r="C114" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="115" spans="3:3">
       <c r="C115" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="116" spans="3:3">
       <c r="C116" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="117" spans="3:3">
       <c r="C117" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="118" spans="3:3">
       <c r="C118" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="119" spans="3:3">
       <c r="C119" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="120" spans="3:3">
       <c r="C120" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="121" spans="3:3">
       <c r="C121" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="122" spans="3:3">
       <c r="C122" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="123" spans="3:3">
       <c r="C123" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="124" spans="3:3">
       <c r="C124" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="125" spans="3:3">
       <c r="C125" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="126" spans="3:3">
       <c r="C126" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="127" spans="3:3">
       <c r="C127" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="128" spans="3:3">
       <c r="C128" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="129" spans="3:3">
       <c r="C129" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="130" spans="3:3">
       <c r="C130" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="131" spans="3:3">
       <c r="C131" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="132" spans="3:3">
       <c r="C132" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="133" spans="3:3">
       <c r="C133" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="134" spans="3:3">
       <c r="C134" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="135" spans="3:3">
       <c r="C135" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="136" spans="3:3">
       <c r="C136" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="137" spans="3:3">
       <c r="C137" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="138" spans="3:3">
       <c r="C138" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="139" spans="3:3">
       <c r="C139" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="140" spans="3:3">
       <c r="C140" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="141" spans="3:3">
       <c r="C141" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="142" spans="3:3">
       <c r="C142" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="143" spans="3:3">
       <c r="C143" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="144" spans="3:3">
       <c r="C144" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="145" spans="3:3">
       <c r="C145" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="146" spans="3:3">
       <c r="C146" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="147" spans="3:3">
       <c r="C147" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="148" spans="3:3">
       <c r="C148" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="149" spans="3:3">
       <c r="C149" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="150" spans="3:3">
       <c r="C150" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="151" spans="3:3">
       <c r="C151" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="152" spans="3:3">
       <c r="C152" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="153" spans="3:3">
       <c r="C153" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
   </sheetData>
@@ -6625,25 +6615,25 @@
       <selection pane="bottomLeft" activeCell="D92" sqref="D92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="3" width="11" style="4"/>
-    <col min="4" max="4" width="13.625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" style="4" customWidth="1"/>
     <col min="5" max="16384" width="11" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="63">
+    <row r="1" spans="1:4" ht="68">
       <c r="A1" s="78" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="79" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="79" t="s">
+      <c r="C1" s="79" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="79" t="s">
+      <c r="D1" s="79" t="s">
         <v>58</v>
-      </c>
-      <c r="D1" s="79" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -7777,32 +7767,32 @@
   </sheetPr>
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="12.125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="17.25" style="8" customWidth="1"/>
-    <col min="3" max="3" width="21.75" style="8" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" style="8" customWidth="1"/>
     <col min="4" max="16384" width="11" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="113.25" customHeight="1">
       <c r="A1" s="82" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="C1" s="97" t="s">
         <v>61</v>
-      </c>
-      <c r="C1" s="97" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B2" s="83">
         <v>0.6</v>
@@ -7813,7 +7803,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B3" s="83">
         <v>0.6</v>
@@ -7824,7 +7814,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B4" s="83">
         <v>0.6</v>
@@ -7835,7 +7825,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B5" s="83">
         <v>0.6</v>
@@ -7846,7 +7836,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B6" s="83">
         <v>1.1000000000000001</v>
@@ -7857,7 +7847,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B7" s="83">
         <v>1.1000000000000001</v>
@@ -7868,7 +7858,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B8" s="83">
         <v>1.9</v>
@@ -7879,7 +7869,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B9" s="83">
         <v>1.9</v>
@@ -7890,7 +7880,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B10" s="83">
         <v>3.3</v>
@@ -7901,7 +7891,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B11" s="83">
         <v>3.3</v>
@@ -7912,7 +7902,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B12" s="83">
         <v>6.5</v>
@@ -7923,7 +7913,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B13" s="83">
         <v>6.5</v>
@@ -7934,7 +7924,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B14" s="83">
         <v>12.6</v>
@@ -7945,7 +7935,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B15" s="83">
         <v>12.6</v>
@@ -7956,7 +7946,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B16" s="83">
         <v>21</v>
@@ -7967,7 +7957,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B17" s="83">
         <v>21</v>
@@ -7978,7 +7968,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B18" s="83">
         <v>31.6</v>
@@ -7989,7 +7979,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B19" s="83">
         <v>31.6</v>
@@ -8000,7 +7990,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B20" s="83">
         <v>31.6</v>
@@ -8011,7 +8001,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B21" s="83">
         <v>31.6</v>
@@ -8022,7 +8012,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B22" s="83">
         <v>31.6</v>
@@ -8053,33 +8043,33 @@
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="12.125" style="78" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" style="78" customWidth="1"/>
     <col min="2" max="2" width="14" style="78" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="78" customWidth="1"/>
     <col min="4" max="5" width="11" style="78"/>
-    <col min="6" max="6" width="11.125" style="78" customWidth="1"/>
+    <col min="6" max="6" width="11.1640625" style="78" customWidth="1"/>
     <col min="7" max="16384" width="11" style="78"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="63">
+    <row r="1" spans="1:4" ht="68">
       <c r="A1" s="78" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B1" s="78" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="79" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="79" t="s">
+      <c r="D1" s="79" t="s">
         <v>85</v>
-      </c>
-      <c r="D1" s="79" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B2" s="80">
         <v>3924000</v>
@@ -8093,7 +8083,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B3" s="80">
         <v>4120000</v>
@@ -8107,7 +8097,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B4" s="80">
         <v>3956000</v>
@@ -8121,7 +8111,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B5" s="80">
         <v>3686000</v>
@@ -8135,7 +8125,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B6" s="80">
         <v>4075000</v>
@@ -8149,7 +8139,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B7" s="80">
         <v>4484000</v>
@@ -8163,7 +8153,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B8" s="80">
         <v>4707000</v>
@@ -8177,7 +8167,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B9" s="80">
         <v>4588000</v>
@@ -8191,7 +8181,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B10" s="80">
         <v>4308000</v>
@@ -8205,7 +8195,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B11" s="80">
         <v>4296000</v>
@@ -8219,7 +8209,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B12" s="80">
         <v>4635000</v>
@@ -8233,7 +8223,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B13" s="80">
         <v>4539000</v>
@@ -8247,7 +8237,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B14" s="80">
         <v>3905000</v>
@@ -8261,7 +8251,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B15" s="80">
         <v>3382000</v>
@@ -8275,7 +8265,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B16" s="80">
         <v>3388000</v>
@@ -8289,7 +8279,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B17" s="80">
         <v>2442000</v>
@@ -8303,7 +8293,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B18" s="80">
         <v>1737000</v>
@@ -8317,7 +8307,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B19" s="80">
         <v>1078000</v>
@@ -8331,7 +8321,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B20" s="80">
         <v>491000</v>
@@ -8345,7 +8335,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B21" s="80">
         <v>130000</v>
@@ -8359,7 +8349,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B22" s="80">
         <v>16000</v>
@@ -8395,40 +8385,40 @@
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="70.625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="10.875" style="8" customWidth="1"/>
+    <col min="1" max="1" width="70.6640625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="8" customWidth="1"/>
     <col min="3" max="3" width="7" style="8" customWidth="1"/>
-    <col min="4" max="4" width="9.875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" style="8" customWidth="1"/>
     <col min="5" max="5" width="16" style="8" customWidth="1"/>
     <col min="6" max="6" width="21" style="8" customWidth="1"/>
-    <col min="7" max="16384" width="10.875" style="8"/>
+    <col min="7" max="16384" width="10.83203125" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="64" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="64" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="64" t="s">
+      <c r="C1" s="64" t="s">
         <v>88</v>
       </c>
-      <c r="C1" s="64" t="s">
+      <c r="D1" s="64" t="s">
         <v>89</v>
       </c>
-      <c r="D1" s="64" t="s">
+      <c r="E1" s="64" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="64" t="s">
+      <c r="F1" s="64" t="s">
         <v>91</v>
       </c>
-      <c r="F1" s="64" t="s">
+    </row>
+    <row r="2" spans="1:6" ht="17">
+      <c r="A2" s="65" t="s">
         <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="65" t="s">
-        <v>93</v>
       </c>
       <c r="B2" s="66">
         <v>43862</v>
@@ -8436,15 +8426,15 @@
       <c r="C2" s="67"/>
       <c r="D2" s="67"/>
       <c r="E2" s="64" t="s">
+        <v>93</v>
+      </c>
+      <c r="F2" s="64" t="s">
         <v>94</v>
       </c>
-      <c r="F2" s="64" t="s">
+    </row>
+    <row r="3" spans="1:6" ht="17">
+      <c r="A3" s="65" t="s">
         <v>95</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="65" t="s">
-        <v>96</v>
       </c>
       <c r="B3" s="66">
         <v>44377</v>
@@ -8452,51 +8442,51 @@
       <c r="C3" s="67"/>
       <c r="D3" s="67"/>
       <c r="E3" s="64" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F3" s="64" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="17">
+      <c r="A4" s="65" t="s">
         <v>97</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="65" t="s">
-        <v>98</v>
       </c>
       <c r="B4" s="68"/>
       <c r="C4" s="69">
         <v>10</v>
       </c>
       <c r="D4" s="67" t="s">
+        <v>98</v>
+      </c>
+      <c r="E4" s="64" t="s">
         <v>99</v>
       </c>
-      <c r="E4" s="64" t="s">
+      <c r="F4" s="77" t="s">
         <v>100</v>
       </c>
-      <c r="F4" s="77" t="s">
+    </row>
+    <row r="5" spans="1:6" s="63" customFormat="1" ht="17">
+      <c r="A5" s="65" t="s">
         <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" s="63" customFormat="1">
-      <c r="A5" s="65" t="s">
-        <v>102</v>
       </c>
       <c r="B5" s="68"/>
       <c r="C5" s="70">
         <v>0</v>
       </c>
       <c r="D5" s="67" t="s">
+        <v>102</v>
+      </c>
+      <c r="E5" s="64" t="s">
         <v>103</v>
       </c>
-      <c r="E5" s="64" t="s">
+      <c r="F5" s="77" t="s">
         <v>104</v>
       </c>
-      <c r="F5" s="77" t="s">
+    </row>
+    <row r="6" spans="1:6" ht="17">
+      <c r="A6" s="65" t="s">
         <v>105</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="65" t="s">
-        <v>106</v>
       </c>
       <c r="B6" s="67"/>
       <c r="C6" s="71">
@@ -8504,267 +8494,267 @@
       </c>
       <c r="D6" s="67"/>
       <c r="E6" s="64" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F6" s="64" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="17">
+      <c r="A7" s="65" t="s">
         <v>107</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="65" t="s">
-        <v>108</v>
       </c>
       <c r="B7" s="67"/>
       <c r="C7" s="71">
         <v>2.5</v>
       </c>
       <c r="D7" s="67" t="s">
+        <v>102</v>
+      </c>
+      <c r="E7" s="64" t="s">
         <v>103</v>
       </c>
-      <c r="E7" s="64" t="s">
-        <v>104</v>
-      </c>
       <c r="F7" s="64" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="17">
+      <c r="A8" s="65" t="s">
         <v>109</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="65" t="s">
-        <v>110</v>
       </c>
       <c r="B8" s="67"/>
       <c r="C8" s="71">
         <v>10</v>
       </c>
       <c r="D8" s="67" t="s">
+        <v>102</v>
+      </c>
+      <c r="E8" s="64" t="s">
         <v>103</v>
       </c>
-      <c r="E8" s="64" t="s">
-        <v>104</v>
-      </c>
       <c r="F8" s="64" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="17">
+      <c r="A9" s="65" t="s">
         <v>111</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="65" t="s">
-        <v>112</v>
       </c>
       <c r="B9" s="67"/>
       <c r="C9" s="71">
         <v>90</v>
       </c>
       <c r="D9" s="67" t="s">
+        <v>102</v>
+      </c>
+      <c r="E9" s="64" t="s">
         <v>103</v>
       </c>
-      <c r="E9" s="64" t="s">
-        <v>104</v>
-      </c>
       <c r="F9" s="77" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="17">
+      <c r="A10" s="65" t="s">
         <v>113</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="31.5">
-      <c r="A10" s="65" t="s">
-        <v>114</v>
       </c>
       <c r="B10" s="67"/>
       <c r="C10" s="71">
         <v>90</v>
       </c>
       <c r="D10" s="67" t="s">
+        <v>102</v>
+      </c>
+      <c r="E10" s="64" t="s">
         <v>103</v>
       </c>
-      <c r="E10" s="64" t="s">
-        <v>104</v>
-      </c>
       <c r="F10" s="77" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="17">
+      <c r="A11" s="65" t="s">
         <v>115</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="65" t="s">
-        <v>116</v>
       </c>
       <c r="B11" s="67"/>
       <c r="C11" s="71">
         <v>90</v>
       </c>
       <c r="D11" s="67" t="s">
+        <v>102</v>
+      </c>
+      <c r="E11" s="64" t="s">
         <v>103</v>
       </c>
-      <c r="E11" s="64" t="s">
-        <v>104</v>
-      </c>
       <c r="F11" s="77" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="34">
+      <c r="A12" s="65" t="s">
         <v>117</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="31.5">
-      <c r="A12" s="65" t="s">
-        <v>118</v>
       </c>
       <c r="B12" s="67"/>
       <c r="C12" s="71">
         <v>0</v>
       </c>
       <c r="D12" s="67" t="s">
+        <v>102</v>
+      </c>
+      <c r="E12" s="64" t="s">
         <v>103</v>
       </c>
-      <c r="E12" s="64" t="s">
-        <v>104</v>
-      </c>
       <c r="F12" s="77" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="34">
+      <c r="A13" s="65" t="s">
         <v>119</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="31.5">
-      <c r="A13" s="65" t="s">
-        <v>120</v>
       </c>
       <c r="B13" s="67"/>
       <c r="C13" s="71">
         <v>0</v>
       </c>
       <c r="D13" s="67" t="s">
+        <v>102</v>
+      </c>
+      <c r="E13" s="64" t="s">
         <v>103</v>
       </c>
-      <c r="E13" s="64" t="s">
-        <v>104</v>
-      </c>
       <c r="F13" s="77" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="34">
+      <c r="A14" s="65" t="s">
         <v>121</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="31.5">
-      <c r="A14" s="65" t="s">
-        <v>122</v>
       </c>
       <c r="B14" s="67"/>
       <c r="C14" s="71">
         <v>0</v>
       </c>
       <c r="D14" s="67" t="s">
+        <v>102</v>
+      </c>
+      <c r="E14" s="64" t="s">
         <v>103</v>
       </c>
-      <c r="E14" s="64" t="s">
-        <v>104</v>
-      </c>
       <c r="F14" s="77" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="34">
+      <c r="A15" s="65" t="s">
         <v>123</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="31.5">
-      <c r="A15" s="65" t="s">
-        <v>124</v>
       </c>
       <c r="B15" s="67"/>
       <c r="C15" s="71">
         <v>0</v>
       </c>
       <c r="D15" s="67" t="s">
+        <v>102</v>
+      </c>
+      <c r="E15" s="64" t="s">
         <v>103</v>
       </c>
-      <c r="E15" s="64" t="s">
-        <v>104</v>
-      </c>
       <c r="F15" s="77" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="34">
+      <c r="A16" s="65" t="s">
         <v>125</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="31.5">
-      <c r="A16" s="65" t="s">
-        <v>126</v>
       </c>
       <c r="B16" s="67"/>
       <c r="C16" s="71">
         <v>0</v>
       </c>
       <c r="D16" s="67" t="s">
+        <v>102</v>
+      </c>
+      <c r="E16" s="64" t="s">
         <v>103</v>
       </c>
-      <c r="E16" s="64" t="s">
-        <v>104</v>
-      </c>
       <c r="F16" s="77" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="34">
+      <c r="A17" s="65" t="s">
         <v>127</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="31.5">
-      <c r="A17" s="65" t="s">
-        <v>128</v>
       </c>
       <c r="B17" s="67"/>
       <c r="C17" s="71">
         <v>0</v>
       </c>
       <c r="D17" s="67" t="s">
+        <v>102</v>
+      </c>
+      <c r="E17" s="64" t="s">
         <v>103</v>
       </c>
-      <c r="E17" s="64" t="s">
-        <v>104</v>
-      </c>
       <c r="F17" s="77" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="34">
+      <c r="A18" s="65" t="s">
         <v>129</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="31.5">
-      <c r="A18" s="65" t="s">
-        <v>130</v>
       </c>
       <c r="B18" s="67"/>
       <c r="C18" s="71">
         <v>0</v>
       </c>
       <c r="D18" s="67" t="s">
+        <v>102</v>
+      </c>
+      <c r="E18" s="64" t="s">
         <v>103</v>
       </c>
-      <c r="E18" s="64" t="s">
-        <v>104</v>
-      </c>
       <c r="F18" s="77" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="34">
+      <c r="A19" s="65" t="s">
         <v>131</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="31.5">
-      <c r="A19" s="65" t="s">
-        <v>132</v>
       </c>
       <c r="B19" s="67"/>
       <c r="C19" s="71">
         <v>10</v>
       </c>
       <c r="D19" s="67" t="s">
+        <v>102</v>
+      </c>
+      <c r="E19" s="64" t="s">
         <v>103</v>
       </c>
-      <c r="E19" s="64" t="s">
-        <v>104</v>
-      </c>
       <c r="F19" s="77" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="34">
+      <c r="A20" s="65" t="s">
         <v>133</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="31.5">
-      <c r="A20" s="65" t="s">
-        <v>134</v>
       </c>
       <c r="B20" s="67"/>
       <c r="C20" s="71">
         <v>10</v>
       </c>
       <c r="D20" s="67" t="s">
+        <v>102</v>
+      </c>
+      <c r="E20" s="64" t="s">
         <v>103</v>
       </c>
-      <c r="E20" s="64" t="s">
-        <v>104</v>
-      </c>
       <c r="F20" s="77" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="17">
+      <c r="A21" s="72" t="s">
         <v>135</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="72" t="s">
-        <v>136</v>
       </c>
       <c r="B21" s="73"/>
       <c r="C21" s="74">
@@ -8772,15 +8762,15 @@
       </c>
       <c r="D21" s="73"/>
       <c r="E21" s="77" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F21" s="77" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="17">
+      <c r="A22" s="72" t="s">
         <v>137</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="72" t="s">
-        <v>138</v>
       </c>
       <c r="B22" s="73"/>
       <c r="C22" s="71">
@@ -8788,42 +8778,42 @@
       </c>
       <c r="D22" s="73"/>
       <c r="E22" s="77" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F22" s="77" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="17">
+      <c r="A23" s="72" t="s">
         <v>139</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="72" t="s">
-        <v>140</v>
       </c>
       <c r="B23" s="73"/>
       <c r="C23" s="75">
         <v>5</v>
       </c>
       <c r="D23" s="73" t="s">
+        <v>102</v>
+      </c>
+      <c r="E23" s="77" t="s">
         <v>103</v>
       </c>
-      <c r="E23" s="77" t="s">
-        <v>104</v>
-      </c>
       <c r="F23" s="77" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="76" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C24" s="74">
         <v>100</v>
       </c>
       <c r="E24" s="77" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F24" s="77" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -8872,85 +8862,85 @@
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="38.5" style="8" customWidth="1"/>
-    <col min="2" max="2" width="28.125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="28.1640625" style="8" customWidth="1"/>
     <col min="3" max="3" width="13" style="8" customWidth="1"/>
-    <col min="4" max="4" width="9.875" style="8" customWidth="1"/>
-    <col min="5" max="5" width="7.875" style="8" customWidth="1"/>
-    <col min="6" max="6" width="13.625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="7.83203125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" style="8" customWidth="1"/>
     <col min="7" max="16384" width="11" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C1" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>91</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="44" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2" s="53" t="s">
         <v>145</v>
-      </c>
-      <c r="B2" s="53" t="s">
-        <v>146</v>
       </c>
       <c r="C2" s="44"/>
       <c r="D2" s="44"/>
       <c r="E2" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>147</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C3" s="4">
         <v>2.8</v>
       </c>
       <c r="D3" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>150</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>152</v>
-      </c>
-      <c r="C4" s="4">
-        <v>0</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -8990,438 +8980,438 @@
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="74.625" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.875" style="8" customWidth="1"/>
+    <col min="1" max="1" width="74.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.83203125" style="8" customWidth="1"/>
     <col min="3" max="3" width="5.5" style="8" customWidth="1"/>
     <col min="4" max="5" width="11" style="8"/>
-    <col min="6" max="6" width="7.375" style="8" customWidth="1"/>
-    <col min="7" max="7" width="10.875" style="8"/>
+    <col min="6" max="6" width="7.33203125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="8"/>
     <col min="8" max="16384" width="11" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="E1" s="9" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+    </row>
+    <row r="2" spans="1:5" ht="17">
       <c r="A2" s="55" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B2" s="56">
         <v>50</v>
       </c>
       <c r="C2" s="57" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>104</v>
-      </c>
       <c r="E2" s="9" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="17">
+      <c r="A3" s="55" t="s">
         <v>155</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="55" t="s">
-        <v>156</v>
       </c>
       <c r="B3" s="56">
         <v>3.5</v>
       </c>
       <c r="C3" s="57" t="s">
+        <v>156</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="E3" s="9" t="s">
+    </row>
+    <row r="4" spans="1:5" ht="17">
+      <c r="A4" s="55" t="s">
         <v>158</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="55" t="s">
-        <v>159</v>
       </c>
       <c r="B4" s="56">
         <v>4.5</v>
       </c>
       <c r="C4" s="57" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E4" s="9" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="17">
+      <c r="A5" s="55" t="s">
         <v>160</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="55" t="s">
-        <v>161</v>
       </c>
       <c r="B5" s="56">
         <v>1</v>
       </c>
       <c r="C5" s="57"/>
       <c r="D5" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="E5" s="9" t="s">
+    </row>
+    <row r="6" spans="1:5" ht="17">
+      <c r="A6" s="55" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="55" t="s">
+      <c r="B6" s="56">
+        <v>0</v>
+      </c>
+      <c r="C6" s="57" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="B6" s="56">
-        <v>0</v>
-      </c>
-      <c r="C6" s="57" t="s">
-        <v>103</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="E6" s="9" t="s">
+    </row>
+    <row r="7" spans="1:5" ht="17">
+      <c r="A7" s="55" t="s">
         <v>165</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="55" t="s">
-        <v>166</v>
       </c>
       <c r="B7" s="56">
         <v>150</v>
       </c>
       <c r="C7" s="57" t="s">
+        <v>166</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="E7" s="9" t="s">
+    </row>
+    <row r="8" spans="1:5" ht="17">
+      <c r="A8" s="55" t="s">
         <v>168</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="55" t="s">
-        <v>169</v>
       </c>
       <c r="B8" s="56">
         <v>15</v>
       </c>
       <c r="C8" s="57" t="s">
+        <v>102</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>104</v>
-      </c>
       <c r="E8" s="9" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="17">
+      <c r="A9" s="55" t="s">
         <v>170</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="55" t="s">
-        <v>171</v>
       </c>
       <c r="B9" s="56">
         <v>25</v>
       </c>
       <c r="C9" s="57" t="s">
+        <v>102</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>104</v>
-      </c>
       <c r="E9" s="9" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="17">
+      <c r="A10" s="55" t="s">
         <v>172</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="55" t="s">
-        <v>173</v>
       </c>
       <c r="B10" s="56">
         <v>40</v>
       </c>
       <c r="C10" s="57" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>104</v>
-      </c>
       <c r="E10" s="9" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="17">
+      <c r="A11" s="55" t="s">
         <v>174</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="55" t="s">
-        <v>175</v>
       </c>
       <c r="B11" s="58">
         <v>50</v>
       </c>
       <c r="C11" s="44" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>104</v>
-      </c>
       <c r="E11" s="9" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="34">
+      <c r="A12" s="55" t="s">
         <v>176</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="31.5">
-      <c r="A12" s="55" t="s">
-        <v>177</v>
       </c>
       <c r="B12" s="59">
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>104</v>
-      </c>
       <c r="E12" s="9" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="34">
+      <c r="A13" s="55" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="31.5">
-      <c r="A13" s="55" t="s">
+      <c r="B13" s="59">
+        <v>0</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E13" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="B13" s="59">
-        <v>0</v>
-      </c>
-      <c r="C13" s="8" t="s">
+    </row>
+    <row r="14" spans="1:5" ht="17">
+      <c r="A14" s="55" t="s">
+        <v>180</v>
+      </c>
+      <c r="B14" s="59">
+        <v>0</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="D13" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="31.5">
-      <c r="A14" s="55" t="s">
+      <c r="E14" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="B14" s="59">
-        <v>0</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="E14" s="9" t="s">
+    </row>
+    <row r="15" spans="1:5" ht="34">
+      <c r="A15" s="55" t="s">
         <v>182</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="31.5">
-      <c r="A15" s="55" t="s">
-        <v>183</v>
       </c>
       <c r="B15" s="59">
         <v>20</v>
       </c>
       <c r="C15" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D15" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="D15" s="9" t="s">
-        <v>104</v>
-      </c>
       <c r="E15" s="9" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="34">
+      <c r="A16" s="55" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="31.5">
-      <c r="A16" s="55" t="s">
+      <c r="B16" s="59">
+        <v>0</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E16" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="B16" s="59">
-        <v>0</v>
-      </c>
-      <c r="C16" s="8" t="s">
+    </row>
+    <row r="17" spans="1:5" ht="34">
+      <c r="A17" s="55" t="s">
+        <v>186</v>
+      </c>
+      <c r="B17" s="59">
+        <v>0</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D17" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="D16" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="31.5">
-      <c r="A17" s="55" t="s">
+      <c r="E17" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="B17" s="59">
-        <v>0</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="E17" s="9" t="s">
+    </row>
+    <row r="18" spans="1:5" ht="34">
+      <c r="A18" s="55" t="s">
         <v>188</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="31.5">
-      <c r="A18" s="55" t="s">
-        <v>189</v>
       </c>
       <c r="B18" s="59">
         <v>20</v>
       </c>
       <c r="C18" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D18" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="D18" s="9" t="s">
-        <v>104</v>
-      </c>
       <c r="E18" s="9" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="34">
+      <c r="A19" s="55" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="31.5">
-      <c r="A19" s="55" t="s">
+      <c r="B19" s="59">
+        <v>0</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E19" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="B19" s="59">
-        <v>0</v>
-      </c>
-      <c r="C19" s="8" t="s">
+    </row>
+    <row r="20" spans="1:5" s="54" customFormat="1" ht="34">
+      <c r="A20" s="55" t="s">
+        <v>192</v>
+      </c>
+      <c r="B20" s="60">
+        <v>0</v>
+      </c>
+      <c r="C20" s="54" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="61" t="s">
         <v>103</v>
       </c>
-      <c r="D19" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" s="54" customFormat="1" ht="31.5">
-      <c r="A20" s="55" t="s">
+      <c r="E20" s="61" t="s">
         <v>193</v>
-      </c>
-      <c r="B20" s="60">
-        <v>0</v>
-      </c>
-      <c r="C20" s="54" t="s">
-        <v>103</v>
-      </c>
-      <c r="D20" s="61" t="s">
-        <v>104</v>
-      </c>
-      <c r="E20" s="61" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="21" spans="1:5" s="54" customFormat="1" ht="30" customHeight="1">
       <c r="A21" s="62" t="s">
+        <v>194</v>
+      </c>
+      <c r="B21" s="60">
+        <v>0</v>
+      </c>
+      <c r="C21" s="54" t="s">
+        <v>102</v>
+      </c>
+      <c r="D21" s="61" t="s">
+        <v>103</v>
+      </c>
+      <c r="E21" s="61" t="s">
         <v>195</v>
-      </c>
-      <c r="B21" s="60">
-        <v>0</v>
-      </c>
-      <c r="C21" s="54" t="s">
-        <v>103</v>
-      </c>
-      <c r="D21" s="61" t="s">
-        <v>104</v>
-      </c>
-      <c r="E21" s="61" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="22" spans="1:5" s="54" customFormat="1" ht="32.25" customHeight="1">
       <c r="A22" s="55" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B22" s="60">
         <v>20</v>
       </c>
       <c r="C22" s="54" t="s">
+        <v>102</v>
+      </c>
+      <c r="D22" s="61" t="s">
         <v>103</v>
       </c>
-      <c r="D22" s="61" t="s">
-        <v>104</v>
-      </c>
       <c r="E22" s="61" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="54" customFormat="1" ht="17" customHeight="1">
+      <c r="A23" s="55" t="s">
+        <v>481</v>
+      </c>
+      <c r="B23" s="60">
+        <v>0</v>
+      </c>
+      <c r="C23" s="54" t="s">
+        <v>102</v>
+      </c>
+      <c r="D23" s="61" t="s">
+        <v>103</v>
+      </c>
+      <c r="E23" s="61" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="54" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A23" s="55" t="s">
+    <row r="24" spans="1:5" s="54" customFormat="1" ht="17">
+      <c r="A24" s="55" t="s">
         <v>482</v>
       </c>
-      <c r="B23" s="60">
-        <v>0</v>
-      </c>
-      <c r="C23" s="54" t="s">
+      <c r="B24" s="60">
+        <v>0</v>
+      </c>
+      <c r="C24" s="54" t="s">
+        <v>102</v>
+      </c>
+      <c r="D24" s="61" t="s">
         <v>103</v>
       </c>
-      <c r="D23" s="61" t="s">
-        <v>104</v>
-      </c>
-      <c r="E23" s="61" t="s">
+      <c r="E24" s="61" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="54" customFormat="1" ht="31.5">
-      <c r="A24" s="55" t="s">
-        <v>483</v>
-      </c>
-      <c r="B24" s="60">
-        <v>0</v>
-      </c>
-      <c r="C24" s="54" t="s">
-        <v>103</v>
-      </c>
-      <c r="D24" s="61" t="s">
-        <v>104</v>
-      </c>
-      <c r="E24" s="61" t="s">
+    <row r="25" spans="1:5" s="54" customFormat="1" ht="17">
+      <c r="A25" s="55" t="s">
         <v>199</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" s="54" customFormat="1">
-      <c r="A25" s="55" t="s">
-        <v>200</v>
       </c>
       <c r="B25" s="60">
         <v>100</v>
       </c>
       <c r="C25" s="54" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D25" s="61" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E25" s="61" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -9478,385 +9468,385 @@
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="71.5" style="8" customWidth="1"/>
     <col min="2" max="2" width="12.5" style="8" customWidth="1"/>
-    <col min="3" max="3" width="9.875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="7.875" style="8" customWidth="1"/>
-    <col min="5" max="5" width="18.375" style="8" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="7.83203125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" style="8" customWidth="1"/>
     <col min="6" max="16384" width="11" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>91</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B2" s="52">
         <v>160000</v>
       </c>
       <c r="C2" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>203</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B3" s="52">
         <v>8000</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B4" s="52">
         <v>8000</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B5" s="4">
         <v>5</v>
       </c>
       <c r="C5" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>104</v>
-      </c>
       <c r="E5" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B6" s="4">
         <v>1</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="44" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B7" s="53">
         <v>15</v>
       </c>
       <c r="C7" s="44" t="s">
+        <v>102</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>104</v>
-      </c>
       <c r="E7" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="44" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B8" s="53">
         <v>20</v>
       </c>
       <c r="C8" s="44" t="s">
+        <v>102</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>104</v>
-      </c>
       <c r="E8" s="9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="44" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B9" s="53">
         <v>50</v>
       </c>
       <c r="C9" s="44" t="s">
+        <v>102</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>104</v>
-      </c>
       <c r="E9" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="44" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B10" s="53">
         <v>50</v>
       </c>
       <c r="C10" s="44" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>104</v>
-      </c>
       <c r="E10" s="9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="44" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B11" s="53">
         <v>30</v>
       </c>
       <c r="C11" s="44" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>104</v>
-      </c>
       <c r="E11" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="44" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B12" s="53">
         <v>40</v>
       </c>
       <c r="C12" s="44" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>104</v>
-      </c>
       <c r="E12" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="44" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B13" s="53">
         <v>75</v>
       </c>
       <c r="C13" s="44" t="s">
+        <v>102</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="D13" s="9" t="s">
-        <v>104</v>
-      </c>
       <c r="E13" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="44" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B14" s="53">
         <v>75</v>
       </c>
       <c r="C14" s="44" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="D14" s="9" t="s">
-        <v>104</v>
-      </c>
       <c r="E14" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B15" s="4">
         <v>70</v>
       </c>
       <c r="C15" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D15" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="D15" s="9" t="s">
-        <v>104</v>
-      </c>
       <c r="E15" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B16" s="4">
         <v>90</v>
       </c>
       <c r="C16" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D16" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="D16" s="9" t="s">
-        <v>104</v>
-      </c>
       <c r="E16" s="9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B17" s="4">
         <v>90</v>
       </c>
       <c r="C17" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D17" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="D17" s="9" t="s">
-        <v>104</v>
-      </c>
       <c r="E17" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B18" s="4">
         <v>90</v>
       </c>
       <c r="C18" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D18" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="D18" s="9" t="s">
-        <v>104</v>
-      </c>
       <c r="E18" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B19" s="4">
         <v>90</v>
       </c>
       <c r="C19" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D19" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="D19" s="9" t="s">
-        <v>104</v>
-      </c>
       <c r="E19" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B20" s="4">
         <v>5</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B21" s="4">
         <v>7</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B22" s="4">
         <v>7</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -9895,40 +9885,40 @@
       <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="35" style="8" customWidth="1"/>
-    <col min="2" max="2" width="42.625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="8.375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="42.6640625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" style="8" customWidth="1"/>
     <col min="4" max="4" width="8" style="8" customWidth="1"/>
     <col min="5" max="5" width="11" style="8"/>
-    <col min="6" max="6" width="20.625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" style="8" customWidth="1"/>
     <col min="7" max="16384" width="11" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>246</v>
-      </c>
       <c r="C1" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>91</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="12"/>
@@ -9936,27 +9926,27 @@
       <c r="E2" s="46"/>
       <c r="F2" s="47"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" ht="17">
       <c r="A3" s="13"/>
       <c r="B3" s="14" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C3" s="15">
         <v>50</v>
       </c>
       <c r="D3" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3" s="48" t="s">
         <v>103</v>
       </c>
-      <c r="E3" s="48" t="s">
-        <v>104</v>
-      </c>
       <c r="F3" s="49" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="18"/>
@@ -9964,43 +9954,43 @@
       <c r="E4" s="46"/>
       <c r="F4" s="47"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" ht="17">
       <c r="A5" s="20"/>
       <c r="B5" s="21" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C5" s="22">
         <v>4</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="48" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F5" s="49" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="17">
       <c r="A6" s="20"/>
       <c r="B6" s="21" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C6" s="22">
         <v>80</v>
       </c>
       <c r="D6" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="E6" s="48" t="s">
         <v>103</v>
       </c>
-      <c r="E6" s="48" t="s">
-        <v>104</v>
-      </c>
       <c r="F6" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B7" s="17"/>
       <c r="C7" s="18"/>
@@ -10008,81 +9998,81 @@
       <c r="E7" s="46"/>
       <c r="F7" s="47"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" ht="17">
       <c r="A8" s="13"/>
       <c r="B8" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C8" s="15">
         <v>14</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E8" s="48" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F8" s="49" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="31.5">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="34">
       <c r="A9" s="13"/>
       <c r="B9" s="21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C9" s="22">
         <v>2</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E9" s="48" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F9" s="49" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="31.5">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="34">
       <c r="A10" s="13"/>
       <c r="B10" s="14" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C10" s="15">
         <v>20</v>
       </c>
       <c r="D10" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="E10" s="48" t="s">
         <v>103</v>
       </c>
-      <c r="E10" s="48" t="s">
-        <v>104</v>
-      </c>
       <c r="F10" s="49" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="31.5">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="34">
       <c r="A11" s="23"/>
       <c r="B11" s="24" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C11" s="25">
         <v>100</v>
       </c>
       <c r="D11" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="E11" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="E11" s="50" t="s">
-        <v>104</v>
-      </c>
       <c r="F11" s="51" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="27" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B12" s="28"/>
       <c r="C12" s="29"/>
@@ -10090,27 +10080,27 @@
       <c r="E12" s="46"/>
       <c r="F12" s="47"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" ht="17">
       <c r="A13" s="31"/>
       <c r="B13" s="32" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C13" s="33">
         <v>100</v>
       </c>
       <c r="D13" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="E13" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="E13" s="50" t="s">
-        <v>104</v>
-      </c>
       <c r="F13" s="51" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="27" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B14" s="28"/>
       <c r="C14" s="29"/>
@@ -10118,27 +10108,27 @@
       <c r="E14" s="46"/>
       <c r="F14" s="47"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" ht="17">
       <c r="A15" s="31"/>
       <c r="B15" s="35" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C15" s="33">
         <v>20</v>
       </c>
       <c r="D15" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="E15" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="E15" s="50" t="s">
-        <v>104</v>
-      </c>
       <c r="F15" s="51" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="27" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B16" s="28"/>
       <c r="C16" s="29"/>
@@ -10146,27 +10136,27 @@
       <c r="E16" s="46"/>
       <c r="F16" s="47"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" ht="17">
       <c r="A17" s="31"/>
       <c r="B17" s="36" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C17" s="37">
         <v>15</v>
       </c>
       <c r="D17" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="E17" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="E17" s="50" t="s">
-        <v>104</v>
-      </c>
       <c r="F17" s="51" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="27" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B18" s="28"/>
       <c r="C18" s="29"/>
@@ -10174,45 +10164,45 @@
       <c r="E18" s="46"/>
       <c r="F18" s="47"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" ht="17">
       <c r="A19" s="38"/>
       <c r="B19" s="35" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C19" s="39">
         <v>85</v>
       </c>
       <c r="D19" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="E19" s="48" t="s">
         <v>103</v>
       </c>
-      <c r="E19" s="48" t="s">
-        <v>104</v>
-      </c>
       <c r="F19" s="49" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="31.5">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="34">
       <c r="A20" s="31"/>
       <c r="B20" s="32" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C20" s="33">
         <v>10</v>
       </c>
       <c r="D20" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="E20" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="E20" s="50" t="s">
-        <v>104</v>
-      </c>
       <c r="F20" s="51" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="27" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B21" s="28"/>
       <c r="C21" s="29"/>
@@ -10220,27 +10210,27 @@
       <c r="E21" s="46"/>
       <c r="F21" s="47"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" ht="17">
       <c r="A22" s="31"/>
       <c r="B22" s="32" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C22" s="33">
         <v>20</v>
       </c>
       <c r="D22" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="E22" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="E22" s="50" t="s">
-        <v>104</v>
-      </c>
       <c r="F22" s="51" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="27" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B23" s="28"/>
       <c r="C23" s="29"/>
@@ -10248,45 +10238,45 @@
       <c r="E23" s="46"/>
       <c r="F23" s="47"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" ht="17">
       <c r="A24" s="38"/>
       <c r="B24" s="35" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C24" s="39">
         <v>95</v>
       </c>
       <c r="D24" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="E24" s="48" t="s">
         <v>103</v>
       </c>
-      <c r="E24" s="48" t="s">
-        <v>104</v>
-      </c>
       <c r="F24" s="49" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="17">
       <c r="A25" s="31"/>
       <c r="B25" s="32" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C25" s="33">
         <v>70</v>
       </c>
       <c r="D25" s="34" t="s">
+        <v>282</v>
+      </c>
+      <c r="E25" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="F25" s="51" t="s">
         <v>283</v>
-      </c>
-      <c r="E25" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="F25" s="51" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="27" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B26" s="28"/>
       <c r="C26" s="29"/>
@@ -10294,99 +10284,99 @@
       <c r="E26" s="46"/>
       <c r="F26" s="47"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" ht="17">
       <c r="A27" s="38"/>
       <c r="B27" s="35" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C27" s="39">
         <v>4</v>
       </c>
       <c r="D27" s="40" t="s">
+        <v>286</v>
+      </c>
+      <c r="E27" s="48" t="s">
+        <v>103</v>
+      </c>
+      <c r="F27" s="49" t="s">
         <v>287</v>
       </c>
-      <c r="E27" s="48" t="s">
-        <v>104</v>
-      </c>
-      <c r="F27" s="49" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+    </row>
+    <row r="28" spans="1:6" ht="17">
       <c r="A28" s="38"/>
       <c r="B28" s="14" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C28" s="15">
         <v>100</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E28" s="48" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F28" s="49" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="31.5">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="34">
       <c r="A29" s="38"/>
       <c r="B29" s="14" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C29" s="15">
         <v>100</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E29" s="48" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F29" s="49" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="17">
       <c r="A30" s="38"/>
       <c r="B30" s="14" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C30" s="41">
         <v>100</v>
       </c>
       <c r="D30" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="E30" s="48" t="s">
         <v>103</v>
       </c>
-      <c r="E30" s="48" t="s">
-        <v>104</v>
-      </c>
       <c r="F30" s="49" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="17">
       <c r="A31" s="31"/>
       <c r="B31" s="24" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C31" s="25">
         <v>100</v>
       </c>
       <c r="D31" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="E31" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="E31" s="50" t="s">
-        <v>104</v>
-      </c>
       <c r="F31" s="51" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="27" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B32" s="28"/>
       <c r="C32" s="29"/>
@@ -10394,45 +10384,45 @@
       <c r="E32" s="46"/>
       <c r="F32" s="47"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" ht="17">
       <c r="A33" s="38"/>
       <c r="B33" s="35" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C33" s="39">
         <v>80</v>
       </c>
       <c r="D33" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="E33" s="48" t="s">
         <v>103</v>
       </c>
-      <c r="E33" s="48" t="s">
-        <v>104</v>
-      </c>
       <c r="F33" s="49" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="17">
       <c r="A34" s="38"/>
       <c r="B34" s="35" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C34" s="39">
         <v>14</v>
       </c>
       <c r="D34" s="40" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E34" s="48" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F34" s="49" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="27" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B35" s="28"/>
       <c r="C35" s="29"/>
@@ -10440,94 +10430,94 @@
       <c r="E35" s="46"/>
       <c r="F35" s="47"/>
     </row>
-    <row r="36" spans="1:6" ht="31.5">
+    <row r="36" spans="1:6" ht="34">
       <c r="A36" s="38"/>
       <c r="B36" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C36" s="42">
         <v>82</v>
       </c>
       <c r="D36" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="E36" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="E36" s="9" t="s">
-        <v>104</v>
-      </c>
       <c r="F36" s="49" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="31.5">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="34">
       <c r="A37" s="44"/>
       <c r="B37" s="36" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C37" s="42">
         <v>64</v>
       </c>
       <c r="D37" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="E37" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="E37" s="9" t="s">
-        <v>104</v>
-      </c>
       <c r="F37" s="49" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="31.5">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="34">
       <c r="A38" s="38"/>
       <c r="B38" s="36" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C38" s="42">
         <v>82</v>
       </c>
       <c r="D38" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="E38" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="E38" s="9" t="s">
-        <v>104</v>
-      </c>
       <c r="F38" s="49" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="31.5">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="34">
       <c r="A39" s="38"/>
       <c r="B39" s="35" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C39" s="45">
         <v>64</v>
       </c>
       <c r="D39" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="E39" s="48" t="s">
         <v>103</v>
       </c>
-      <c r="E39" s="48" t="s">
-        <v>104</v>
-      </c>
       <c r="F39" s="49" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="17">
       <c r="A40" s="31"/>
       <c r="B40" s="32" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C40" s="37">
         <v>87</v>
       </c>
       <c r="D40" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="E40" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="E40" s="50" t="s">
-        <v>104</v>
-      </c>
       <c r="F40" s="51" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
   </sheetData>
